--- a/관리산출물/관리산출물PMP_PSP/PMP개발진척관리.xlsx
+++ b/관리산출물/관리산출물PMP_PSP/PMP개발진척관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGTSeo\Documents\GitHub\sinsudong-crusher-home\관리산출물\관리산출물PMP PSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B409BFA-68D7-4771-9D5E-CCD9EC8A1970}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8485C8-B40C-4CEF-8F42-3EFF2EC4385F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" activeTab="2" xr2:uid="{B0FEA910-A32B-4990-900D-6A7669576AE5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="174">
   <si>
     <t>No</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -601,30 +601,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원선호정보저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원선호정보조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원선택지역저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원선택지역조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원퍼스널리티 저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 퍼스널리티 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지역 선택방식 결정화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -641,10 +617,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">데이터 소켓 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 학습모델</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -657,18 +629,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아이템 전체 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">좋아요 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요 취소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>메인 추천화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -677,27 +637,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>즐겨찾기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기 취소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>즐겨찾기 아이템 전체 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>FRONT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상세 페이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연관 API 조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -710,6 +654,74 @@
   </si>
   <si>
     <t>4) 테스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 페이지 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 전체 조회 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">좋아요 API </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 취소 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기 취소 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기 아이템 전체 조회 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원선호정보저장 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원선호정보조회 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원선택지역저장 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원선택지역조회 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원퍼스널리티 저장 API </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 퍼스널리티 조회 API</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 소켓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 다이어그램</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차 다이어그램</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차 다이어그램</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -865,7 +877,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1084,6 +1096,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1096,7 +1119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1274,18 +1297,6 @@
     <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1343,13 +1354,54 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal 3" xfId="2" xr:uid="{AF9BE904-5AD1-4BA8-9FA3-2F45133819D2}"/>
     <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1757,8 +1809,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{04AD96D7-1E57-4F63-BBE4-BBF6247FC84B}">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="wholeTable" dxfId="46"/>
+      <tableStyleElement type="headerRow" dxfId="45"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2213,12 +2265,12 @@
       <c r="I2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="20"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="22">
         <v>43711</v>
       </c>
@@ -2414,12 +2466,12 @@
       <c r="G3" s="32"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="60"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="33"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
       <c r="P3" s="22">
         <v>43711</v>
       </c>
@@ -13479,46 +13531,46 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K4:K36 K38:K73">
-    <cfRule type="cellIs" dxfId="42" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="11">
+    <cfRule type="expression" dxfId="43" priority="11">
       <formula>AND(NOT(ISBLANK($K4)), NOT(ISBLANK($O4)), $K4 &lt;= 0.5, AND(TODAY() &gt;= $N4, TODAY() &lt;= $O4, TODAY()+4 &gt; $O4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="12">
+    <cfRule type="expression" dxfId="42" priority="12">
       <formula>AND(NOT(ISBLANK($K4)), NOT(ISBLANK($O4)), $K4 &lt; 1, TODAY() &gt; $O4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:O36 N38:O73">
-    <cfRule type="containsBlanks" dxfId="39" priority="7">
+    <cfRule type="containsBlanks" dxfId="41" priority="7">
       <formula>LEN(TRIM(N4))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="8" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:BK73">
-    <cfRule type="cellIs" dxfId="37" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="between">
       <formula>$N4</formula>
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K37">
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>AND(NOT(ISBLANK($K37)), NOT(ISBLANK($O37)), $K37 &lt;= 0.5, AND(TODAY() &gt;= $N37, TODAY() &lt;= $O37, TODAY()+4 &gt; $O37))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="5">
+    <cfRule type="expression" dxfId="36" priority="5">
       <formula>AND(NOT(ISBLANK($K37)), NOT(ISBLANK($O37)), $K37 &lt; 1, TODAY() &gt; $O37)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37:O37">
-    <cfRule type="containsBlanks" dxfId="33" priority="1">
+    <cfRule type="containsBlanks" dxfId="35" priority="1">
       <formula>LEN(TRIM(N37))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13666,12 +13718,12 @@
       <c r="H2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="59"/>
+      <c r="I2" s="78"/>
       <c r="J2" s="20"/>
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
       <c r="O2" s="22">
         <v>43711</v>
       </c>
@@ -13867,12 +13919,12 @@
       <c r="F3" s="32"/>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
-      <c r="I3" s="60"/>
+      <c r="I3" s="79"/>
       <c r="J3" s="33"/>
       <c r="K3" s="34"/>
       <c r="L3" s="34"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
       <c r="O3" s="22">
         <v>43711</v>
       </c>
@@ -24456,26 +24508,26 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J4:J58">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="5">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>AND(NOT(ISBLANK($K4)), NOT(ISBLANK($O4)), $K4 &lt;= 0.5, AND(TODAY() &gt;= $N4, TODAY() &lt;= $O4, TODAY()+4 &gt; $O4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>AND(NOT(ISBLANK($K4)), NOT(ISBLANK($O4)), $K4 &lt; 1, TODAY() &gt; $O4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:N58">
-    <cfRule type="containsBlanks" dxfId="28" priority="2">
+    <cfRule type="containsBlanks" dxfId="30" priority="2">
       <formula>LEN(TRIM(M4))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:BJ72">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="between">
       <formula>$N4</formula>
       <formula>$O4</formula>
     </cfRule>
@@ -24487,10 +24539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C0CAAB-345D-441F-BEA6-30F9ABB50077}">
-  <dimension ref="A1:BK301"/>
+  <dimension ref="A1:BK302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -24628,12 +24680,12 @@
       <c r="I2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="78"/>
       <c r="K2" s="20"/>
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="22">
         <v>43711</v>
       </c>
@@ -24831,12 +24883,12 @@
       <c r="G3" s="32"/>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
-      <c r="J3" s="60"/>
+      <c r="J3" s="79"/>
       <c r="K3" s="33"/>
       <c r="L3" s="58"/>
       <c r="M3" s="58"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
       <c r="P3" s="22">
         <v>43711</v>
       </c>
@@ -27963,10 +28015,10 @@
       <c r="F22" s="55"/>
       <c r="G22" s="56"/>
       <c r="H22" s="46"/>
-      <c r="I22" s="63" t="s">
+      <c r="I22" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="64"/>
+      <c r="J22" s="60"/>
       <c r="K22" s="48">
         <v>1</v>
       </c>
@@ -28123,8 +28175,8 @@
       <c r="F23" s="55"/>
       <c r="G23" s="56"/>
       <c r="H23" s="46"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
       <c r="K23" s="48"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
@@ -28193,8 +28245,8 @@
       <c r="F24" s="55"/>
       <c r="G24" s="56"/>
       <c r="H24" s="46"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
       <c r="K24" s="48">
         <v>1</v>
       </c>
@@ -28257,19 +28309,15 @@
     </row>
     <row r="25" spans="2:63" x14ac:dyDescent="0.45">
       <c r="B25" s="40"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="56"/>
       <c r="H25" s="46"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="48">
-        <v>0</v>
-      </c>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="48"/>
       <c r="L25" s="47"/>
       <c r="M25" s="47"/>
       <c r="N25" s="49"/>
@@ -28325,27 +28373,23 @@
     </row>
     <row r="26" spans="2:63" x14ac:dyDescent="0.45">
       <c r="B26" s="40"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="74"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
       <c r="G26" s="56"/>
       <c r="H26" s="46"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
       <c r="K26" s="48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="47"/>
       <c r="M26" s="47"/>
-      <c r="N26" s="49">
-        <v>43739</v>
-      </c>
-      <c r="O26" s="49">
-        <v>43739</v>
-      </c>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
       <c r="P26" s="50"/>
       <c r="Q26" s="53"/>
       <c r="R26" s="53"/>
@@ -28397,14 +28441,16 @@
     </row>
     <row r="27" spans="2:63" x14ac:dyDescent="0.45">
       <c r="B27" s="40"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="74"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="70"/>
       <c r="G27" s="56"/>
       <c r="H27" s="46"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
       <c r="K27" s="48"/>
       <c r="L27" s="47"/>
       <c r="M27" s="47"/>
@@ -28461,14 +28507,16 @@
     </row>
     <row r="28" spans="2:63" x14ac:dyDescent="0.45">
       <c r="B28" s="40"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70" t="s">
+        <v>171</v>
+      </c>
       <c r="G28" s="56"/>
       <c r="H28" s="46"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
       <c r="K28" s="48"/>
       <c r="L28" s="47"/>
       <c r="M28" s="47"/>
@@ -28525,14 +28573,16 @@
     </row>
     <row r="29" spans="2:63" x14ac:dyDescent="0.45">
       <c r="B29" s="40"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70" t="s">
+        <v>172</v>
+      </c>
       <c r="G29" s="56"/>
       <c r="H29" s="46"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
       <c r="K29" s="48"/>
       <c r="L29" s="47"/>
       <c r="M29" s="47"/>
@@ -28589,14 +28639,16 @@
     </row>
     <row r="30" spans="2:63" x14ac:dyDescent="0.45">
       <c r="B30" s="40"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="70" t="s">
+        <v>173</v>
+      </c>
       <c r="G30" s="56"/>
       <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="47"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
       <c r="K30" s="48"/>
       <c r="L30" s="47"/>
       <c r="M30" s="47"/>
@@ -28605,151 +28657,59 @@
       <c r="P30" s="50"/>
       <c r="Q30" s="53"/>
       <c r="R30" s="53"/>
-      <c r="S30" s="51">
-        <v>43714</v>
-      </c>
-      <c r="T30" s="51">
-        <v>43715</v>
-      </c>
-      <c r="U30" s="52">
-        <v>43716</v>
-      </c>
-      <c r="V30" s="51">
-        <v>43717</v>
-      </c>
-      <c r="W30" s="51">
-        <v>43718</v>
-      </c>
-      <c r="X30" s="52">
-        <v>43719</v>
-      </c>
-      <c r="Y30" s="51">
-        <v>43720</v>
-      </c>
-      <c r="Z30" s="51">
-        <v>43721</v>
-      </c>
-      <c r="AA30" s="52">
-        <v>43724</v>
-      </c>
-      <c r="AB30" s="51">
-        <v>43725</v>
-      </c>
-      <c r="AC30" s="51">
-        <v>43726</v>
-      </c>
-      <c r="AD30" s="52">
-        <v>43727</v>
-      </c>
-      <c r="AE30" s="51">
-        <v>43728</v>
-      </c>
-      <c r="AF30" s="51">
-        <v>43731</v>
-      </c>
-      <c r="AG30" s="52">
-        <v>43732</v>
-      </c>
-      <c r="AH30" s="51">
-        <v>43733</v>
-      </c>
-      <c r="AI30" s="51">
-        <v>43734</v>
-      </c>
-      <c r="AJ30" s="52">
-        <v>43735</v>
-      </c>
-      <c r="AK30" s="51">
-        <v>43738</v>
-      </c>
-      <c r="AL30" s="51">
-        <v>43739</v>
-      </c>
-      <c r="AM30" s="52">
-        <v>43740</v>
-      </c>
-      <c r="AN30" s="51">
-        <v>43741</v>
-      </c>
-      <c r="AO30" s="51">
-        <v>43742</v>
-      </c>
-      <c r="AP30" s="52">
-        <v>43745</v>
-      </c>
-      <c r="AQ30" s="51">
-        <v>43746</v>
-      </c>
-      <c r="AR30" s="51">
-        <v>43747</v>
-      </c>
-      <c r="AS30" s="52">
-        <v>43748</v>
-      </c>
-      <c r="AT30" s="51">
-        <v>43749</v>
-      </c>
-      <c r="AU30" s="51">
-        <v>43752</v>
-      </c>
-      <c r="AV30" s="52">
-        <v>43753</v>
-      </c>
-      <c r="AW30" s="51">
-        <v>43754</v>
-      </c>
-      <c r="AX30" s="51">
-        <v>43755</v>
-      </c>
-      <c r="AY30" s="52">
-        <v>43756</v>
-      </c>
-      <c r="AZ30" s="51">
-        <v>43759</v>
-      </c>
-      <c r="BA30" s="51">
-        <v>43760</v>
-      </c>
-      <c r="BB30" s="52">
-        <v>43761</v>
-      </c>
-      <c r="BC30" s="51">
-        <v>43762</v>
-      </c>
-      <c r="BD30" s="51">
-        <v>43763</v>
-      </c>
-      <c r="BE30" s="52">
-        <v>43766</v>
-      </c>
-      <c r="BF30" s="51">
-        <v>43767</v>
-      </c>
-      <c r="BG30" s="51">
-        <v>43768</v>
-      </c>
-      <c r="BH30" s="52">
-        <v>43769</v>
-      </c>
-      <c r="BI30" s="51">
-        <v>43770</v>
-      </c>
-      <c r="BJ30" s="51">
-        <v>43773</v>
-      </c>
-      <c r="BK30" s="52">
-        <v>43774</v>
-      </c>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="52"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="52"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="51"/>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="52"/>
+      <c r="AK30" s="51"/>
+      <c r="AL30" s="51"/>
+      <c r="AM30" s="52"/>
+      <c r="AN30" s="51"/>
+      <c r="AO30" s="51"/>
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="51"/>
+      <c r="AU30" s="51"/>
+      <c r="AV30" s="52"/>
+      <c r="AW30" s="51"/>
+      <c r="AX30" s="51"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="51"/>
+      <c r="BA30" s="51"/>
+      <c r="BB30" s="52"/>
+      <c r="BC30" s="51"/>
+      <c r="BD30" s="51"/>
+      <c r="BE30" s="52"/>
+      <c r="BF30" s="51"/>
+      <c r="BG30" s="51"/>
+      <c r="BH30" s="52"/>
+      <c r="BI30" s="51"/>
+      <c r="BJ30" s="51"/>
+      <c r="BK30" s="52"/>
     </row>
     <row r="31" spans="2:63" x14ac:dyDescent="0.45">
       <c r="B31" s="40"/>
-      <c r="C31" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="45"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
       <c r="J31" s="47"/>
@@ -28899,12 +28859,12 @@
     </row>
     <row r="32" spans="2:63" x14ac:dyDescent="0.45">
       <c r="B32" s="40"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="72"/>
+      <c r="C32" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="45"/>
       <c r="H32" s="46"/>
       <c r="I32" s="46"/>
@@ -29055,14 +29015,16 @@
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B33" s="40"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="45"/>
       <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="47"/>
       <c r="K33" s="48"/>
       <c r="L33" s="47"/>
       <c r="M33" s="47"/>
@@ -29209,29 +29171,19 @@
     </row>
     <row r="34" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B34" s="40"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="G34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="46"/>
-      <c r="I34" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="47"/>
-      <c r="K34" s="48">
-        <v>1</v>
-      </c>
+      <c r="K34" s="48"/>
       <c r="L34" s="47"/>
       <c r="M34" s="47"/>
-      <c r="N34" s="49">
-        <v>43785</v>
-      </c>
-      <c r="O34" s="49">
-        <v>43800</v>
-      </c>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
       <c r="P34" s="50"/>
       <c r="Q34" s="53"/>
       <c r="R34" s="53"/>
@@ -29373,13 +29325,13 @@
     </row>
     <row r="35" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B35" s="40"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="64"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="60"/>
       <c r="H35" s="46"/>
       <c r="I35" s="46" t="s">
         <v>55</v>
@@ -29537,13 +29489,13 @@
     </row>
     <row r="36" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B36" s="40"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="64" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="64"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="60"/>
       <c r="H36" s="46"/>
       <c r="I36" s="46" t="s">
         <v>55</v>
@@ -29701,21 +29653,29 @@
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B37" s="40"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="60"/>
       <c r="H37" s="46"/>
-      <c r="I37" s="46"/>
+      <c r="I37" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="J37" s="47"/>
-      <c r="K37" s="48"/>
+      <c r="K37" s="48">
+        <v>1</v>
+      </c>
       <c r="L37" s="47"/>
       <c r="M37" s="47"/>
-      <c r="N37" s="49"/>
-      <c r="O37" s="49"/>
+      <c r="N37" s="49">
+        <v>43785</v>
+      </c>
+      <c r="O37" s="49">
+        <v>43800</v>
+      </c>
       <c r="P37" s="50"/>
       <c r="Q37" s="53"/>
       <c r="R37" s="53"/>
@@ -29857,29 +29817,21 @@
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B38" s="40"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" s="64"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="46"/>
-      <c r="I38" s="46" t="s">
-        <v>53</v>
-      </c>
+      <c r="I38" s="46"/>
       <c r="J38" s="47"/>
-      <c r="K38" s="48">
-        <v>1</v>
-      </c>
+      <c r="K38" s="48"/>
       <c r="L38" s="47"/>
       <c r="M38" s="47"/>
-      <c r="N38" s="49">
-        <v>43785</v>
-      </c>
-      <c r="O38" s="49">
-        <v>43800</v>
-      </c>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
       <c r="P38" s="50"/>
       <c r="Q38" s="53"/>
       <c r="R38" s="53"/>
@@ -30020,22 +29972,30 @@
       </c>
     </row>
     <row r="39" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="46"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="60"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="J39" s="47"/>
-      <c r="K39" s="48"/>
+      <c r="K39" s="48">
+        <v>1</v>
+      </c>
       <c r="L39" s="47"/>
       <c r="M39" s="47"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
+      <c r="N39" s="49">
+        <v>43785</v>
+      </c>
+      <c r="O39" s="49">
+        <v>43800</v>
+      </c>
       <c r="P39" s="50"/>
       <c r="Q39" s="53"/>
       <c r="R39" s="53"/>
@@ -30176,16 +30136,15 @@
       </c>
     </row>
     <row r="40" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A40" s="64"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="46"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="63"/>
       <c r="I40" s="46"/>
       <c r="J40" s="47"/>
       <c r="K40" s="48"/>
@@ -30333,31 +30292,23 @@
       </c>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A41" s="64"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="40"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="78" t="s">
-        <v>143</v>
-      </c>
-      <c r="G41" s="64"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
       <c r="H41" s="46"/>
-      <c r="I41" s="46" t="s">
-        <v>55</v>
-      </c>
+      <c r="I41" s="46"/>
       <c r="J41" s="47"/>
-      <c r="K41" s="48">
-        <v>1</v>
-      </c>
+      <c r="K41" s="48"/>
       <c r="L41" s="47"/>
       <c r="M41" s="47"/>
-      <c r="N41" s="49">
-        <v>43785</v>
-      </c>
-      <c r="O41" s="49">
-        <v>43808</v>
-      </c>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
       <c r="P41" s="50"/>
       <c r="Q41" s="53"/>
       <c r="R41" s="53"/>
@@ -30498,19 +30449,20 @@
       </c>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A42" s="64"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="40"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="78" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="64"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="G42" s="60"/>
       <c r="H42" s="46"/>
-      <c r="I42" t="s">
+      <c r="I42" s="46" t="s">
         <v>55</v>
       </c>
+      <c r="J42" s="47"/>
       <c r="K42" s="48">
         <v>1</v>
       </c>
@@ -30662,20 +30614,19 @@
       </c>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A43" s="64"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="40"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="78" t="s">
-        <v>145</v>
-      </c>
-      <c r="G43" s="64"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="74" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="60"/>
       <c r="H43" s="46"/>
-      <c r="I43" s="46" t="s">
+      <c r="I43" t="s">
         <v>55</v>
       </c>
-      <c r="J43" s="47"/>
       <c r="K43" s="48">
         <v>1</v>
       </c>
@@ -30827,14 +30778,15 @@
       </c>
     </row>
     <row r="44" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A44" s="64"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="40"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="70"/>
-      <c r="F44" s="79" t="s">
-        <v>146</v>
-      </c>
-      <c r="G44" s="72"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" s="60"/>
       <c r="H44" s="46"/>
       <c r="I44" s="46" t="s">
         <v>55</v>
@@ -30991,14 +30943,14 @@
       </c>
     </row>
     <row r="45" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A45" s="64"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="40"/>
-      <c r="C45" s="69"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="80" t="s">
-        <v>147</v>
-      </c>
-      <c r="G45" s="74"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="66"/>
+      <c r="F45" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="68"/>
       <c r="H45" s="46"/>
       <c r="I45" s="46" t="s">
         <v>55</v>
@@ -31155,14 +31107,14 @@
       </c>
     </row>
     <row r="46" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A46" s="64"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="40"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="70"/>
-      <c r="F46" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="G46" s="74"/>
+      <c r="C46" s="65"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="70"/>
       <c r="H46" s="46"/>
       <c r="I46" s="46" t="s">
         <v>55</v>
@@ -31319,23 +31271,30 @@
       </c>
     </row>
     <row r="47" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A47" s="64"/>
+      <c r="A47" s="60"/>
       <c r="B47" s="40"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="66"/>
+      <c r="F47" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="70"/>
       <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
+      <c r="I47" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="J47" s="47"/>
-      <c r="K47" s="48"/>
+      <c r="K47" s="48">
+        <v>1</v>
+      </c>
       <c r="L47" s="47"/>
       <c r="M47" s="47"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
+      <c r="N47" s="49">
+        <v>43785</v>
+      </c>
+      <c r="O47" s="49">
+        <v>43808</v>
+      </c>
       <c r="P47" s="50"/>
       <c r="Q47" s="53"/>
       <c r="R47" s="53"/>
@@ -31476,31 +31435,23 @@
       </c>
     </row>
     <row r="48" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A48" s="64"/>
+      <c r="A48" s="60"/>
       <c r="B48" s="40"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="G48" s="74"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="70"/>
+      <c r="G48" s="70"/>
       <c r="H48" s="46"/>
-      <c r="I48" s="46" t="s">
-        <v>53</v>
-      </c>
+      <c r="I48" s="46"/>
       <c r="J48" s="47"/>
-      <c r="K48" s="48">
-        <v>1</v>
-      </c>
+      <c r="K48" s="48"/>
       <c r="L48" s="47"/>
       <c r="M48" s="47"/>
-      <c r="N48" s="49">
-        <v>43785</v>
-      </c>
-      <c r="O48" s="49">
-        <v>43808</v>
-      </c>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
       <c r="P48" s="50"/>
       <c r="Q48" s="53"/>
       <c r="R48" s="53"/>
@@ -31641,15 +31592,15 @@
       </c>
     </row>
     <row r="49" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A49" s="64"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="40"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="G49" s="74"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="70"/>
       <c r="H49" s="46"/>
       <c r="I49" s="46" t="s">
         <v>53</v>
@@ -31806,22 +31757,22 @@
       </c>
     </row>
     <row r="50" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A50" s="64"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="40"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="G50" s="74"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="70"/>
       <c r="H50" s="46"/>
       <c r="I50" s="46" t="s">
         <v>53</v>
       </c>
       <c r="J50" s="47"/>
       <c r="K50" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L50" s="47"/>
       <c r="M50" s="47"/>
@@ -31971,24 +31922,22 @@
       </c>
     </row>
     <row r="51" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A51" s="64"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="40"/>
-      <c r="C51" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="G51" s="74"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="70"/>
       <c r="H51" s="46"/>
       <c r="I51" s="46" t="s">
         <v>53</v>
       </c>
       <c r="J51" s="47"/>
       <c r="K51" s="48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L51" s="47"/>
       <c r="M51" s="47"/>
@@ -32138,23 +32087,33 @@
       </c>
     </row>
     <row r="52" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A52" s="64"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="40"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="F52" s="74"/>
-      <c r="G52" s="74"/>
+      <c r="C52" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="G52" s="70"/>
       <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
+      <c r="I52" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="J52" s="47"/>
-      <c r="K52" s="48"/>
+      <c r="K52" s="48">
+        <v>1</v>
+      </c>
       <c r="L52" s="47"/>
       <c r="M52" s="47"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="49"/>
+      <c r="N52" s="49">
+        <v>43785</v>
+      </c>
+      <c r="O52" s="49">
+        <v>43808</v>
+      </c>
       <c r="P52" s="50"/>
       <c r="Q52" s="53"/>
       <c r="R52" s="53"/>
@@ -32295,33 +32254,23 @@
       </c>
     </row>
     <row r="53" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A53" s="64"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="40"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
-      <c r="F53" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="G53" s="74"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F53" s="70"/>
+      <c r="G53" s="70"/>
       <c r="H53" s="46"/>
-      <c r="I53" s="46" t="s">
-        <v>54</v>
-      </c>
+      <c r="I53" s="46"/>
       <c r="J53" s="47"/>
-      <c r="K53" s="48">
-        <v>1</v>
-      </c>
-      <c r="L53" s="47">
-        <v>1</v>
-      </c>
+      <c r="K53" s="48"/>
+      <c r="L53" s="47"/>
       <c r="M53" s="47"/>
-      <c r="N53" s="49">
-        <v>43785</v>
-      </c>
-      <c r="O53" s="49">
-        <v>43808</v>
-      </c>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
       <c r="P53" s="50"/>
       <c r="Q53" s="53"/>
       <c r="R53" s="53"/>
@@ -32462,15 +32411,15 @@
       </c>
     </row>
     <row r="54" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A54" s="64"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="40"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="G54" s="74"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" s="70"/>
       <c r="H54" s="46"/>
       <c r="I54" s="46" t="s">
         <v>54</v>
@@ -32479,7 +32428,9 @@
       <c r="K54" s="48">
         <v>1</v>
       </c>
-      <c r="L54" s="47"/>
+      <c r="L54" s="47">
+        <v>1</v>
+      </c>
       <c r="M54" s="47"/>
       <c r="N54" s="49">
         <v>43785</v>
@@ -32627,15 +32578,15 @@
       </c>
     </row>
     <row r="55" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A55" s="64"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="40"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="G55" s="74"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="G55" s="70"/>
       <c r="H55" s="46"/>
       <c r="I55" s="46" t="s">
         <v>54</v>
@@ -32644,9 +32595,7 @@
       <c r="K55" s="48">
         <v>1</v>
       </c>
-      <c r="L55" s="47">
-        <v>1</v>
-      </c>
+      <c r="L55" s="47"/>
       <c r="M55" s="47"/>
       <c r="N55" s="49">
         <v>43785</v>
@@ -32794,15 +32743,15 @@
       </c>
     </row>
     <row r="56" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A56" s="64"/>
+      <c r="A56" s="60"/>
       <c r="B56" s="40"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="G56" s="74"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="G56" s="70"/>
       <c r="H56" s="46"/>
       <c r="I56" s="46" t="s">
         <v>54</v>
@@ -32811,7 +32760,9 @@
       <c r="K56" s="48">
         <v>1</v>
       </c>
-      <c r="L56" s="47"/>
+      <c r="L56" s="47">
+        <v>1</v>
+      </c>
       <c r="M56" s="47"/>
       <c r="N56" s="49">
         <v>43785</v>
@@ -32959,23 +32910,31 @@
       </c>
     </row>
     <row r="57" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A57" s="64"/>
+      <c r="A57" s="60"/>
       <c r="B57" s="40"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="70" t="s">
-        <v>133</v>
-      </c>
-      <c r="E57" s="73"/>
-      <c r="F57" s="74"/>
-      <c r="G57" s="74"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="70"/>
       <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
+      <c r="I57" s="46" t="s">
+        <v>54</v>
+      </c>
       <c r="J57" s="47"/>
-      <c r="K57" s="48"/>
+      <c r="K57" s="48">
+        <v>1</v>
+      </c>
       <c r="L57" s="47"/>
       <c r="M57" s="47"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="49"/>
+      <c r="N57" s="49">
+        <v>43785</v>
+      </c>
+      <c r="O57" s="49">
+        <v>43808</v>
+      </c>
       <c r="P57" s="50"/>
       <c r="Q57" s="53"/>
       <c r="R57" s="53"/>
@@ -33116,15 +33075,15 @@
       </c>
     </row>
     <row r="58" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A58" s="64"/>
+      <c r="A58" s="60"/>
       <c r="B58" s="40"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="F58" s="74"/>
-      <c r="G58" s="74"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="69"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="70"/>
       <c r="H58" s="46"/>
       <c r="I58" s="46"/>
       <c r="J58" s="47"/>
@@ -33273,32 +33232,23 @@
       </c>
     </row>
     <row r="59" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A59" s="64"/>
+      <c r="A59" s="60"/>
       <c r="B59" s="40"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="70"/>
-      <c r="F59" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" s="74"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
       <c r="H59" s="46"/>
-      <c r="I59" s="46" t="s">
-        <v>55</v>
-      </c>
+      <c r="I59" s="46"/>
       <c r="J59" s="47"/>
-      <c r="K59" s="48">
-        <v>1</v>
-      </c>
-      <c r="L59" s="47">
-        <v>1</v>
-      </c>
+      <c r="K59" s="48"/>
+      <c r="L59" s="47"/>
       <c r="M59" s="47"/>
-      <c r="N59" s="49">
-        <v>43785</v>
-      </c>
-      <c r="O59" s="49">
-        <v>43808</v>
-      </c>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
       <c r="P59" s="50"/>
       <c r="Q59" s="53"/>
       <c r="R59" s="53"/>
@@ -33439,15 +33389,14 @@
       </c>
     </row>
     <row r="60" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A60" s="64"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="40"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="74" t="s">
+      <c r="C60" s="65"/>
+      <c r="D60" s="66"/>
+      <c r="F60" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="G60" s="74"/>
+      <c r="G60" s="70"/>
       <c r="H60" s="46"/>
       <c r="I60" s="46" t="s">
         <v>55</v>
@@ -33606,15 +33555,15 @@
       </c>
     </row>
     <row r="61" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A61" s="64"/>
+      <c r="A61" s="60"/>
       <c r="B61" s="40"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="74" t="s">
+      <c r="C61" s="65"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="69"/>
+      <c r="F61" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="G61" s="74"/>
+      <c r="G61" s="70"/>
       <c r="H61" s="46"/>
       <c r="I61" s="46" t="s">
         <v>55</v>
@@ -33623,7 +33572,9 @@
       <c r="K61" s="48">
         <v>1</v>
       </c>
-      <c r="L61" s="47"/>
+      <c r="L61" s="47">
+        <v>1</v>
+      </c>
       <c r="M61" s="47"/>
       <c r="N61" s="49">
         <v>43785</v>
@@ -33771,26 +33722,24 @@
       </c>
     </row>
     <row r="62" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A62" s="64"/>
+      <c r="A62" s="60"/>
       <c r="B62" s="40"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="G62" s="74"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="60"/>
+      <c r="F62" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="G62" s="70"/>
       <c r="H62" s="46"/>
       <c r="I62" s="46" t="s">
         <v>55</v>
       </c>
       <c r="J62" s="47"/>
       <c r="K62" s="48">
-        <v>0</v>
-      </c>
-      <c r="L62" s="47">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L62" s="47"/>
       <c r="M62" s="47"/>
       <c r="N62" s="49">
         <v>43785</v>
@@ -33938,23 +33887,33 @@
       </c>
     </row>
     <row r="63" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A63" s="64"/>
+      <c r="A63" s="60"/>
       <c r="B63" s="40"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="F63" s="64"/>
-      <c r="G63" s="74"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" s="70"/>
       <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
+      <c r="I63" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="J63" s="47"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="47"/>
+      <c r="K63" s="48">
+        <v>1</v>
+      </c>
+      <c r="L63" s="47">
+        <v>2</v>
+      </c>
       <c r="M63" s="47"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
+      <c r="N63" s="49">
+        <v>43785</v>
+      </c>
+      <c r="O63" s="49">
+        <v>43808</v>
+      </c>
       <c r="P63" s="50"/>
       <c r="Q63" s="53"/>
       <c r="R63" s="53"/>
@@ -34095,30 +34054,16 @@
       </c>
     </row>
     <row r="64" spans="1:63" x14ac:dyDescent="0.45">
-      <c r="A64" s="64"/>
+      <c r="A64" s="60"/>
       <c r="B64" s="40"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="G64" s="74"/>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J64" s="47"/>
-      <c r="K64" s="48">
+      <c r="C64" s="65"/>
+      <c r="D64" s="60"/>
+      <c r="F64" s="82"/>
+      <c r="I64" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="K64" s="84">
         <v>1</v>
-      </c>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="49">
-        <v>43785</v>
-      </c>
-      <c r="O64" s="49">
-        <v>43808</v>
       </c>
       <c r="P64" s="50"/>
       <c r="Q64" s="53"/>
@@ -34259,31 +34204,11 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="65" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:63" x14ac:dyDescent="0.45">
+      <c r="A65" s="60"/>
       <c r="B65" s="40"/>
-      <c r="C65" s="69"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="G65" s="74"/>
-      <c r="H65" s="68"/>
-      <c r="I65" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="J65" s="47"/>
-      <c r="K65" s="48">
-        <v>1</v>
-      </c>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="49">
-        <v>43785</v>
-      </c>
-      <c r="O65" s="49">
-        <v>43808</v>
-      </c>
+      <c r="C65" s="65"/>
+      <c r="D65" s="60"/>
       <c r="P65" s="50"/>
       <c r="Q65" s="53"/>
       <c r="R65" s="53"/>
@@ -34423,31 +34348,23 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="66" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B66" s="40"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="G66" s="74"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" s="60"/>
+      <c r="G66" s="70"/>
       <c r="H66" s="46"/>
-      <c r="I66" s="46" t="s">
-        <v>53</v>
-      </c>
+      <c r="I66" s="46"/>
       <c r="J66" s="47"/>
-      <c r="K66" s="48">
-        <v>0.5</v>
-      </c>
+      <c r="K66" s="48"/>
       <c r="L66" s="47"/>
       <c r="M66" s="47"/>
-      <c r="N66" s="49">
-        <v>43785</v>
-      </c>
-      <c r="O66" s="49">
-        <v>43808</v>
-      </c>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
       <c r="P66" s="50"/>
       <c r="Q66" s="53"/>
       <c r="R66" s="53"/>
@@ -34587,21 +34504,31 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="67" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B67" s="40"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="G67" s="70"/>
       <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
+      <c r="I67" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="J67" s="47"/>
-      <c r="K67" s="48"/>
+      <c r="K67" s="48">
+        <v>1</v>
+      </c>
       <c r="L67" s="47"/>
       <c r="M67" s="47"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="49"/>
+      <c r="N67" s="49">
+        <v>43785</v>
+      </c>
+      <c r="O67" s="49">
+        <v>43808</v>
+      </c>
       <c r="P67" s="50"/>
       <c r="Q67" s="53"/>
       <c r="R67" s="53"/>
@@ -34741,21 +34668,31 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="68" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B68" s="40"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" s="70"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="J68" s="47"/>
-      <c r="K68" s="48"/>
+      <c r="K68" s="48">
+        <v>1</v>
+      </c>
       <c r="L68" s="47"/>
       <c r="M68" s="47"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
+      <c r="N68" s="49">
+        <v>43785</v>
+      </c>
+      <c r="O68" s="49">
+        <v>43808</v>
+      </c>
       <c r="P68" s="50"/>
       <c r="Q68" s="53"/>
       <c r="R68" s="53"/>
@@ -34895,21 +34832,31 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="69" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B69" s="40"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="G69" s="70"/>
       <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
+      <c r="I69" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="J69" s="47"/>
-      <c r="K69" s="48"/>
+      <c r="K69" s="48">
+        <v>0.5</v>
+      </c>
       <c r="L69" s="47"/>
       <c r="M69" s="47"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
+      <c r="N69" s="49">
+        <v>43785</v>
+      </c>
+      <c r="O69" s="49">
+        <v>43808</v>
+      </c>
       <c r="P69" s="50"/>
       <c r="Q69" s="53"/>
       <c r="R69" s="53"/>
@@ -35049,13 +34996,13 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="70" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B70" s="40"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="60"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="60"/>
       <c r="H70" s="46"/>
       <c r="I70" s="46"/>
       <c r="J70" s="47"/>
@@ -35203,15 +35150,13 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="71" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B71" s="40"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="74"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
       <c r="H71" s="46"/>
       <c r="I71" s="46"/>
       <c r="J71" s="47"/>
@@ -35359,15 +35304,15 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="72" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B72" s="40"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="F72" s="64"/>
-      <c r="G72" s="74"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="70"/>
       <c r="H72" s="46"/>
       <c r="I72" s="46"/>
       <c r="J72" s="47"/>
@@ -35515,31 +35460,23 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="73" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B73" s="40"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="73"/>
-      <c r="F73" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="G73" s="74"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="60"/>
+      <c r="G73" s="70"/>
       <c r="H73" s="46"/>
-      <c r="I73" s="46" t="s">
-        <v>55</v>
-      </c>
+      <c r="I73" s="46"/>
       <c r="J73" s="47"/>
-      <c r="K73" s="48">
-        <v>0.5</v>
-      </c>
+      <c r="K73" s="48"/>
       <c r="L73" s="47"/>
       <c r="M73" s="47"/>
-      <c r="N73" s="49">
-        <v>43785</v>
-      </c>
-      <c r="O73" s="49">
-        <v>43808</v>
-      </c>
+      <c r="N73" s="49"/>
+      <c r="O73" s="49"/>
       <c r="P73" s="50"/>
       <c r="Q73" s="53"/>
       <c r="R73" s="53"/>
@@ -35679,15 +35616,15 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="74" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B74" s="40"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="73"/>
-      <c r="F74" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G74" s="74"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="G74" s="70"/>
       <c r="H74" s="46"/>
       <c r="I74" s="46" t="s">
         <v>55</v>
@@ -35843,15 +35780,15 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="75" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B75" s="40"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="G75" s="72"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="69"/>
+      <c r="F75" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="G75" s="70"/>
       <c r="H75" s="46"/>
       <c r="I75" s="46" t="s">
         <v>55</v>
@@ -36007,23 +35944,31 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="76" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B76" s="40"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71" t="s">
-        <v>165</v>
-      </c>
-      <c r="F76" s="72"/>
-      <c r="G76" s="72"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="G76" s="68"/>
       <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
+      <c r="I76" s="46" t="s">
+        <v>55</v>
+      </c>
       <c r="J76" s="47"/>
-      <c r="K76" s="48"/>
+      <c r="K76" s="48">
+        <v>0.5</v>
+      </c>
       <c r="L76" s="47"/>
       <c r="M76" s="47"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="49"/>
+      <c r="N76" s="49">
+        <v>43785</v>
+      </c>
+      <c r="O76" s="49">
+        <v>43808</v>
+      </c>
       <c r="P76" s="50"/>
       <c r="Q76" s="53"/>
       <c r="R76" s="53"/>
@@ -36163,31 +36108,23 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="77" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B77" s="40"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="71"/>
-      <c r="F77" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="G77" s="72"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
       <c r="H77" s="46"/>
-      <c r="I77" s="46" t="s">
-        <v>53</v>
-      </c>
+      <c r="I77" s="46"/>
       <c r="J77" s="47"/>
-      <c r="K77" s="48">
-        <v>1</v>
-      </c>
+      <c r="K77" s="48"/>
       <c r="L77" s="47"/>
       <c r="M77" s="47"/>
-      <c r="N77" s="49">
-        <v>43785</v>
-      </c>
-      <c r="O77" s="49">
-        <v>43808</v>
-      </c>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
       <c r="P77" s="50"/>
       <c r="Q77" s="53"/>
       <c r="R77" s="53"/>
@@ -36327,22 +36264,22 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="78" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B78" s="40"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="71"/>
-      <c r="F78" s="72" t="s">
-        <v>169</v>
-      </c>
-      <c r="G78" s="72"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="G78" s="68"/>
       <c r="H78" s="46"/>
       <c r="I78" s="46" t="s">
         <v>53</v>
       </c>
       <c r="J78" s="47"/>
       <c r="K78" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L78" s="47"/>
       <c r="M78" s="47"/>
@@ -36491,21 +36428,31 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="79" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B79" s="40"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="71"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="G79" s="68"/>
       <c r="H79" s="46"/>
-      <c r="I79" s="46"/>
+      <c r="I79" s="46" t="s">
+        <v>53</v>
+      </c>
       <c r="J79" s="47"/>
-      <c r="K79" s="48"/>
+      <c r="K79" s="48">
+        <v>0</v>
+      </c>
       <c r="L79" s="47"/>
       <c r="M79" s="47"/>
-      <c r="N79" s="49"/>
-      <c r="O79" s="49"/>
+      <c r="N79" s="49">
+        <v>43785</v>
+      </c>
+      <c r="O79" s="49">
+        <v>43808</v>
+      </c>
       <c r="P79" s="50"/>
       <c r="Q79" s="53"/>
       <c r="R79" s="53"/>
@@ -36645,13 +36592,13 @@
         <v>43774</v>
       </c>
     </row>
-    <row r="80" spans="2:63" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:63" x14ac:dyDescent="0.45">
       <c r="B80" s="40"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="72"/>
-      <c r="G80" s="72"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
       <c r="H80" s="46"/>
       <c r="I80" s="46"/>
       <c r="J80" s="47"/>
@@ -36801,13 +36748,11 @@
     </row>
     <row r="81" spans="2:63" x14ac:dyDescent="0.45">
       <c r="B81" s="40"/>
-      <c r="C81" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="D81" s="70"/>
-      <c r="E81" s="71"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="68"/>
+      <c r="G81" s="68"/>
       <c r="H81" s="46"/>
       <c r="I81" s="46"/>
       <c r="J81" s="47"/>
@@ -36956,20 +36901,25 @@
       </c>
     </row>
     <row r="82" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B82" s="64"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
-      <c r="I82" s="64"/>
-      <c r="J82" s="64"/>
-      <c r="K82" s="64"/>
-      <c r="L82" s="64"/>
-      <c r="M82" s="64"/>
-      <c r="N82" s="64"/>
-      <c r="O82" s="64"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="66"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="47"/>
+      <c r="K82" s="48"/>
+      <c r="L82" s="47"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="49"/>
+      <c r="P82" s="50"/>
+      <c r="Q82" s="53"/>
+      <c r="R82" s="53"/>
       <c r="S82" s="51">
         <v>43714</v>
       </c>
@@ -37107,20 +37057,20 @@
       </c>
     </row>
     <row r="83" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
-      <c r="I83" s="64"/>
-      <c r="J83" s="64"/>
-      <c r="K83" s="64"/>
-      <c r="L83" s="64"/>
-      <c r="M83" s="64"/>
-      <c r="N83" s="64"/>
-      <c r="O83" s="64"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="60"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
       <c r="S83" s="51">
         <v>43714</v>
       </c>
@@ -37258,20 +37208,20 @@
       </c>
     </row>
     <row r="84" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
-      <c r="I84" s="64"/>
-      <c r="J84" s="64"/>
-      <c r="K84" s="64"/>
-      <c r="L84" s="64"/>
-      <c r="M84" s="64"/>
-      <c r="N84" s="64"/>
-      <c r="O84" s="64"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="60"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="60"/>
+      <c r="J84" s="60"/>
+      <c r="K84" s="60"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="60"/>
+      <c r="N84" s="60"/>
+      <c r="O84" s="60"/>
       <c r="S84" s="51">
         <v>43714</v>
       </c>
@@ -37409,20 +37359,20 @@
       </c>
     </row>
     <row r="85" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="64"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="64"/>
-      <c r="L85" s="64"/>
-      <c r="M85" s="64"/>
-      <c r="N85" s="64"/>
-      <c r="O85" s="64"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="60"/>
+      <c r="L85" s="60"/>
+      <c r="M85" s="60"/>
+      <c r="N85" s="60"/>
+      <c r="O85" s="60"/>
       <c r="S85" s="51">
         <v>43714</v>
       </c>
@@ -37560,20 +37510,20 @@
       </c>
     </row>
     <row r="86" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
-      <c r="I86" s="64"/>
-      <c r="J86" s="64"/>
-      <c r="K86" s="64"/>
-      <c r="L86" s="64"/>
-      <c r="M86" s="64"/>
-      <c r="N86" s="64"/>
-      <c r="O86" s="64"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="60"/>
+      <c r="H86" s="60"/>
+      <c r="I86" s="60"/>
+      <c r="J86" s="60"/>
+      <c r="K86" s="60"/>
+      <c r="L86" s="60"/>
+      <c r="M86" s="60"/>
+      <c r="N86" s="60"/>
+      <c r="O86" s="60"/>
       <c r="S86" s="51">
         <v>43714</v>
       </c>
@@ -37711,20 +37661,20 @@
       </c>
     </row>
     <row r="87" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B87" s="64"/>
-      <c r="C87" s="64"/>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
-      <c r="I87" s="64"/>
-      <c r="J87" s="64"/>
-      <c r="K87" s="64"/>
-      <c r="L87" s="64"/>
-      <c r="M87" s="64"/>
-      <c r="N87" s="64"/>
-      <c r="O87" s="64"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="60"/>
+      <c r="J87" s="60"/>
+      <c r="K87" s="60"/>
+      <c r="L87" s="60"/>
+      <c r="M87" s="60"/>
+      <c r="N87" s="60"/>
+      <c r="O87" s="60"/>
       <c r="S87" s="51">
         <v>43714</v>
       </c>
@@ -37862,20 +37812,20 @@
       </c>
     </row>
     <row r="88" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B88" s="64"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="64"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
-      <c r="I88" s="64"/>
-      <c r="J88" s="64"/>
-      <c r="K88" s="64"/>
-      <c r="L88" s="64"/>
-      <c r="M88" s="64"/>
-      <c r="N88" s="64"/>
-      <c r="O88" s="64"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="60"/>
+      <c r="J88" s="60"/>
+      <c r="K88" s="60"/>
+      <c r="L88" s="60"/>
+      <c r="M88" s="60"/>
+      <c r="N88" s="60"/>
+      <c r="O88" s="60"/>
       <c r="S88" s="51">
         <v>43714</v>
       </c>
@@ -38013,20 +37963,20 @@
       </c>
     </row>
     <row r="89" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B89" s="64"/>
-      <c r="C89" s="64"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
-      <c r="I89" s="64"/>
-      <c r="J89" s="64"/>
-      <c r="K89" s="64"/>
-      <c r="L89" s="64"/>
-      <c r="M89" s="64"/>
-      <c r="N89" s="64"/>
-      <c r="O89" s="64"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="60"/>
+      <c r="N89" s="60"/>
+      <c r="O89" s="60"/>
       <c r="S89" s="51">
         <v>43714</v>
       </c>
@@ -38164,20 +38114,20 @@
       </c>
     </row>
     <row r="90" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B90" s="64"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="64"/>
-      <c r="G90" s="64"/>
-      <c r="H90" s="64"/>
-      <c r="I90" s="64"/>
-      <c r="J90" s="64"/>
-      <c r="K90" s="64"/>
-      <c r="L90" s="64"/>
-      <c r="M90" s="64"/>
-      <c r="N90" s="64"/>
-      <c r="O90" s="64"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="60"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="60"/>
+      <c r="I90" s="60"/>
+      <c r="J90" s="60"/>
+      <c r="K90" s="60"/>
+      <c r="L90" s="60"/>
+      <c r="M90" s="60"/>
+      <c r="N90" s="60"/>
+      <c r="O90" s="60"/>
       <c r="S90" s="51">
         <v>43714</v>
       </c>
@@ -38315,20 +38265,20 @@
       </c>
     </row>
     <row r="91" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B91" s="64"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="64"/>
-      <c r="J91" s="64"/>
-      <c r="K91" s="64"/>
-      <c r="L91" s="64"/>
-      <c r="M91" s="64"/>
-      <c r="N91" s="64"/>
-      <c r="O91" s="64"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="60"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="60"/>
+      <c r="J91" s="60"/>
+      <c r="K91" s="60"/>
+      <c r="L91" s="60"/>
+      <c r="M91" s="60"/>
+      <c r="N91" s="60"/>
+      <c r="O91" s="60"/>
       <c r="S91" s="51">
         <v>43714</v>
       </c>
@@ -38466,20 +38416,20 @@
       </c>
     </row>
     <row r="92" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B92" s="64"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="G92" s="64"/>
-      <c r="H92" s="64"/>
-      <c r="I92" s="64"/>
-      <c r="J92" s="64"/>
-      <c r="K92" s="64"/>
-      <c r="L92" s="64"/>
-      <c r="M92" s="64"/>
-      <c r="N92" s="64"/>
-      <c r="O92" s="64"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="60"/>
+      <c r="I92" s="60"/>
+      <c r="J92" s="60"/>
+      <c r="K92" s="60"/>
+      <c r="L92" s="60"/>
+      <c r="M92" s="60"/>
+      <c r="N92" s="60"/>
+      <c r="O92" s="60"/>
       <c r="S92" s="51">
         <v>43714</v>
       </c>
@@ -38617,20 +38567,20 @@
       </c>
     </row>
     <row r="93" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B93" s="64"/>
-      <c r="C93" s="64"/>
-      <c r="D93" s="64"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="64"/>
-      <c r="G93" s="64"/>
-      <c r="H93" s="64"/>
-      <c r="I93" s="64"/>
-      <c r="J93" s="64"/>
-      <c r="K93" s="64"/>
-      <c r="L93" s="64"/>
-      <c r="M93" s="64"/>
-      <c r="N93" s="64"/>
-      <c r="O93" s="64"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="60"/>
+      <c r="J93" s="60"/>
+      <c r="K93" s="60"/>
+      <c r="L93" s="60"/>
+      <c r="M93" s="60"/>
+      <c r="N93" s="60"/>
+      <c r="O93" s="60"/>
       <c r="S93" s="51">
         <v>43714</v>
       </c>
@@ -38768,20 +38718,20 @@
       </c>
     </row>
     <row r="94" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B94" s="64"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="64"/>
-      <c r="H94" s="64"/>
-      <c r="I94" s="64"/>
-      <c r="J94" s="64"/>
-      <c r="K94" s="64"/>
-      <c r="L94" s="64"/>
-      <c r="M94" s="64"/>
-      <c r="N94" s="64"/>
-      <c r="O94" s="64"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
+      <c r="G94" s="60"/>
+      <c r="H94" s="60"/>
+      <c r="I94" s="60"/>
+      <c r="J94" s="60"/>
+      <c r="K94" s="60"/>
+      <c r="L94" s="60"/>
+      <c r="M94" s="60"/>
+      <c r="N94" s="60"/>
+      <c r="O94" s="60"/>
       <c r="S94" s="51">
         <v>43714</v>
       </c>
@@ -38919,20 +38869,20 @@
       </c>
     </row>
     <row r="95" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B95" s="64"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="64"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64"/>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
-      <c r="I95" s="64"/>
-      <c r="J95" s="64"/>
-      <c r="K95" s="64"/>
-      <c r="L95" s="64"/>
-      <c r="M95" s="64"/>
-      <c r="N95" s="64"/>
-      <c r="O95" s="64"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="60"/>
+      <c r="J95" s="60"/>
+      <c r="K95" s="60"/>
+      <c r="L95" s="60"/>
+      <c r="M95" s="60"/>
+      <c r="N95" s="60"/>
+      <c r="O95" s="60"/>
       <c r="S95" s="51">
         <v>43714</v>
       </c>
@@ -39070,20 +39020,20 @@
       </c>
     </row>
     <row r="96" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B96" s="64"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="64"/>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
-      <c r="I96" s="64"/>
-      <c r="J96" s="64"/>
-      <c r="K96" s="64"/>
-      <c r="L96" s="64"/>
-      <c r="M96" s="64"/>
-      <c r="N96" s="64"/>
-      <c r="O96" s="64"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="60"/>
+      <c r="D96" s="60"/>
+      <c r="E96" s="60"/>
+      <c r="F96" s="60"/>
+      <c r="G96" s="60"/>
+      <c r="H96" s="60"/>
+      <c r="I96" s="60"/>
+      <c r="J96" s="60"/>
+      <c r="K96" s="60"/>
+      <c r="L96" s="60"/>
+      <c r="M96" s="60"/>
+      <c r="N96" s="60"/>
+      <c r="O96" s="60"/>
       <c r="S96" s="51">
         <v>43714</v>
       </c>
@@ -39221,20 +39171,20 @@
       </c>
     </row>
     <row r="97" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B97" s="64"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="64"/>
-      <c r="H97" s="64"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="64"/>
-      <c r="K97" s="64"/>
-      <c r="L97" s="64"/>
-      <c r="M97" s="64"/>
-      <c r="N97" s="64"/>
-      <c r="O97" s="64"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="60"/>
+      <c r="J97" s="60"/>
+      <c r="K97" s="60"/>
+      <c r="L97" s="60"/>
+      <c r="M97" s="60"/>
+      <c r="N97" s="60"/>
+      <c r="O97" s="60"/>
       <c r="S97" s="51">
         <v>43714</v>
       </c>
@@ -39372,20 +39322,20 @@
       </c>
     </row>
     <row r="98" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B98" s="64"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="64"/>
-      <c r="G98" s="64"/>
-      <c r="H98" s="64"/>
-      <c r="I98" s="64"/>
-      <c r="J98" s="64"/>
-      <c r="K98" s="64"/>
-      <c r="L98" s="64"/>
-      <c r="M98" s="64"/>
-      <c r="N98" s="64"/>
-      <c r="O98" s="64"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="60"/>
+      <c r="J98" s="60"/>
+      <c r="K98" s="60"/>
+      <c r="L98" s="60"/>
+      <c r="M98" s="60"/>
+      <c r="N98" s="60"/>
+      <c r="O98" s="60"/>
       <c r="S98" s="51">
         <v>43714</v>
       </c>
@@ -39523,20 +39473,20 @@
       </c>
     </row>
     <row r="99" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B99" s="64"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="64"/>
-      <c r="G99" s="64"/>
-      <c r="H99" s="64"/>
-      <c r="I99" s="64"/>
-      <c r="J99" s="64"/>
-      <c r="K99" s="64"/>
-      <c r="L99" s="64"/>
-      <c r="M99" s="64"/>
-      <c r="N99" s="64"/>
-      <c r="O99" s="64"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="60"/>
+      <c r="G99" s="60"/>
+      <c r="H99" s="60"/>
+      <c r="I99" s="60"/>
+      <c r="J99" s="60"/>
+      <c r="K99" s="60"/>
+      <c r="L99" s="60"/>
+      <c r="M99" s="60"/>
+      <c r="N99" s="60"/>
+      <c r="O99" s="60"/>
       <c r="S99" s="51">
         <v>43714</v>
       </c>
@@ -39674,20 +39624,20 @@
       </c>
     </row>
     <row r="100" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B100" s="64"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="64"/>
-      <c r="G100" s="64"/>
-      <c r="H100" s="64"/>
-      <c r="I100" s="64"/>
-      <c r="J100" s="64"/>
-      <c r="K100" s="64"/>
-      <c r="L100" s="64"/>
-      <c r="M100" s="64"/>
-      <c r="N100" s="64"/>
-      <c r="O100" s="64"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="60"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="60"/>
+      <c r="H100" s="60"/>
+      <c r="I100" s="60"/>
+      <c r="J100" s="60"/>
+      <c r="K100" s="60"/>
+      <c r="L100" s="60"/>
+      <c r="M100" s="60"/>
+      <c r="N100" s="60"/>
+      <c r="O100" s="60"/>
       <c r="S100" s="51">
         <v>43714</v>
       </c>
@@ -39825,20 +39775,20 @@
       </c>
     </row>
     <row r="101" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B101" s="64"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="64"/>
-      <c r="H101" s="64"/>
-      <c r="I101" s="64"/>
-      <c r="J101" s="64"/>
-      <c r="K101" s="64"/>
-      <c r="L101" s="64"/>
-      <c r="M101" s="64"/>
-      <c r="N101" s="64"/>
-      <c r="O101" s="64"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="60"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="60"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="60"/>
+      <c r="L101" s="60"/>
+      <c r="M101" s="60"/>
+      <c r="N101" s="60"/>
+      <c r="O101" s="60"/>
       <c r="S101" s="51">
         <v>43714</v>
       </c>
@@ -39976,20 +39926,20 @@
       </c>
     </row>
     <row r="102" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B102" s="64"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="64"/>
-      <c r="H102" s="64"/>
-      <c r="I102" s="64"/>
-      <c r="J102" s="64"/>
-      <c r="K102" s="64"/>
-      <c r="L102" s="64"/>
-      <c r="M102" s="64"/>
-      <c r="N102" s="64"/>
-      <c r="O102" s="64"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="60"/>
+      <c r="H102" s="60"/>
+      <c r="I102" s="60"/>
+      <c r="J102" s="60"/>
+      <c r="K102" s="60"/>
+      <c r="L102" s="60"/>
+      <c r="M102" s="60"/>
+      <c r="N102" s="60"/>
+      <c r="O102" s="60"/>
       <c r="S102" s="51">
         <v>43714</v>
       </c>
@@ -40127,20 +40077,20 @@
       </c>
     </row>
     <row r="103" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B103" s="64"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
-      <c r="I103" s="64"/>
-      <c r="J103" s="64"/>
-      <c r="K103" s="64"/>
-      <c r="L103" s="64"/>
-      <c r="M103" s="64"/>
-      <c r="N103" s="64"/>
-      <c r="O103" s="64"/>
+      <c r="B103" s="60"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="60"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="60"/>
+      <c r="J103" s="60"/>
+      <c r="K103" s="60"/>
+      <c r="L103" s="60"/>
+      <c r="M103" s="60"/>
+      <c r="N103" s="60"/>
+      <c r="O103" s="60"/>
       <c r="S103" s="51">
         <v>43714</v>
       </c>
@@ -40278,20 +40228,20 @@
       </c>
     </row>
     <row r="104" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B104" s="64"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="64"/>
-      <c r="H104" s="64"/>
-      <c r="I104" s="64"/>
-      <c r="J104" s="64"/>
-      <c r="K104" s="64"/>
-      <c r="L104" s="64"/>
-      <c r="M104" s="64"/>
-      <c r="N104" s="64"/>
-      <c r="O104" s="64"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="60"/>
+      <c r="H104" s="60"/>
+      <c r="I104" s="60"/>
+      <c r="J104" s="60"/>
+      <c r="K104" s="60"/>
+      <c r="L104" s="60"/>
+      <c r="M104" s="60"/>
+      <c r="N104" s="60"/>
+      <c r="O104" s="60"/>
       <c r="S104" s="51">
         <v>43714</v>
       </c>
@@ -40429,20 +40379,20 @@
       </c>
     </row>
     <row r="105" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B105" s="64"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="64"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="64"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
-      <c r="I105" s="64"/>
-      <c r="J105" s="64"/>
-      <c r="K105" s="64"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="64"/>
-      <c r="N105" s="64"/>
-      <c r="O105" s="64"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="60"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="60"/>
+      <c r="J105" s="60"/>
+      <c r="K105" s="60"/>
+      <c r="L105" s="60"/>
+      <c r="M105" s="60"/>
+      <c r="N105" s="60"/>
+      <c r="O105" s="60"/>
       <c r="S105" s="51">
         <v>43714</v>
       </c>
@@ -40580,20 +40530,20 @@
       </c>
     </row>
     <row r="106" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B106" s="64"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="64"/>
-      <c r="G106" s="64"/>
-      <c r="H106" s="64"/>
-      <c r="I106" s="64"/>
-      <c r="J106" s="64"/>
-      <c r="K106" s="64"/>
-      <c r="L106" s="64"/>
-      <c r="M106" s="64"/>
-      <c r="N106" s="64"/>
-      <c r="O106" s="64"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="60"/>
+      <c r="D106" s="60"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="60"/>
+      <c r="H106" s="60"/>
+      <c r="I106" s="60"/>
+      <c r="J106" s="60"/>
+      <c r="K106" s="60"/>
+      <c r="L106" s="60"/>
+      <c r="M106" s="60"/>
+      <c r="N106" s="60"/>
+      <c r="O106" s="60"/>
       <c r="S106" s="51">
         <v>43714</v>
       </c>
@@ -40731,20 +40681,20 @@
       </c>
     </row>
     <row r="107" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="64"/>
-      <c r="L107" s="64"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="64"/>
-      <c r="O107" s="64"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="60"/>
+      <c r="J107" s="60"/>
+      <c r="K107" s="60"/>
+      <c r="L107" s="60"/>
+      <c r="M107" s="60"/>
+      <c r="N107" s="60"/>
+      <c r="O107" s="60"/>
       <c r="S107" s="51">
         <v>43714</v>
       </c>
@@ -40882,20 +40832,20 @@
       </c>
     </row>
     <row r="108" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B108" s="64"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="64"/>
-      <c r="G108" s="64"/>
-      <c r="H108" s="64"/>
-      <c r="I108" s="64"/>
-      <c r="J108" s="64"/>
-      <c r="K108" s="64"/>
-      <c r="L108" s="64"/>
-      <c r="M108" s="64"/>
-      <c r="N108" s="64"/>
-      <c r="O108" s="64"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="60"/>
+      <c r="J108" s="60"/>
+      <c r="K108" s="60"/>
+      <c r="L108" s="60"/>
+      <c r="M108" s="60"/>
+      <c r="N108" s="60"/>
+      <c r="O108" s="60"/>
       <c r="S108" s="51">
         <v>43714</v>
       </c>
@@ -41033,20 +40983,20 @@
       </c>
     </row>
     <row r="109" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B109" s="64"/>
-      <c r="C109" s="64"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="64"/>
-      <c r="F109" s="64"/>
-      <c r="G109" s="64"/>
-      <c r="H109" s="64"/>
-      <c r="I109" s="64"/>
-      <c r="J109" s="64"/>
-      <c r="K109" s="64"/>
-      <c r="L109" s="64"/>
-      <c r="M109" s="64"/>
-      <c r="N109" s="64"/>
-      <c r="O109" s="64"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="60"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="60"/>
+      <c r="I109" s="60"/>
+      <c r="J109" s="60"/>
+      <c r="K109" s="60"/>
+      <c r="L109" s="60"/>
+      <c r="M109" s="60"/>
+      <c r="N109" s="60"/>
+      <c r="O109" s="60"/>
       <c r="S109" s="51">
         <v>43714</v>
       </c>
@@ -41184,20 +41134,20 @@
       </c>
     </row>
     <row r="110" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B110" s="64"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="64"/>
-      <c r="H110" s="64"/>
-      <c r="I110" s="64"/>
-      <c r="J110" s="64"/>
-      <c r="K110" s="64"/>
-      <c r="L110" s="64"/>
-      <c r="M110" s="64"/>
-      <c r="N110" s="64"/>
-      <c r="O110" s="64"/>
+      <c r="B110" s="60"/>
+      <c r="C110" s="60"/>
+      <c r="D110" s="60"/>
+      <c r="E110" s="60"/>
+      <c r="F110" s="60"/>
+      <c r="G110" s="60"/>
+      <c r="H110" s="60"/>
+      <c r="I110" s="60"/>
+      <c r="J110" s="60"/>
+      <c r="K110" s="60"/>
+      <c r="L110" s="60"/>
+      <c r="M110" s="60"/>
+      <c r="N110" s="60"/>
+      <c r="O110" s="60"/>
       <c r="S110" s="51">
         <v>43714</v>
       </c>
@@ -41335,20 +41285,20 @@
       </c>
     </row>
     <row r="111" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B111" s="64"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="64"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="64"/>
-      <c r="H111" s="64"/>
-      <c r="I111" s="64"/>
-      <c r="J111" s="64"/>
-      <c r="K111" s="64"/>
-      <c r="L111" s="64"/>
-      <c r="M111" s="64"/>
-      <c r="N111" s="64"/>
-      <c r="O111" s="64"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="60"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="60"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="60"/>
+      <c r="I111" s="60"/>
+      <c r="J111" s="60"/>
+      <c r="K111" s="60"/>
+      <c r="L111" s="60"/>
+      <c r="M111" s="60"/>
+      <c r="N111" s="60"/>
+      <c r="O111" s="60"/>
       <c r="S111" s="51">
         <v>43714</v>
       </c>
@@ -41486,20 +41436,20 @@
       </c>
     </row>
     <row r="112" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B112" s="64"/>
-      <c r="C112" s="64"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="64"/>
-      <c r="H112" s="64"/>
-      <c r="I112" s="64"/>
-      <c r="J112" s="64"/>
-      <c r="K112" s="64"/>
-      <c r="L112" s="64"/>
-      <c r="M112" s="64"/>
-      <c r="N112" s="64"/>
-      <c r="O112" s="64"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="60"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="60"/>
+      <c r="F112" s="60"/>
+      <c r="G112" s="60"/>
+      <c r="H112" s="60"/>
+      <c r="I112" s="60"/>
+      <c r="J112" s="60"/>
+      <c r="K112" s="60"/>
+      <c r="L112" s="60"/>
+      <c r="M112" s="60"/>
+      <c r="N112" s="60"/>
+      <c r="O112" s="60"/>
       <c r="S112" s="51">
         <v>43714</v>
       </c>
@@ -41637,20 +41587,20 @@
       </c>
     </row>
     <row r="113" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B113" s="64"/>
-      <c r="C113" s="64"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="64"/>
-      <c r="H113" s="64"/>
-      <c r="I113" s="64"/>
-      <c r="J113" s="64"/>
-      <c r="K113" s="64"/>
-      <c r="L113" s="64"/>
-      <c r="M113" s="64"/>
-      <c r="N113" s="64"/>
-      <c r="O113" s="64"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="60"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="60"/>
+      <c r="I113" s="60"/>
+      <c r="J113" s="60"/>
+      <c r="K113" s="60"/>
+      <c r="L113" s="60"/>
+      <c r="M113" s="60"/>
+      <c r="N113" s="60"/>
+      <c r="O113" s="60"/>
       <c r="S113" s="51">
         <v>43714</v>
       </c>
@@ -41788,20 +41738,20 @@
       </c>
     </row>
     <row r="114" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B114" s="64"/>
-      <c r="C114" s="64"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="64"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="64"/>
-      <c r="H114" s="64"/>
-      <c r="I114" s="64"/>
-      <c r="J114" s="64"/>
-      <c r="K114" s="64"/>
-      <c r="L114" s="64"/>
-      <c r="M114" s="64"/>
-      <c r="N114" s="64"/>
-      <c r="O114" s="64"/>
+      <c r="B114" s="60"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="60"/>
+      <c r="G114" s="60"/>
+      <c r="H114" s="60"/>
+      <c r="I114" s="60"/>
+      <c r="J114" s="60"/>
+      <c r="K114" s="60"/>
+      <c r="L114" s="60"/>
+      <c r="M114" s="60"/>
+      <c r="N114" s="60"/>
+      <c r="O114" s="60"/>
       <c r="S114" s="51">
         <v>43714</v>
       </c>
@@ -41939,20 +41889,20 @@
       </c>
     </row>
     <row r="115" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B115" s="64"/>
-      <c r="C115" s="64"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="64"/>
-      <c r="H115" s="64"/>
-      <c r="I115" s="64"/>
-      <c r="J115" s="64"/>
-      <c r="K115" s="64"/>
-      <c r="L115" s="64"/>
-      <c r="M115" s="64"/>
-      <c r="N115" s="64"/>
-      <c r="O115" s="64"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="60"/>
+      <c r="I115" s="60"/>
+      <c r="J115" s="60"/>
+      <c r="K115" s="60"/>
+      <c r="L115" s="60"/>
+      <c r="M115" s="60"/>
+      <c r="N115" s="60"/>
+      <c r="O115" s="60"/>
       <c r="S115" s="51">
         <v>43714</v>
       </c>
@@ -42090,20 +42040,20 @@
       </c>
     </row>
     <row r="116" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B116" s="64"/>
-      <c r="C116" s="64"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="64"/>
-      <c r="F116" s="64"/>
-      <c r="G116" s="64"/>
-      <c r="H116" s="64"/>
-      <c r="I116" s="64"/>
-      <c r="J116" s="64"/>
-      <c r="K116" s="64"/>
-      <c r="L116" s="64"/>
-      <c r="M116" s="64"/>
-      <c r="N116" s="64"/>
-      <c r="O116" s="64"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="60"/>
+      <c r="E116" s="60"/>
+      <c r="F116" s="60"/>
+      <c r="G116" s="60"/>
+      <c r="H116" s="60"/>
+      <c r="I116" s="60"/>
+      <c r="J116" s="60"/>
+      <c r="K116" s="60"/>
+      <c r="L116" s="60"/>
+      <c r="M116" s="60"/>
+      <c r="N116" s="60"/>
+      <c r="O116" s="60"/>
       <c r="S116" s="51">
         <v>43714</v>
       </c>
@@ -42241,20 +42191,20 @@
       </c>
     </row>
     <row r="117" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B117" s="64"/>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="64"/>
-      <c r="H117" s="64"/>
-      <c r="I117" s="64"/>
-      <c r="J117" s="64"/>
-      <c r="K117" s="64"/>
-      <c r="L117" s="64"/>
-      <c r="M117" s="64"/>
-      <c r="N117" s="64"/>
-      <c r="O117" s="64"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="60"/>
+      <c r="D117" s="60"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="60"/>
+      <c r="G117" s="60"/>
+      <c r="H117" s="60"/>
+      <c r="I117" s="60"/>
+      <c r="J117" s="60"/>
+      <c r="K117" s="60"/>
+      <c r="L117" s="60"/>
+      <c r="M117" s="60"/>
+      <c r="N117" s="60"/>
+      <c r="O117" s="60"/>
       <c r="S117" s="51">
         <v>43714</v>
       </c>
@@ -42392,20 +42342,20 @@
       </c>
     </row>
     <row r="118" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="64"/>
-      <c r="H118" s="64"/>
-      <c r="I118" s="64"/>
-      <c r="J118" s="64"/>
-      <c r="K118" s="64"/>
-      <c r="L118" s="64"/>
-      <c r="M118" s="64"/>
-      <c r="N118" s="64"/>
-      <c r="O118" s="64"/>
+      <c r="B118" s="60"/>
+      <c r="C118" s="60"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="60"/>
+      <c r="F118" s="60"/>
+      <c r="G118" s="60"/>
+      <c r="H118" s="60"/>
+      <c r="I118" s="60"/>
+      <c r="J118" s="60"/>
+      <c r="K118" s="60"/>
+      <c r="L118" s="60"/>
+      <c r="M118" s="60"/>
+      <c r="N118" s="60"/>
+      <c r="O118" s="60"/>
       <c r="S118" s="51">
         <v>43714</v>
       </c>
@@ -42543,20 +42493,20 @@
       </c>
     </row>
     <row r="119" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B119" s="64"/>
-      <c r="C119" s="64"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="64"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="64"/>
-      <c r="H119" s="64"/>
-      <c r="I119" s="64"/>
-      <c r="J119" s="64"/>
-      <c r="K119" s="64"/>
-      <c r="L119" s="64"/>
-      <c r="M119" s="64"/>
-      <c r="N119" s="64"/>
-      <c r="O119" s="64"/>
+      <c r="B119" s="60"/>
+      <c r="C119" s="60"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="60"/>
+      <c r="F119" s="60"/>
+      <c r="G119" s="60"/>
+      <c r="H119" s="60"/>
+      <c r="I119" s="60"/>
+      <c r="J119" s="60"/>
+      <c r="K119" s="60"/>
+      <c r="L119" s="60"/>
+      <c r="M119" s="60"/>
+      <c r="N119" s="60"/>
+      <c r="O119" s="60"/>
       <c r="S119" s="51">
         <v>43714</v>
       </c>
@@ -42694,20 +42644,20 @@
       </c>
     </row>
     <row r="120" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B120" s="64"/>
-      <c r="C120" s="64"/>
-      <c r="D120" s="64"/>
-      <c r="E120" s="64"/>
-      <c r="F120" s="64"/>
-      <c r="G120" s="64"/>
-      <c r="H120" s="64"/>
-      <c r="I120" s="64"/>
-      <c r="J120" s="64"/>
-      <c r="K120" s="64"/>
-      <c r="L120" s="64"/>
-      <c r="M120" s="64"/>
-      <c r="N120" s="64"/>
-      <c r="O120" s="64"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="60"/>
+      <c r="F120" s="60"/>
+      <c r="G120" s="60"/>
+      <c r="H120" s="60"/>
+      <c r="I120" s="60"/>
+      <c r="J120" s="60"/>
+      <c r="K120" s="60"/>
+      <c r="L120" s="60"/>
+      <c r="M120" s="60"/>
+      <c r="N120" s="60"/>
+      <c r="O120" s="60"/>
       <c r="S120" s="51">
         <v>43714</v>
       </c>
@@ -42845,20 +42795,20 @@
       </c>
     </row>
     <row r="121" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B121" s="64"/>
-      <c r="C121" s="64"/>
-      <c r="D121" s="64"/>
-      <c r="E121" s="64"/>
-      <c r="F121" s="64"/>
-      <c r="G121" s="64"/>
-      <c r="H121" s="64"/>
-      <c r="I121" s="64"/>
-      <c r="J121" s="64"/>
-      <c r="K121" s="64"/>
-      <c r="L121" s="64"/>
-      <c r="M121" s="64"/>
-      <c r="N121" s="64"/>
-      <c r="O121" s="64"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60"/>
+      <c r="F121" s="60"/>
+      <c r="G121" s="60"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="60"/>
+      <c r="J121" s="60"/>
+      <c r="K121" s="60"/>
+      <c r="L121" s="60"/>
+      <c r="M121" s="60"/>
+      <c r="N121" s="60"/>
+      <c r="O121" s="60"/>
       <c r="S121" s="51">
         <v>43714</v>
       </c>
@@ -42996,20 +42946,20 @@
       </c>
     </row>
     <row r="122" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B122" s="64"/>
-      <c r="C122" s="64"/>
-      <c r="D122" s="64"/>
-      <c r="E122" s="64"/>
-      <c r="F122" s="64"/>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
-      <c r="I122" s="64"/>
-      <c r="J122" s="64"/>
-      <c r="K122" s="64"/>
-      <c r="L122" s="64"/>
-      <c r="M122" s="64"/>
-      <c r="N122" s="64"/>
-      <c r="O122" s="64"/>
+      <c r="B122" s="60"/>
+      <c r="C122" s="60"/>
+      <c r="D122" s="60"/>
+      <c r="E122" s="60"/>
+      <c r="F122" s="60"/>
+      <c r="G122" s="60"/>
+      <c r="H122" s="60"/>
+      <c r="I122" s="60"/>
+      <c r="J122" s="60"/>
+      <c r="K122" s="60"/>
+      <c r="L122" s="60"/>
+      <c r="M122" s="60"/>
+      <c r="N122" s="60"/>
+      <c r="O122" s="60"/>
       <c r="S122" s="51">
         <v>43714</v>
       </c>
@@ -43147,20 +43097,20 @@
       </c>
     </row>
     <row r="123" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B123" s="64"/>
-      <c r="C123" s="64"/>
-      <c r="D123" s="64"/>
-      <c r="E123" s="64"/>
-      <c r="F123" s="64"/>
-      <c r="G123" s="64"/>
-      <c r="H123" s="64"/>
-      <c r="I123" s="64"/>
-      <c r="J123" s="64"/>
-      <c r="K123" s="64"/>
-      <c r="L123" s="64"/>
-      <c r="M123" s="64"/>
-      <c r="N123" s="64"/>
-      <c r="O123" s="64"/>
+      <c r="B123" s="60"/>
+      <c r="C123" s="60"/>
+      <c r="D123" s="60"/>
+      <c r="E123" s="60"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="60"/>
+      <c r="I123" s="60"/>
+      <c r="J123" s="60"/>
+      <c r="K123" s="60"/>
+      <c r="L123" s="60"/>
+      <c r="M123" s="60"/>
+      <c r="N123" s="60"/>
+      <c r="O123" s="60"/>
       <c r="S123" s="51">
         <v>43714</v>
       </c>
@@ -43298,20 +43248,20 @@
       </c>
     </row>
     <row r="124" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B124" s="64"/>
-      <c r="C124" s="64"/>
-      <c r="D124" s="64"/>
-      <c r="E124" s="64"/>
-      <c r="F124" s="64"/>
-      <c r="G124" s="64"/>
-      <c r="H124" s="64"/>
-      <c r="I124" s="64"/>
-      <c r="J124" s="64"/>
-      <c r="K124" s="64"/>
-      <c r="L124" s="64"/>
-      <c r="M124" s="64"/>
-      <c r="N124" s="64"/>
-      <c r="O124" s="64"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="60"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="60"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="60"/>
+      <c r="I124" s="60"/>
+      <c r="J124" s="60"/>
+      <c r="K124" s="60"/>
+      <c r="L124" s="60"/>
+      <c r="M124" s="60"/>
+      <c r="N124" s="60"/>
+      <c r="O124" s="60"/>
       <c r="S124" s="51">
         <v>43714</v>
       </c>
@@ -43449,20 +43399,20 @@
       </c>
     </row>
     <row r="125" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B125" s="64"/>
-      <c r="C125" s="64"/>
-      <c r="D125" s="64"/>
-      <c r="E125" s="64"/>
-      <c r="F125" s="64"/>
-      <c r="G125" s="64"/>
-      <c r="H125" s="64"/>
-      <c r="I125" s="64"/>
-      <c r="J125" s="64"/>
-      <c r="K125" s="64"/>
-      <c r="L125" s="64"/>
-      <c r="M125" s="64"/>
-      <c r="N125" s="64"/>
-      <c r="O125" s="64"/>
+      <c r="B125" s="60"/>
+      <c r="C125" s="60"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="60"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="60"/>
+      <c r="J125" s="60"/>
+      <c r="K125" s="60"/>
+      <c r="L125" s="60"/>
+      <c r="M125" s="60"/>
+      <c r="N125" s="60"/>
+      <c r="O125" s="60"/>
       <c r="S125" s="51">
         <v>43714</v>
       </c>
@@ -43600,20 +43550,20 @@
       </c>
     </row>
     <row r="126" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="64"/>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
-      <c r="J126" s="64"/>
-      <c r="K126" s="64"/>
-      <c r="L126" s="64"/>
-      <c r="M126" s="64"/>
-      <c r="N126" s="64"/>
-      <c r="O126" s="64"/>
+      <c r="B126" s="60"/>
+      <c r="C126" s="60"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="60"/>
+      <c r="F126" s="60"/>
+      <c r="G126" s="60"/>
+      <c r="H126" s="60"/>
+      <c r="I126" s="60"/>
+      <c r="J126" s="60"/>
+      <c r="K126" s="60"/>
+      <c r="L126" s="60"/>
+      <c r="M126" s="60"/>
+      <c r="N126" s="60"/>
+      <c r="O126" s="60"/>
       <c r="S126" s="51">
         <v>43714</v>
       </c>
@@ -43751,20 +43701,20 @@
       </c>
     </row>
     <row r="127" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B127" s="64"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="64"/>
-      <c r="E127" s="64"/>
-      <c r="F127" s="64"/>
-      <c r="G127" s="64"/>
-      <c r="H127" s="64"/>
-      <c r="I127" s="64"/>
-      <c r="J127" s="64"/>
-      <c r="K127" s="64"/>
-      <c r="L127" s="64"/>
-      <c r="M127" s="64"/>
-      <c r="N127" s="64"/>
-      <c r="O127" s="64"/>
+      <c r="B127" s="60"/>
+      <c r="C127" s="60"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60"/>
+      <c r="F127" s="60"/>
+      <c r="G127" s="60"/>
+      <c r="H127" s="60"/>
+      <c r="I127" s="60"/>
+      <c r="J127" s="60"/>
+      <c r="K127" s="60"/>
+      <c r="L127" s="60"/>
+      <c r="M127" s="60"/>
+      <c r="N127" s="60"/>
+      <c r="O127" s="60"/>
       <c r="S127" s="51">
         <v>43714</v>
       </c>
@@ -43902,20 +43852,20 @@
       </c>
     </row>
     <row r="128" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B128" s="64"/>
-      <c r="C128" s="64"/>
-      <c r="D128" s="64"/>
-      <c r="E128" s="64"/>
-      <c r="F128" s="64"/>
-      <c r="G128" s="64"/>
-      <c r="H128" s="64"/>
-      <c r="I128" s="64"/>
-      <c r="J128" s="64"/>
-      <c r="K128" s="64"/>
-      <c r="L128" s="64"/>
-      <c r="M128" s="64"/>
-      <c r="N128" s="64"/>
-      <c r="O128" s="64"/>
+      <c r="B128" s="60"/>
+      <c r="C128" s="60"/>
+      <c r="D128" s="60"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="60"/>
+      <c r="G128" s="60"/>
+      <c r="H128" s="60"/>
+      <c r="I128" s="60"/>
+      <c r="J128" s="60"/>
+      <c r="K128" s="60"/>
+      <c r="L128" s="60"/>
+      <c r="M128" s="60"/>
+      <c r="N128" s="60"/>
+      <c r="O128" s="60"/>
       <c r="S128" s="51">
         <v>43714</v>
       </c>
@@ -44053,20 +44003,20 @@
       </c>
     </row>
     <row r="129" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B129" s="64"/>
-      <c r="C129" s="64"/>
-      <c r="D129" s="64"/>
-      <c r="E129" s="64"/>
-      <c r="F129" s="64"/>
-      <c r="G129" s="64"/>
-      <c r="H129" s="64"/>
-      <c r="I129" s="64"/>
-      <c r="J129" s="64"/>
-      <c r="K129" s="64"/>
-      <c r="L129" s="64"/>
-      <c r="M129" s="64"/>
-      <c r="N129" s="64"/>
-      <c r="O129" s="64"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="60"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="60"/>
+      <c r="G129" s="60"/>
+      <c r="H129" s="60"/>
+      <c r="I129" s="60"/>
+      <c r="J129" s="60"/>
+      <c r="K129" s="60"/>
+      <c r="L129" s="60"/>
+      <c r="M129" s="60"/>
+      <c r="N129" s="60"/>
+      <c r="O129" s="60"/>
       <c r="S129" s="51">
         <v>43714</v>
       </c>
@@ -44204,20 +44154,20 @@
       </c>
     </row>
     <row r="130" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B130" s="64"/>
-      <c r="C130" s="64"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="64"/>
-      <c r="F130" s="64"/>
-      <c r="G130" s="64"/>
-      <c r="H130" s="64"/>
-      <c r="I130" s="64"/>
-      <c r="J130" s="64"/>
-      <c r="K130" s="64"/>
-      <c r="L130" s="64"/>
-      <c r="M130" s="64"/>
-      <c r="N130" s="64"/>
-      <c r="O130" s="64"/>
+      <c r="B130" s="60"/>
+      <c r="C130" s="60"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="60"/>
+      <c r="G130" s="60"/>
+      <c r="H130" s="60"/>
+      <c r="I130" s="60"/>
+      <c r="J130" s="60"/>
+      <c r="K130" s="60"/>
+      <c r="L130" s="60"/>
+      <c r="M130" s="60"/>
+      <c r="N130" s="60"/>
+      <c r="O130" s="60"/>
       <c r="S130" s="51">
         <v>43714</v>
       </c>
@@ -44355,20 +44305,20 @@
       </c>
     </row>
     <row r="131" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B131" s="64"/>
-      <c r="C131" s="64"/>
-      <c r="D131" s="64"/>
-      <c r="E131" s="64"/>
-      <c r="F131" s="64"/>
-      <c r="G131" s="64"/>
-      <c r="H131" s="64"/>
-      <c r="I131" s="64"/>
-      <c r="J131" s="64"/>
-      <c r="K131" s="64"/>
-      <c r="L131" s="64"/>
-      <c r="M131" s="64"/>
-      <c r="N131" s="64"/>
-      <c r="O131" s="64"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="60"/>
+      <c r="D131" s="60"/>
+      <c r="E131" s="60"/>
+      <c r="F131" s="60"/>
+      <c r="G131" s="60"/>
+      <c r="H131" s="60"/>
+      <c r="I131" s="60"/>
+      <c r="J131" s="60"/>
+      <c r="K131" s="60"/>
+      <c r="L131" s="60"/>
+      <c r="M131" s="60"/>
+      <c r="N131" s="60"/>
+      <c r="O131" s="60"/>
       <c r="S131" s="51">
         <v>43714</v>
       </c>
@@ -44506,20 +44456,20 @@
       </c>
     </row>
     <row r="132" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B132" s="64"/>
-      <c r="C132" s="64"/>
-      <c r="D132" s="64"/>
-      <c r="E132" s="64"/>
-      <c r="F132" s="64"/>
-      <c r="G132" s="64"/>
-      <c r="H132" s="64"/>
-      <c r="I132" s="64"/>
-      <c r="J132" s="64"/>
-      <c r="K132" s="64"/>
-      <c r="L132" s="64"/>
-      <c r="M132" s="64"/>
-      <c r="N132" s="64"/>
-      <c r="O132" s="64"/>
+      <c r="B132" s="60"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="60"/>
+      <c r="F132" s="60"/>
+      <c r="G132" s="60"/>
+      <c r="H132" s="60"/>
+      <c r="I132" s="60"/>
+      <c r="J132" s="60"/>
+      <c r="K132" s="60"/>
+      <c r="L132" s="60"/>
+      <c r="M132" s="60"/>
+      <c r="N132" s="60"/>
+      <c r="O132" s="60"/>
       <c r="S132" s="51">
         <v>43714</v>
       </c>
@@ -44657,20 +44607,20 @@
       </c>
     </row>
     <row r="133" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B133" s="64"/>
-      <c r="C133" s="64"/>
-      <c r="D133" s="64"/>
-      <c r="E133" s="64"/>
-      <c r="F133" s="64"/>
-      <c r="G133" s="64"/>
-      <c r="H133" s="64"/>
-      <c r="I133" s="64"/>
-      <c r="J133" s="64"/>
-      <c r="K133" s="64"/>
-      <c r="L133" s="64"/>
-      <c r="M133" s="64"/>
-      <c r="N133" s="64"/>
-      <c r="O133" s="64"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="60"/>
+      <c r="G133" s="60"/>
+      <c r="H133" s="60"/>
+      <c r="I133" s="60"/>
+      <c r="J133" s="60"/>
+      <c r="K133" s="60"/>
+      <c r="L133" s="60"/>
+      <c r="M133" s="60"/>
+      <c r="N133" s="60"/>
+      <c r="O133" s="60"/>
       <c r="S133" s="51">
         <v>43714</v>
       </c>
@@ -44808,20 +44758,20 @@
       </c>
     </row>
     <row r="134" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B134" s="64"/>
-      <c r="C134" s="64"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="64"/>
-      <c r="G134" s="64"/>
-      <c r="H134" s="64"/>
-      <c r="I134" s="64"/>
-      <c r="J134" s="64"/>
-      <c r="K134" s="64"/>
-      <c r="L134" s="64"/>
-      <c r="M134" s="64"/>
-      <c r="N134" s="64"/>
-      <c r="O134" s="64"/>
+      <c r="B134" s="60"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="60"/>
+      <c r="E134" s="60"/>
+      <c r="F134" s="60"/>
+      <c r="G134" s="60"/>
+      <c r="H134" s="60"/>
+      <c r="I134" s="60"/>
+      <c r="J134" s="60"/>
+      <c r="K134" s="60"/>
+      <c r="L134" s="60"/>
+      <c r="M134" s="60"/>
+      <c r="N134" s="60"/>
+      <c r="O134" s="60"/>
       <c r="S134" s="51">
         <v>43714</v>
       </c>
@@ -44959,20 +44909,20 @@
       </c>
     </row>
     <row r="135" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B135" s="64"/>
-      <c r="C135" s="64"/>
-      <c r="D135" s="64"/>
-      <c r="E135" s="64"/>
-      <c r="F135" s="64"/>
-      <c r="G135" s="64"/>
-      <c r="H135" s="64"/>
-      <c r="I135" s="64"/>
-      <c r="J135" s="64"/>
-      <c r="K135" s="64"/>
-      <c r="L135" s="64"/>
-      <c r="M135" s="64"/>
-      <c r="N135" s="64"/>
-      <c r="O135" s="64"/>
+      <c r="B135" s="60"/>
+      <c r="C135" s="60"/>
+      <c r="D135" s="60"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="60"/>
+      <c r="G135" s="60"/>
+      <c r="H135" s="60"/>
+      <c r="I135" s="60"/>
+      <c r="J135" s="60"/>
+      <c r="K135" s="60"/>
+      <c r="L135" s="60"/>
+      <c r="M135" s="60"/>
+      <c r="N135" s="60"/>
+      <c r="O135" s="60"/>
       <c r="S135" s="51">
         <v>43714</v>
       </c>
@@ -45110,20 +45060,20 @@
       </c>
     </row>
     <row r="136" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B136" s="64"/>
-      <c r="C136" s="64"/>
-      <c r="D136" s="64"/>
-      <c r="E136" s="64"/>
-      <c r="F136" s="64"/>
-      <c r="G136" s="64"/>
-      <c r="H136" s="64"/>
-      <c r="I136" s="64"/>
-      <c r="J136" s="64"/>
-      <c r="K136" s="64"/>
-      <c r="L136" s="64"/>
-      <c r="M136" s="64"/>
-      <c r="N136" s="64"/>
-      <c r="O136" s="64"/>
+      <c r="B136" s="60"/>
+      <c r="C136" s="60"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="60"/>
+      <c r="F136" s="60"/>
+      <c r="G136" s="60"/>
+      <c r="H136" s="60"/>
+      <c r="I136" s="60"/>
+      <c r="J136" s="60"/>
+      <c r="K136" s="60"/>
+      <c r="L136" s="60"/>
+      <c r="M136" s="60"/>
+      <c r="N136" s="60"/>
+      <c r="O136" s="60"/>
       <c r="S136" s="51">
         <v>43714</v>
       </c>
@@ -45261,20 +45211,20 @@
       </c>
     </row>
     <row r="137" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B137" s="64"/>
-      <c r="C137" s="64"/>
-      <c r="D137" s="64"/>
-      <c r="E137" s="64"/>
-      <c r="F137" s="64"/>
-      <c r="G137" s="64"/>
-      <c r="H137" s="64"/>
-      <c r="I137" s="64"/>
-      <c r="J137" s="64"/>
-      <c r="K137" s="64"/>
-      <c r="L137" s="64"/>
-      <c r="M137" s="64"/>
-      <c r="N137" s="64"/>
-      <c r="O137" s="64"/>
+      <c r="B137" s="60"/>
+      <c r="C137" s="60"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="60"/>
+      <c r="F137" s="60"/>
+      <c r="G137" s="60"/>
+      <c r="H137" s="60"/>
+      <c r="I137" s="60"/>
+      <c r="J137" s="60"/>
+      <c r="K137" s="60"/>
+      <c r="L137" s="60"/>
+      <c r="M137" s="60"/>
+      <c r="N137" s="60"/>
+      <c r="O137" s="60"/>
       <c r="S137" s="51">
         <v>43714</v>
       </c>
@@ -45412,20 +45362,20 @@
       </c>
     </row>
     <row r="138" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B138" s="64"/>
-      <c r="C138" s="64"/>
-      <c r="D138" s="64"/>
-      <c r="E138" s="64"/>
-      <c r="F138" s="64"/>
-      <c r="G138" s="64"/>
-      <c r="H138" s="64"/>
-      <c r="I138" s="64"/>
-      <c r="J138" s="64"/>
-      <c r="K138" s="64"/>
-      <c r="L138" s="64"/>
-      <c r="M138" s="64"/>
-      <c r="N138" s="64"/>
-      <c r="O138" s="64"/>
+      <c r="B138" s="60"/>
+      <c r="C138" s="60"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="60"/>
+      <c r="F138" s="60"/>
+      <c r="G138" s="60"/>
+      <c r="H138" s="60"/>
+      <c r="I138" s="60"/>
+      <c r="J138" s="60"/>
+      <c r="K138" s="60"/>
+      <c r="L138" s="60"/>
+      <c r="M138" s="60"/>
+      <c r="N138" s="60"/>
+      <c r="O138" s="60"/>
       <c r="S138" s="51">
         <v>43714</v>
       </c>
@@ -45563,20 +45513,20 @@
       </c>
     </row>
     <row r="139" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B139" s="64"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="64"/>
-      <c r="F139" s="64"/>
-      <c r="G139" s="64"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="64"/>
-      <c r="J139" s="64"/>
-      <c r="K139" s="64"/>
-      <c r="L139" s="64"/>
-      <c r="M139" s="64"/>
-      <c r="N139" s="64"/>
-      <c r="O139" s="64"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="60"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="60"/>
+      <c r="G139" s="60"/>
+      <c r="H139" s="60"/>
+      <c r="I139" s="60"/>
+      <c r="J139" s="60"/>
+      <c r="K139" s="60"/>
+      <c r="L139" s="60"/>
+      <c r="M139" s="60"/>
+      <c r="N139" s="60"/>
+      <c r="O139" s="60"/>
       <c r="S139" s="51">
         <v>43714</v>
       </c>
@@ -45714,20 +45664,20 @@
       </c>
     </row>
     <row r="140" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B140" s="64"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="64"/>
-      <c r="F140" s="64"/>
-      <c r="G140" s="64"/>
-      <c r="H140" s="64"/>
-      <c r="I140" s="64"/>
-      <c r="J140" s="64"/>
-      <c r="K140" s="64"/>
-      <c r="L140" s="64"/>
-      <c r="M140" s="64"/>
-      <c r="N140" s="64"/>
-      <c r="O140" s="64"/>
+      <c r="B140" s="60"/>
+      <c r="C140" s="60"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="60"/>
+      <c r="G140" s="60"/>
+      <c r="H140" s="60"/>
+      <c r="I140" s="60"/>
+      <c r="J140" s="60"/>
+      <c r="K140" s="60"/>
+      <c r="L140" s="60"/>
+      <c r="M140" s="60"/>
+      <c r="N140" s="60"/>
+      <c r="O140" s="60"/>
       <c r="S140" s="51">
         <v>43714</v>
       </c>
@@ -45865,20 +45815,20 @@
       </c>
     </row>
     <row r="141" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B141" s="64"/>
-      <c r="C141" s="64"/>
-      <c r="D141" s="64"/>
-      <c r="E141" s="64"/>
-      <c r="F141" s="64"/>
-      <c r="G141" s="64"/>
-      <c r="H141" s="64"/>
-      <c r="I141" s="64"/>
-      <c r="J141" s="64"/>
-      <c r="K141" s="64"/>
-      <c r="L141" s="64"/>
-      <c r="M141" s="64"/>
-      <c r="N141" s="64"/>
-      <c r="O141" s="64"/>
+      <c r="B141" s="60"/>
+      <c r="C141" s="60"/>
+      <c r="D141" s="60"/>
+      <c r="E141" s="60"/>
+      <c r="F141" s="60"/>
+      <c r="G141" s="60"/>
+      <c r="H141" s="60"/>
+      <c r="I141" s="60"/>
+      <c r="J141" s="60"/>
+      <c r="K141" s="60"/>
+      <c r="L141" s="60"/>
+      <c r="M141" s="60"/>
+      <c r="N141" s="60"/>
+      <c r="O141" s="60"/>
       <c r="S141" s="51">
         <v>43714</v>
       </c>
@@ -46016,20 +45966,20 @@
       </c>
     </row>
     <row r="142" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B142" s="64"/>
-      <c r="C142" s="64"/>
-      <c r="D142" s="64"/>
-      <c r="E142" s="64"/>
-      <c r="F142" s="64"/>
-      <c r="G142" s="64"/>
-      <c r="H142" s="64"/>
-      <c r="I142" s="64"/>
-      <c r="J142" s="64"/>
-      <c r="K142" s="64"/>
-      <c r="L142" s="64"/>
-      <c r="M142" s="64"/>
-      <c r="N142" s="64"/>
-      <c r="O142" s="64"/>
+      <c r="B142" s="60"/>
+      <c r="C142" s="60"/>
+      <c r="D142" s="60"/>
+      <c r="E142" s="60"/>
+      <c r="F142" s="60"/>
+      <c r="G142" s="60"/>
+      <c r="H142" s="60"/>
+      <c r="I142" s="60"/>
+      <c r="J142" s="60"/>
+      <c r="K142" s="60"/>
+      <c r="L142" s="60"/>
+      <c r="M142" s="60"/>
+      <c r="N142" s="60"/>
+      <c r="O142" s="60"/>
       <c r="S142" s="51">
         <v>43714</v>
       </c>
@@ -46167,20 +46117,20 @@
       </c>
     </row>
     <row r="143" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B143" s="64"/>
-      <c r="C143" s="64"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="64"/>
-      <c r="F143" s="64"/>
-      <c r="G143" s="64"/>
-      <c r="H143" s="64"/>
-      <c r="I143" s="64"/>
-      <c r="J143" s="64"/>
-      <c r="K143" s="64"/>
-      <c r="L143" s="64"/>
-      <c r="M143" s="64"/>
-      <c r="N143" s="64"/>
-      <c r="O143" s="64"/>
+      <c r="B143" s="60"/>
+      <c r="C143" s="60"/>
+      <c r="D143" s="60"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="60"/>
+      <c r="G143" s="60"/>
+      <c r="H143" s="60"/>
+      <c r="I143" s="60"/>
+      <c r="J143" s="60"/>
+      <c r="K143" s="60"/>
+      <c r="L143" s="60"/>
+      <c r="M143" s="60"/>
+      <c r="N143" s="60"/>
+      <c r="O143" s="60"/>
       <c r="S143" s="51">
         <v>43714</v>
       </c>
@@ -46318,20 +46268,20 @@
       </c>
     </row>
     <row r="144" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B144" s="64"/>
-      <c r="C144" s="64"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="64"/>
-      <c r="F144" s="64"/>
-      <c r="G144" s="64"/>
-      <c r="H144" s="64"/>
-      <c r="I144" s="64"/>
-      <c r="J144" s="64"/>
-      <c r="K144" s="64"/>
-      <c r="L144" s="64"/>
-      <c r="M144" s="64"/>
-      <c r="N144" s="64"/>
-      <c r="O144" s="64"/>
+      <c r="B144" s="60"/>
+      <c r="C144" s="60"/>
+      <c r="D144" s="60"/>
+      <c r="E144" s="60"/>
+      <c r="F144" s="60"/>
+      <c r="G144" s="60"/>
+      <c r="H144" s="60"/>
+      <c r="I144" s="60"/>
+      <c r="J144" s="60"/>
+      <c r="K144" s="60"/>
+      <c r="L144" s="60"/>
+      <c r="M144" s="60"/>
+      <c r="N144" s="60"/>
+      <c r="O144" s="60"/>
       <c r="S144" s="51">
         <v>43714</v>
       </c>
@@ -46469,20 +46419,20 @@
       </c>
     </row>
     <row r="145" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B145" s="64"/>
-      <c r="C145" s="64"/>
-      <c r="D145" s="64"/>
-      <c r="E145" s="64"/>
-      <c r="F145" s="64"/>
-      <c r="G145" s="64"/>
-      <c r="H145" s="64"/>
-      <c r="I145" s="64"/>
-      <c r="J145" s="64"/>
-      <c r="K145" s="64"/>
-      <c r="L145" s="64"/>
-      <c r="M145" s="64"/>
-      <c r="N145" s="64"/>
-      <c r="O145" s="64"/>
+      <c r="B145" s="60"/>
+      <c r="C145" s="60"/>
+      <c r="D145" s="60"/>
+      <c r="E145" s="60"/>
+      <c r="F145" s="60"/>
+      <c r="G145" s="60"/>
+      <c r="H145" s="60"/>
+      <c r="I145" s="60"/>
+      <c r="J145" s="60"/>
+      <c r="K145" s="60"/>
+      <c r="L145" s="60"/>
+      <c r="M145" s="60"/>
+      <c r="N145" s="60"/>
+      <c r="O145" s="60"/>
       <c r="S145" s="51">
         <v>43714</v>
       </c>
@@ -46620,20 +46570,20 @@
       </c>
     </row>
     <row r="146" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B146" s="64"/>
-      <c r="C146" s="64"/>
-      <c r="D146" s="64"/>
-      <c r="E146" s="64"/>
-      <c r="F146" s="64"/>
-      <c r="G146" s="64"/>
-      <c r="H146" s="64"/>
-      <c r="I146" s="64"/>
-      <c r="J146" s="64"/>
-      <c r="K146" s="64"/>
-      <c r="L146" s="64"/>
-      <c r="M146" s="64"/>
-      <c r="N146" s="64"/>
-      <c r="O146" s="64"/>
+      <c r="B146" s="60"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="60"/>
+      <c r="F146" s="60"/>
+      <c r="G146" s="60"/>
+      <c r="H146" s="60"/>
+      <c r="I146" s="60"/>
+      <c r="J146" s="60"/>
+      <c r="K146" s="60"/>
+      <c r="L146" s="60"/>
+      <c r="M146" s="60"/>
+      <c r="N146" s="60"/>
+      <c r="O146" s="60"/>
       <c r="S146" s="51">
         <v>43714</v>
       </c>
@@ -46771,20 +46721,20 @@
       </c>
     </row>
     <row r="147" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B147" s="64"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="64"/>
-      <c r="F147" s="64"/>
-      <c r="G147" s="64"/>
-      <c r="H147" s="64"/>
-      <c r="I147" s="64"/>
-      <c r="J147" s="64"/>
-      <c r="K147" s="64"/>
-      <c r="L147" s="64"/>
-      <c r="M147" s="64"/>
-      <c r="N147" s="64"/>
-      <c r="O147" s="64"/>
+      <c r="B147" s="60"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="60"/>
+      <c r="F147" s="60"/>
+      <c r="G147" s="60"/>
+      <c r="H147" s="60"/>
+      <c r="I147" s="60"/>
+      <c r="J147" s="60"/>
+      <c r="K147" s="60"/>
+      <c r="L147" s="60"/>
+      <c r="M147" s="60"/>
+      <c r="N147" s="60"/>
+      <c r="O147" s="60"/>
       <c r="S147" s="51">
         <v>43714</v>
       </c>
@@ -46922,20 +46872,20 @@
       </c>
     </row>
     <row r="148" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B148" s="64"/>
-      <c r="C148" s="64"/>
-      <c r="D148" s="64"/>
-      <c r="E148" s="64"/>
-      <c r="F148" s="64"/>
-      <c r="G148" s="64"/>
-      <c r="H148" s="64"/>
-      <c r="I148" s="64"/>
-      <c r="J148" s="64"/>
-      <c r="K148" s="64"/>
-      <c r="L148" s="64"/>
-      <c r="M148" s="64"/>
-      <c r="N148" s="64"/>
-      <c r="O148" s="64"/>
+      <c r="B148" s="60"/>
+      <c r="C148" s="60"/>
+      <c r="D148" s="60"/>
+      <c r="E148" s="60"/>
+      <c r="F148" s="60"/>
+      <c r="G148" s="60"/>
+      <c r="H148" s="60"/>
+      <c r="I148" s="60"/>
+      <c r="J148" s="60"/>
+      <c r="K148" s="60"/>
+      <c r="L148" s="60"/>
+      <c r="M148" s="60"/>
+      <c r="N148" s="60"/>
+      <c r="O148" s="60"/>
       <c r="S148" s="51">
         <v>43714</v>
       </c>
@@ -47073,20 +47023,20 @@
       </c>
     </row>
     <row r="149" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B149" s="64"/>
-      <c r="C149" s="64"/>
-      <c r="D149" s="64"/>
-      <c r="E149" s="64"/>
-      <c r="F149" s="64"/>
-      <c r="G149" s="64"/>
-      <c r="H149" s="64"/>
-      <c r="I149" s="64"/>
-      <c r="J149" s="64"/>
-      <c r="K149" s="64"/>
-      <c r="L149" s="64"/>
-      <c r="M149" s="64"/>
-      <c r="N149" s="64"/>
-      <c r="O149" s="64"/>
+      <c r="B149" s="60"/>
+      <c r="C149" s="60"/>
+      <c r="D149" s="60"/>
+      <c r="E149" s="60"/>
+      <c r="F149" s="60"/>
+      <c r="G149" s="60"/>
+      <c r="H149" s="60"/>
+      <c r="I149" s="60"/>
+      <c r="J149" s="60"/>
+      <c r="K149" s="60"/>
+      <c r="L149" s="60"/>
+      <c r="M149" s="60"/>
+      <c r="N149" s="60"/>
+      <c r="O149" s="60"/>
       <c r="S149" s="51">
         <v>43714</v>
       </c>
@@ -47224,20 +47174,20 @@
       </c>
     </row>
     <row r="150" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B150" s="64"/>
-      <c r="C150" s="64"/>
-      <c r="D150" s="64"/>
-      <c r="E150" s="64"/>
-      <c r="F150" s="64"/>
-      <c r="G150" s="64"/>
-      <c r="H150" s="64"/>
-      <c r="I150" s="64"/>
-      <c r="J150" s="64"/>
-      <c r="K150" s="64"/>
-      <c r="L150" s="64"/>
-      <c r="M150" s="64"/>
-      <c r="N150" s="64"/>
-      <c r="O150" s="64"/>
+      <c r="B150" s="60"/>
+      <c r="C150" s="60"/>
+      <c r="D150" s="60"/>
+      <c r="E150" s="60"/>
+      <c r="F150" s="60"/>
+      <c r="G150" s="60"/>
+      <c r="H150" s="60"/>
+      <c r="I150" s="60"/>
+      <c r="J150" s="60"/>
+      <c r="K150" s="60"/>
+      <c r="L150" s="60"/>
+      <c r="M150" s="60"/>
+      <c r="N150" s="60"/>
+      <c r="O150" s="60"/>
       <c r="S150" s="51">
         <v>43714</v>
       </c>
@@ -47375,20 +47325,20 @@
       </c>
     </row>
     <row r="151" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B151" s="64"/>
-      <c r="C151" s="64"/>
-      <c r="D151" s="64"/>
-      <c r="E151" s="64"/>
-      <c r="F151" s="64"/>
-      <c r="G151" s="64"/>
-      <c r="H151" s="64"/>
-      <c r="I151" s="64"/>
-      <c r="J151" s="64"/>
-      <c r="K151" s="64"/>
-      <c r="L151" s="64"/>
-      <c r="M151" s="64"/>
-      <c r="N151" s="64"/>
-      <c r="O151" s="64"/>
+      <c r="B151" s="60"/>
+      <c r="C151" s="60"/>
+      <c r="D151" s="60"/>
+      <c r="E151" s="60"/>
+      <c r="F151" s="60"/>
+      <c r="G151" s="60"/>
+      <c r="H151" s="60"/>
+      <c r="I151" s="60"/>
+      <c r="J151" s="60"/>
+      <c r="K151" s="60"/>
+      <c r="L151" s="60"/>
+      <c r="M151" s="60"/>
+      <c r="N151" s="60"/>
+      <c r="O151" s="60"/>
       <c r="S151" s="51">
         <v>43714</v>
       </c>
@@ -47526,20 +47476,20 @@
       </c>
     </row>
     <row r="152" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B152" s="64"/>
-      <c r="C152" s="64"/>
-      <c r="D152" s="64"/>
-      <c r="E152" s="64"/>
-      <c r="F152" s="64"/>
-      <c r="G152" s="64"/>
-      <c r="H152" s="64"/>
-      <c r="I152" s="64"/>
-      <c r="J152" s="64"/>
-      <c r="K152" s="64"/>
-      <c r="L152" s="64"/>
-      <c r="M152" s="64"/>
-      <c r="N152" s="64"/>
-      <c r="O152" s="64"/>
+      <c r="B152" s="60"/>
+      <c r="C152" s="60"/>
+      <c r="D152" s="60"/>
+      <c r="E152" s="60"/>
+      <c r="F152" s="60"/>
+      <c r="G152" s="60"/>
+      <c r="H152" s="60"/>
+      <c r="I152" s="60"/>
+      <c r="J152" s="60"/>
+      <c r="K152" s="60"/>
+      <c r="L152" s="60"/>
+      <c r="M152" s="60"/>
+      <c r="N152" s="60"/>
+      <c r="O152" s="60"/>
       <c r="S152" s="51">
         <v>43714</v>
       </c>
@@ -47677,20 +47627,20 @@
       </c>
     </row>
     <row r="153" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B153" s="64"/>
-      <c r="C153" s="64"/>
-      <c r="D153" s="64"/>
-      <c r="E153" s="64"/>
-      <c r="F153" s="64"/>
-      <c r="G153" s="64"/>
-      <c r="H153" s="64"/>
-      <c r="I153" s="64"/>
-      <c r="J153" s="64"/>
-      <c r="K153" s="64"/>
-      <c r="L153" s="64"/>
-      <c r="M153" s="64"/>
-      <c r="N153" s="64"/>
-      <c r="O153" s="64"/>
+      <c r="B153" s="60"/>
+      <c r="C153" s="60"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="60"/>
+      <c r="F153" s="60"/>
+      <c r="G153" s="60"/>
+      <c r="H153" s="60"/>
+      <c r="I153" s="60"/>
+      <c r="J153" s="60"/>
+      <c r="K153" s="60"/>
+      <c r="L153" s="60"/>
+      <c r="M153" s="60"/>
+      <c r="N153" s="60"/>
+      <c r="O153" s="60"/>
       <c r="S153" s="51">
         <v>43714</v>
       </c>
@@ -47828,20 +47778,20 @@
       </c>
     </row>
     <row r="154" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B154" s="64"/>
-      <c r="C154" s="64"/>
-      <c r="D154" s="64"/>
-      <c r="E154" s="64"/>
-      <c r="F154" s="64"/>
-      <c r="G154" s="64"/>
-      <c r="H154" s="64"/>
-      <c r="I154" s="64"/>
-      <c r="J154" s="64"/>
-      <c r="K154" s="64"/>
-      <c r="L154" s="64"/>
-      <c r="M154" s="64"/>
-      <c r="N154" s="64"/>
-      <c r="O154" s="64"/>
+      <c r="B154" s="60"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="60"/>
+      <c r="F154" s="60"/>
+      <c r="G154" s="60"/>
+      <c r="H154" s="60"/>
+      <c r="I154" s="60"/>
+      <c r="J154" s="60"/>
+      <c r="K154" s="60"/>
+      <c r="L154" s="60"/>
+      <c r="M154" s="60"/>
+      <c r="N154" s="60"/>
+      <c r="O154" s="60"/>
       <c r="S154" s="51">
         <v>43714</v>
       </c>
@@ -47979,20 +47929,20 @@
       </c>
     </row>
     <row r="155" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B155" s="64"/>
-      <c r="C155" s="64"/>
-      <c r="D155" s="64"/>
-      <c r="E155" s="64"/>
-      <c r="F155" s="64"/>
-      <c r="G155" s="64"/>
-      <c r="H155" s="64"/>
-      <c r="I155" s="64"/>
-      <c r="J155" s="64"/>
-      <c r="K155" s="64"/>
-      <c r="L155" s="64"/>
-      <c r="M155" s="64"/>
-      <c r="N155" s="64"/>
-      <c r="O155" s="64"/>
+      <c r="B155" s="60"/>
+      <c r="C155" s="60"/>
+      <c r="D155" s="60"/>
+      <c r="E155" s="60"/>
+      <c r="F155" s="60"/>
+      <c r="G155" s="60"/>
+      <c r="H155" s="60"/>
+      <c r="I155" s="60"/>
+      <c r="J155" s="60"/>
+      <c r="K155" s="60"/>
+      <c r="L155" s="60"/>
+      <c r="M155" s="60"/>
+      <c r="N155" s="60"/>
+      <c r="O155" s="60"/>
       <c r="S155" s="51">
         <v>43714</v>
       </c>
@@ -48130,20 +48080,20 @@
       </c>
     </row>
     <row r="156" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B156" s="64"/>
-      <c r="C156" s="64"/>
-      <c r="D156" s="64"/>
-      <c r="E156" s="64"/>
-      <c r="F156" s="64"/>
-      <c r="G156" s="64"/>
-      <c r="H156" s="64"/>
-      <c r="I156" s="64"/>
-      <c r="J156" s="64"/>
-      <c r="K156" s="64"/>
-      <c r="L156" s="64"/>
-      <c r="M156" s="64"/>
-      <c r="N156" s="64"/>
-      <c r="O156" s="64"/>
+      <c r="B156" s="60"/>
+      <c r="C156" s="60"/>
+      <c r="D156" s="60"/>
+      <c r="E156" s="60"/>
+      <c r="F156" s="60"/>
+      <c r="G156" s="60"/>
+      <c r="H156" s="60"/>
+      <c r="I156" s="60"/>
+      <c r="J156" s="60"/>
+      <c r="K156" s="60"/>
+      <c r="L156" s="60"/>
+      <c r="M156" s="60"/>
+      <c r="N156" s="60"/>
+      <c r="O156" s="60"/>
       <c r="S156" s="51">
         <v>43714</v>
       </c>
@@ -48281,20 +48231,20 @@
       </c>
     </row>
     <row r="157" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B157" s="64"/>
-      <c r="C157" s="64"/>
-      <c r="D157" s="64"/>
-      <c r="E157" s="64"/>
-      <c r="F157" s="64"/>
-      <c r="G157" s="64"/>
-      <c r="H157" s="64"/>
-      <c r="I157" s="64"/>
-      <c r="J157" s="64"/>
-      <c r="K157" s="64"/>
-      <c r="L157" s="64"/>
-      <c r="M157" s="64"/>
-      <c r="N157" s="64"/>
-      <c r="O157" s="64"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="60"/>
+      <c r="D157" s="60"/>
+      <c r="E157" s="60"/>
+      <c r="F157" s="60"/>
+      <c r="G157" s="60"/>
+      <c r="H157" s="60"/>
+      <c r="I157" s="60"/>
+      <c r="J157" s="60"/>
+      <c r="K157" s="60"/>
+      <c r="L157" s="60"/>
+      <c r="M157" s="60"/>
+      <c r="N157" s="60"/>
+      <c r="O157" s="60"/>
       <c r="S157" s="51">
         <v>43714</v>
       </c>
@@ -48432,20 +48382,20 @@
       </c>
     </row>
     <row r="158" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B158" s="64"/>
-      <c r="C158" s="64"/>
-      <c r="D158" s="64"/>
-      <c r="E158" s="64"/>
-      <c r="F158" s="64"/>
-      <c r="G158" s="64"/>
-      <c r="H158" s="64"/>
-      <c r="I158" s="64"/>
-      <c r="J158" s="64"/>
-      <c r="K158" s="64"/>
-      <c r="L158" s="64"/>
-      <c r="M158" s="64"/>
-      <c r="N158" s="64"/>
-      <c r="O158" s="64"/>
+      <c r="B158" s="60"/>
+      <c r="C158" s="60"/>
+      <c r="D158" s="60"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="60"/>
+      <c r="G158" s="60"/>
+      <c r="H158" s="60"/>
+      <c r="I158" s="60"/>
+      <c r="J158" s="60"/>
+      <c r="K158" s="60"/>
+      <c r="L158" s="60"/>
+      <c r="M158" s="60"/>
+      <c r="N158" s="60"/>
+      <c r="O158" s="60"/>
       <c r="S158" s="51">
         <v>43714</v>
       </c>
@@ -48583,20 +48533,20 @@
       </c>
     </row>
     <row r="159" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B159" s="64"/>
-      <c r="C159" s="64"/>
-      <c r="D159" s="64"/>
-      <c r="E159" s="64"/>
-      <c r="F159" s="64"/>
-      <c r="G159" s="64"/>
-      <c r="H159" s="64"/>
-      <c r="I159" s="64"/>
-      <c r="J159" s="64"/>
-      <c r="K159" s="64"/>
-      <c r="L159" s="64"/>
-      <c r="M159" s="64"/>
-      <c r="N159" s="64"/>
-      <c r="O159" s="64"/>
+      <c r="B159" s="60"/>
+      <c r="C159" s="60"/>
+      <c r="D159" s="60"/>
+      <c r="E159" s="60"/>
+      <c r="F159" s="60"/>
+      <c r="G159" s="60"/>
+      <c r="H159" s="60"/>
+      <c r="I159" s="60"/>
+      <c r="J159" s="60"/>
+      <c r="K159" s="60"/>
+      <c r="L159" s="60"/>
+      <c r="M159" s="60"/>
+      <c r="N159" s="60"/>
+      <c r="O159" s="60"/>
       <c r="S159" s="51">
         <v>43714</v>
       </c>
@@ -48734,20 +48684,20 @@
       </c>
     </row>
     <row r="160" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B160" s="64"/>
-      <c r="C160" s="64"/>
-      <c r="D160" s="64"/>
-      <c r="E160" s="64"/>
-      <c r="F160" s="64"/>
-      <c r="G160" s="64"/>
-      <c r="H160" s="64"/>
-      <c r="I160" s="64"/>
-      <c r="J160" s="64"/>
-      <c r="K160" s="64"/>
-      <c r="L160" s="64"/>
-      <c r="M160" s="64"/>
-      <c r="N160" s="64"/>
-      <c r="O160" s="64"/>
+      <c r="B160" s="60"/>
+      <c r="C160" s="60"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="60"/>
+      <c r="F160" s="60"/>
+      <c r="G160" s="60"/>
+      <c r="H160" s="60"/>
+      <c r="I160" s="60"/>
+      <c r="J160" s="60"/>
+      <c r="K160" s="60"/>
+      <c r="L160" s="60"/>
+      <c r="M160" s="60"/>
+      <c r="N160" s="60"/>
+      <c r="O160" s="60"/>
       <c r="S160" s="51">
         <v>43714</v>
       </c>
@@ -48885,20 +48835,20 @@
       </c>
     </row>
     <row r="161" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B161" s="64"/>
-      <c r="C161" s="64"/>
-      <c r="D161" s="64"/>
-      <c r="E161" s="64"/>
-      <c r="F161" s="64"/>
-      <c r="G161" s="64"/>
-      <c r="H161" s="64"/>
-      <c r="I161" s="64"/>
-      <c r="J161" s="64"/>
-      <c r="K161" s="64"/>
-      <c r="L161" s="64"/>
-      <c r="M161" s="64"/>
-      <c r="N161" s="64"/>
-      <c r="O161" s="64"/>
+      <c r="B161" s="60"/>
+      <c r="C161" s="60"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="60"/>
+      <c r="F161" s="60"/>
+      <c r="G161" s="60"/>
+      <c r="H161" s="60"/>
+      <c r="I161" s="60"/>
+      <c r="J161" s="60"/>
+      <c r="K161" s="60"/>
+      <c r="L161" s="60"/>
+      <c r="M161" s="60"/>
+      <c r="N161" s="60"/>
+      <c r="O161" s="60"/>
       <c r="S161" s="51">
         <v>43714</v>
       </c>
@@ -49036,20 +48986,20 @@
       </c>
     </row>
     <row r="162" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B162" s="64"/>
-      <c r="C162" s="64"/>
-      <c r="D162" s="64"/>
-      <c r="E162" s="64"/>
-      <c r="F162" s="64"/>
-      <c r="G162" s="64"/>
-      <c r="H162" s="64"/>
-      <c r="I162" s="64"/>
-      <c r="J162" s="64"/>
-      <c r="K162" s="64"/>
-      <c r="L162" s="64"/>
-      <c r="M162" s="64"/>
-      <c r="N162" s="64"/>
-      <c r="O162" s="64"/>
+      <c r="B162" s="60"/>
+      <c r="C162" s="60"/>
+      <c r="D162" s="60"/>
+      <c r="E162" s="60"/>
+      <c r="F162" s="60"/>
+      <c r="G162" s="60"/>
+      <c r="H162" s="60"/>
+      <c r="I162" s="60"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="60"/>
+      <c r="L162" s="60"/>
+      <c r="M162" s="60"/>
+      <c r="N162" s="60"/>
+      <c r="O162" s="60"/>
       <c r="S162" s="51">
         <v>43714</v>
       </c>
@@ -49187,20 +49137,20 @@
       </c>
     </row>
     <row r="163" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B163" s="64"/>
-      <c r="C163" s="64"/>
-      <c r="D163" s="64"/>
-      <c r="E163" s="64"/>
-      <c r="F163" s="64"/>
-      <c r="G163" s="64"/>
-      <c r="H163" s="64"/>
-      <c r="I163" s="64"/>
-      <c r="J163" s="64"/>
-      <c r="K163" s="64"/>
-      <c r="L163" s="64"/>
-      <c r="M163" s="64"/>
-      <c r="N163" s="64"/>
-      <c r="O163" s="64"/>
+      <c r="B163" s="60"/>
+      <c r="C163" s="60"/>
+      <c r="D163" s="60"/>
+      <c r="E163" s="60"/>
+      <c r="F163" s="60"/>
+      <c r="G163" s="60"/>
+      <c r="H163" s="60"/>
+      <c r="I163" s="60"/>
+      <c r="J163" s="60"/>
+      <c r="K163" s="60"/>
+      <c r="L163" s="60"/>
+      <c r="M163" s="60"/>
+      <c r="N163" s="60"/>
+      <c r="O163" s="60"/>
       <c r="S163" s="51">
         <v>43714</v>
       </c>
@@ -49338,20 +49288,20 @@
       </c>
     </row>
     <row r="164" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B164" s="64"/>
-      <c r="C164" s="64"/>
-      <c r="D164" s="64"/>
-      <c r="E164" s="64"/>
-      <c r="F164" s="64"/>
-      <c r="G164" s="64"/>
-      <c r="H164" s="64"/>
-      <c r="I164" s="64"/>
-      <c r="J164" s="64"/>
-      <c r="K164" s="64"/>
-      <c r="L164" s="64"/>
-      <c r="M164" s="64"/>
-      <c r="N164" s="64"/>
-      <c r="O164" s="64"/>
+      <c r="B164" s="60"/>
+      <c r="C164" s="60"/>
+      <c r="D164" s="60"/>
+      <c r="E164" s="60"/>
+      <c r="F164" s="60"/>
+      <c r="G164" s="60"/>
+      <c r="H164" s="60"/>
+      <c r="I164" s="60"/>
+      <c r="J164" s="60"/>
+      <c r="K164" s="60"/>
+      <c r="L164" s="60"/>
+      <c r="M164" s="60"/>
+      <c r="N164" s="60"/>
+      <c r="O164" s="60"/>
       <c r="S164" s="51">
         <v>43714</v>
       </c>
@@ -49489,20 +49439,20 @@
       </c>
     </row>
     <row r="165" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B165" s="64"/>
-      <c r="C165" s="64"/>
-      <c r="D165" s="64"/>
-      <c r="E165" s="64"/>
-      <c r="F165" s="64"/>
-      <c r="G165" s="64"/>
-      <c r="H165" s="64"/>
-      <c r="I165" s="64"/>
-      <c r="J165" s="64"/>
-      <c r="K165" s="64"/>
-      <c r="L165" s="64"/>
-      <c r="M165" s="64"/>
-      <c r="N165" s="64"/>
-      <c r="O165" s="64"/>
+      <c r="B165" s="60"/>
+      <c r="C165" s="60"/>
+      <c r="D165" s="60"/>
+      <c r="E165" s="60"/>
+      <c r="F165" s="60"/>
+      <c r="G165" s="60"/>
+      <c r="H165" s="60"/>
+      <c r="I165" s="60"/>
+      <c r="J165" s="60"/>
+      <c r="K165" s="60"/>
+      <c r="L165" s="60"/>
+      <c r="M165" s="60"/>
+      <c r="N165" s="60"/>
+      <c r="O165" s="60"/>
       <c r="S165" s="51">
         <v>43714</v>
       </c>
@@ -49640,20 +49590,20 @@
       </c>
     </row>
     <row r="166" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B166" s="64"/>
-      <c r="C166" s="64"/>
-      <c r="D166" s="64"/>
-      <c r="E166" s="64"/>
-      <c r="F166" s="64"/>
-      <c r="G166" s="64"/>
-      <c r="H166" s="64"/>
-      <c r="I166" s="64"/>
-      <c r="J166" s="64"/>
-      <c r="K166" s="64"/>
-      <c r="L166" s="64"/>
-      <c r="M166" s="64"/>
-      <c r="N166" s="64"/>
-      <c r="O166" s="64"/>
+      <c r="B166" s="60"/>
+      <c r="C166" s="60"/>
+      <c r="D166" s="60"/>
+      <c r="E166" s="60"/>
+      <c r="F166" s="60"/>
+      <c r="G166" s="60"/>
+      <c r="H166" s="60"/>
+      <c r="I166" s="60"/>
+      <c r="J166" s="60"/>
+      <c r="K166" s="60"/>
+      <c r="L166" s="60"/>
+      <c r="M166" s="60"/>
+      <c r="N166" s="60"/>
+      <c r="O166" s="60"/>
       <c r="S166" s="51">
         <v>43714</v>
       </c>
@@ -49791,20 +49741,20 @@
       </c>
     </row>
     <row r="167" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B167" s="64"/>
-      <c r="C167" s="64"/>
-      <c r="D167" s="64"/>
-      <c r="E167" s="64"/>
-      <c r="F167" s="64"/>
-      <c r="G167" s="64"/>
-      <c r="H167" s="64"/>
-      <c r="I167" s="64"/>
-      <c r="J167" s="64"/>
-      <c r="K167" s="64"/>
-      <c r="L167" s="64"/>
-      <c r="M167" s="64"/>
-      <c r="N167" s="64"/>
-      <c r="O167" s="64"/>
+      <c r="B167" s="60"/>
+      <c r="C167" s="60"/>
+      <c r="D167" s="60"/>
+      <c r="E167" s="60"/>
+      <c r="F167" s="60"/>
+      <c r="G167" s="60"/>
+      <c r="H167" s="60"/>
+      <c r="I167" s="60"/>
+      <c r="J167" s="60"/>
+      <c r="K167" s="60"/>
+      <c r="L167" s="60"/>
+      <c r="M167" s="60"/>
+      <c r="N167" s="60"/>
+      <c r="O167" s="60"/>
       <c r="S167" s="51">
         <v>43714</v>
       </c>
@@ -49942,20 +49892,20 @@
       </c>
     </row>
     <row r="168" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B168" s="64"/>
-      <c r="C168" s="64"/>
-      <c r="D168" s="64"/>
-      <c r="E168" s="64"/>
-      <c r="F168" s="64"/>
-      <c r="G168" s="64"/>
-      <c r="H168" s="64"/>
-      <c r="I168" s="64"/>
-      <c r="J168" s="64"/>
-      <c r="K168" s="64"/>
-      <c r="L168" s="64"/>
-      <c r="M168" s="64"/>
-      <c r="N168" s="64"/>
-      <c r="O168" s="64"/>
+      <c r="B168" s="60"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="60"/>
+      <c r="E168" s="60"/>
+      <c r="F168" s="60"/>
+      <c r="G168" s="60"/>
+      <c r="H168" s="60"/>
+      <c r="I168" s="60"/>
+      <c r="J168" s="60"/>
+      <c r="K168" s="60"/>
+      <c r="L168" s="60"/>
+      <c r="M168" s="60"/>
+      <c r="N168" s="60"/>
+      <c r="O168" s="60"/>
       <c r="S168" s="51">
         <v>43714</v>
       </c>
@@ -50093,20 +50043,20 @@
       </c>
     </row>
     <row r="169" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B169" s="64"/>
-      <c r="C169" s="64"/>
-      <c r="D169" s="64"/>
-      <c r="E169" s="64"/>
-      <c r="F169" s="64"/>
-      <c r="G169" s="64"/>
-      <c r="H169" s="64"/>
-      <c r="I169" s="64"/>
-      <c r="J169" s="64"/>
-      <c r="K169" s="64"/>
-      <c r="L169" s="64"/>
-      <c r="M169" s="64"/>
-      <c r="N169" s="64"/>
-      <c r="O169" s="64"/>
+      <c r="B169" s="60"/>
+      <c r="C169" s="60"/>
+      <c r="D169" s="60"/>
+      <c r="E169" s="60"/>
+      <c r="F169" s="60"/>
+      <c r="G169" s="60"/>
+      <c r="H169" s="60"/>
+      <c r="I169" s="60"/>
+      <c r="J169" s="60"/>
+      <c r="K169" s="60"/>
+      <c r="L169" s="60"/>
+      <c r="M169" s="60"/>
+      <c r="N169" s="60"/>
+      <c r="O169" s="60"/>
       <c r="S169" s="51">
         <v>43714</v>
       </c>
@@ -50244,20 +50194,20 @@
       </c>
     </row>
     <row r="170" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B170" s="64"/>
-      <c r="C170" s="64"/>
-      <c r="D170" s="64"/>
-      <c r="E170" s="64"/>
-      <c r="F170" s="64"/>
-      <c r="G170" s="64"/>
-      <c r="H170" s="64"/>
-      <c r="I170" s="64"/>
-      <c r="J170" s="64"/>
-      <c r="K170" s="64"/>
-      <c r="L170" s="64"/>
-      <c r="M170" s="64"/>
-      <c r="N170" s="64"/>
-      <c r="O170" s="64"/>
+      <c r="B170" s="60"/>
+      <c r="C170" s="60"/>
+      <c r="D170" s="60"/>
+      <c r="E170" s="60"/>
+      <c r="F170" s="60"/>
+      <c r="G170" s="60"/>
+      <c r="H170" s="60"/>
+      <c r="I170" s="60"/>
+      <c r="J170" s="60"/>
+      <c r="K170" s="60"/>
+      <c r="L170" s="60"/>
+      <c r="M170" s="60"/>
+      <c r="N170" s="60"/>
+      <c r="O170" s="60"/>
       <c r="S170" s="51">
         <v>43714</v>
       </c>
@@ -50395,20 +50345,20 @@
       </c>
     </row>
     <row r="171" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B171" s="64"/>
-      <c r="C171" s="64"/>
-      <c r="D171" s="64"/>
-      <c r="E171" s="64"/>
-      <c r="F171" s="64"/>
-      <c r="G171" s="64"/>
-      <c r="H171" s="64"/>
-      <c r="I171" s="64"/>
-      <c r="J171" s="64"/>
-      <c r="K171" s="64"/>
-      <c r="L171" s="64"/>
-      <c r="M171" s="64"/>
-      <c r="N171" s="64"/>
-      <c r="O171" s="64"/>
+      <c r="B171" s="60"/>
+      <c r="C171" s="60"/>
+      <c r="D171" s="60"/>
+      <c r="E171" s="60"/>
+      <c r="F171" s="60"/>
+      <c r="G171" s="60"/>
+      <c r="H171" s="60"/>
+      <c r="I171" s="60"/>
+      <c r="J171" s="60"/>
+      <c r="K171" s="60"/>
+      <c r="L171" s="60"/>
+      <c r="M171" s="60"/>
+      <c r="N171" s="60"/>
+      <c r="O171" s="60"/>
       <c r="S171" s="51">
         <v>43714</v>
       </c>
@@ -50546,20 +50496,20 @@
       </c>
     </row>
     <row r="172" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B172" s="64"/>
-      <c r="C172" s="64"/>
-      <c r="D172" s="64"/>
-      <c r="E172" s="64"/>
-      <c r="F172" s="64"/>
-      <c r="G172" s="64"/>
-      <c r="H172" s="64"/>
-      <c r="I172" s="64"/>
-      <c r="J172" s="64"/>
-      <c r="K172" s="64"/>
-      <c r="L172" s="64"/>
-      <c r="M172" s="64"/>
-      <c r="N172" s="64"/>
-      <c r="O172" s="64"/>
+      <c r="B172" s="60"/>
+      <c r="C172" s="60"/>
+      <c r="D172" s="60"/>
+      <c r="E172" s="60"/>
+      <c r="F172" s="60"/>
+      <c r="G172" s="60"/>
+      <c r="H172" s="60"/>
+      <c r="I172" s="60"/>
+      <c r="J172" s="60"/>
+      <c r="K172" s="60"/>
+      <c r="L172" s="60"/>
+      <c r="M172" s="60"/>
+      <c r="N172" s="60"/>
+      <c r="O172" s="60"/>
       <c r="S172" s="51">
         <v>43714</v>
       </c>
@@ -50697,20 +50647,20 @@
       </c>
     </row>
     <row r="173" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B173" s="64"/>
-      <c r="C173" s="64"/>
-      <c r="D173" s="64"/>
-      <c r="E173" s="64"/>
-      <c r="F173" s="64"/>
-      <c r="G173" s="64"/>
-      <c r="H173" s="64"/>
-      <c r="I173" s="64"/>
-      <c r="J173" s="64"/>
-      <c r="K173" s="64"/>
-      <c r="L173" s="64"/>
-      <c r="M173" s="64"/>
-      <c r="N173" s="64"/>
-      <c r="O173" s="64"/>
+      <c r="B173" s="60"/>
+      <c r="C173" s="60"/>
+      <c r="D173" s="60"/>
+      <c r="E173" s="60"/>
+      <c r="F173" s="60"/>
+      <c r="G173" s="60"/>
+      <c r="H173" s="60"/>
+      <c r="I173" s="60"/>
+      <c r="J173" s="60"/>
+      <c r="K173" s="60"/>
+      <c r="L173" s="60"/>
+      <c r="M173" s="60"/>
+      <c r="N173" s="60"/>
+      <c r="O173" s="60"/>
       <c r="S173" s="51">
         <v>43714</v>
       </c>
@@ -50848,20 +50798,20 @@
       </c>
     </row>
     <row r="174" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B174" s="64"/>
-      <c r="C174" s="64"/>
-      <c r="D174" s="64"/>
-      <c r="E174" s="64"/>
-      <c r="F174" s="64"/>
-      <c r="G174" s="64"/>
-      <c r="H174" s="64"/>
-      <c r="I174" s="64"/>
-      <c r="J174" s="64"/>
-      <c r="K174" s="64"/>
-      <c r="L174" s="64"/>
-      <c r="M174" s="64"/>
-      <c r="N174" s="64"/>
-      <c r="O174" s="64"/>
+      <c r="B174" s="60"/>
+      <c r="C174" s="60"/>
+      <c r="D174" s="60"/>
+      <c r="E174" s="60"/>
+      <c r="F174" s="60"/>
+      <c r="G174" s="60"/>
+      <c r="H174" s="60"/>
+      <c r="I174" s="60"/>
+      <c r="J174" s="60"/>
+      <c r="K174" s="60"/>
+      <c r="L174" s="60"/>
+      <c r="M174" s="60"/>
+      <c r="N174" s="60"/>
+      <c r="O174" s="60"/>
       <c r="S174" s="51">
         <v>43714</v>
       </c>
@@ -50999,20 +50949,20 @@
       </c>
     </row>
     <row r="175" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B175" s="64"/>
-      <c r="C175" s="64"/>
-      <c r="D175" s="64"/>
-      <c r="E175" s="64"/>
-      <c r="F175" s="64"/>
-      <c r="G175" s="64"/>
-      <c r="H175" s="64"/>
-      <c r="I175" s="64"/>
-      <c r="J175" s="64"/>
-      <c r="K175" s="64"/>
-      <c r="L175" s="64"/>
-      <c r="M175" s="64"/>
-      <c r="N175" s="64"/>
-      <c r="O175" s="64"/>
+      <c r="B175" s="60"/>
+      <c r="C175" s="60"/>
+      <c r="D175" s="60"/>
+      <c r="E175" s="60"/>
+      <c r="F175" s="60"/>
+      <c r="G175" s="60"/>
+      <c r="H175" s="60"/>
+      <c r="I175" s="60"/>
+      <c r="J175" s="60"/>
+      <c r="K175" s="60"/>
+      <c r="L175" s="60"/>
+      <c r="M175" s="60"/>
+      <c r="N175" s="60"/>
+      <c r="O175" s="60"/>
       <c r="S175" s="51">
         <v>43714</v>
       </c>
@@ -51150,20 +51100,20 @@
       </c>
     </row>
     <row r="176" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B176" s="64"/>
-      <c r="C176" s="64"/>
-      <c r="D176" s="64"/>
-      <c r="E176" s="64"/>
-      <c r="F176" s="64"/>
-      <c r="G176" s="64"/>
-      <c r="H176" s="64"/>
-      <c r="I176" s="64"/>
-      <c r="J176" s="64"/>
-      <c r="K176" s="64"/>
-      <c r="L176" s="64"/>
-      <c r="M176" s="64"/>
-      <c r="N176" s="64"/>
-      <c r="O176" s="64"/>
+      <c r="B176" s="60"/>
+      <c r="C176" s="60"/>
+      <c r="D176" s="60"/>
+      <c r="E176" s="60"/>
+      <c r="F176" s="60"/>
+      <c r="G176" s="60"/>
+      <c r="H176" s="60"/>
+      <c r="I176" s="60"/>
+      <c r="J176" s="60"/>
+      <c r="K176" s="60"/>
+      <c r="L176" s="60"/>
+      <c r="M176" s="60"/>
+      <c r="N176" s="60"/>
+      <c r="O176" s="60"/>
       <c r="S176" s="51">
         <v>43714</v>
       </c>
@@ -51301,20 +51251,20 @@
       </c>
     </row>
     <row r="177" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B177" s="64"/>
-      <c r="C177" s="64"/>
-      <c r="D177" s="64"/>
-      <c r="E177" s="64"/>
-      <c r="F177" s="64"/>
-      <c r="G177" s="64"/>
-      <c r="H177" s="64"/>
-      <c r="I177" s="64"/>
-      <c r="J177" s="64"/>
-      <c r="K177" s="64"/>
-      <c r="L177" s="64"/>
-      <c r="M177" s="64"/>
-      <c r="N177" s="64"/>
-      <c r="O177" s="64"/>
+      <c r="B177" s="60"/>
+      <c r="C177" s="60"/>
+      <c r="D177" s="60"/>
+      <c r="E177" s="60"/>
+      <c r="F177" s="60"/>
+      <c r="G177" s="60"/>
+      <c r="H177" s="60"/>
+      <c r="I177" s="60"/>
+      <c r="J177" s="60"/>
+      <c r="K177" s="60"/>
+      <c r="L177" s="60"/>
+      <c r="M177" s="60"/>
+      <c r="N177" s="60"/>
+      <c r="O177" s="60"/>
       <c r="S177" s="51">
         <v>43714</v>
       </c>
@@ -51452,20 +51402,20 @@
       </c>
     </row>
     <row r="178" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B178" s="64"/>
-      <c r="C178" s="64"/>
-      <c r="D178" s="64"/>
-      <c r="E178" s="64"/>
-      <c r="F178" s="64"/>
-      <c r="G178" s="64"/>
-      <c r="H178" s="64"/>
-      <c r="I178" s="64"/>
-      <c r="J178" s="64"/>
-      <c r="K178" s="64"/>
-      <c r="L178" s="64"/>
-      <c r="M178" s="64"/>
-      <c r="N178" s="64"/>
-      <c r="O178" s="64"/>
+      <c r="B178" s="60"/>
+      <c r="C178" s="60"/>
+      <c r="D178" s="60"/>
+      <c r="E178" s="60"/>
+      <c r="F178" s="60"/>
+      <c r="G178" s="60"/>
+      <c r="H178" s="60"/>
+      <c r="I178" s="60"/>
+      <c r="J178" s="60"/>
+      <c r="K178" s="60"/>
+      <c r="L178" s="60"/>
+      <c r="M178" s="60"/>
+      <c r="N178" s="60"/>
+      <c r="O178" s="60"/>
       <c r="S178" s="51">
         <v>43714</v>
       </c>
@@ -51603,20 +51553,20 @@
       </c>
     </row>
     <row r="179" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B179" s="64"/>
-      <c r="C179" s="64"/>
-      <c r="D179" s="64"/>
-      <c r="E179" s="64"/>
-      <c r="F179" s="64"/>
-      <c r="G179" s="64"/>
-      <c r="H179" s="64"/>
-      <c r="I179" s="64"/>
-      <c r="J179" s="64"/>
-      <c r="K179" s="64"/>
-      <c r="L179" s="64"/>
-      <c r="M179" s="64"/>
-      <c r="N179" s="64"/>
-      <c r="O179" s="64"/>
+      <c r="B179" s="60"/>
+      <c r="C179" s="60"/>
+      <c r="D179" s="60"/>
+      <c r="E179" s="60"/>
+      <c r="F179" s="60"/>
+      <c r="G179" s="60"/>
+      <c r="H179" s="60"/>
+      <c r="I179" s="60"/>
+      <c r="J179" s="60"/>
+      <c r="K179" s="60"/>
+      <c r="L179" s="60"/>
+      <c r="M179" s="60"/>
+      <c r="N179" s="60"/>
+      <c r="O179" s="60"/>
       <c r="S179" s="51">
         <v>43714</v>
       </c>
@@ -51754,20 +51704,20 @@
       </c>
     </row>
     <row r="180" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B180" s="64"/>
-      <c r="C180" s="64"/>
-      <c r="D180" s="64"/>
-      <c r="E180" s="64"/>
-      <c r="F180" s="64"/>
-      <c r="G180" s="64"/>
-      <c r="H180" s="64"/>
-      <c r="I180" s="64"/>
-      <c r="J180" s="64"/>
-      <c r="K180" s="64"/>
-      <c r="L180" s="64"/>
-      <c r="M180" s="64"/>
-      <c r="N180" s="64"/>
-      <c r="O180" s="64"/>
+      <c r="B180" s="60"/>
+      <c r="C180" s="60"/>
+      <c r="D180" s="60"/>
+      <c r="E180" s="60"/>
+      <c r="F180" s="60"/>
+      <c r="G180" s="60"/>
+      <c r="H180" s="60"/>
+      <c r="I180" s="60"/>
+      <c r="J180" s="60"/>
+      <c r="K180" s="60"/>
+      <c r="L180" s="60"/>
+      <c r="M180" s="60"/>
+      <c r="N180" s="60"/>
+      <c r="O180" s="60"/>
       <c r="S180" s="51">
         <v>43714</v>
       </c>
@@ -51905,20 +51855,20 @@
       </c>
     </row>
     <row r="181" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B181" s="64"/>
-      <c r="C181" s="64"/>
-      <c r="D181" s="64"/>
-      <c r="E181" s="64"/>
-      <c r="F181" s="64"/>
-      <c r="G181" s="64"/>
-      <c r="H181" s="64"/>
-      <c r="I181" s="64"/>
-      <c r="J181" s="64"/>
-      <c r="K181" s="64"/>
-      <c r="L181" s="64"/>
-      <c r="M181" s="64"/>
-      <c r="N181" s="64"/>
-      <c r="O181" s="64"/>
+      <c r="B181" s="60"/>
+      <c r="C181" s="60"/>
+      <c r="D181" s="60"/>
+      <c r="E181" s="60"/>
+      <c r="F181" s="60"/>
+      <c r="G181" s="60"/>
+      <c r="H181" s="60"/>
+      <c r="I181" s="60"/>
+      <c r="J181" s="60"/>
+      <c r="K181" s="60"/>
+      <c r="L181" s="60"/>
+      <c r="M181" s="60"/>
+      <c r="N181" s="60"/>
+      <c r="O181" s="60"/>
       <c r="S181" s="51">
         <v>43714</v>
       </c>
@@ -52056,20 +52006,20 @@
       </c>
     </row>
     <row r="182" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B182" s="64"/>
-      <c r="C182" s="64"/>
-      <c r="D182" s="64"/>
-      <c r="E182" s="64"/>
-      <c r="F182" s="64"/>
-      <c r="G182" s="64"/>
-      <c r="H182" s="64"/>
-      <c r="I182" s="64"/>
-      <c r="J182" s="64"/>
-      <c r="K182" s="64"/>
-      <c r="L182" s="64"/>
-      <c r="M182" s="64"/>
-      <c r="N182" s="64"/>
-      <c r="O182" s="64"/>
+      <c r="B182" s="60"/>
+      <c r="C182" s="60"/>
+      <c r="D182" s="60"/>
+      <c r="E182" s="60"/>
+      <c r="F182" s="60"/>
+      <c r="G182" s="60"/>
+      <c r="H182" s="60"/>
+      <c r="I182" s="60"/>
+      <c r="J182" s="60"/>
+      <c r="K182" s="60"/>
+      <c r="L182" s="60"/>
+      <c r="M182" s="60"/>
+      <c r="N182" s="60"/>
+      <c r="O182" s="60"/>
       <c r="S182" s="51">
         <v>43714</v>
       </c>
@@ -52207,20 +52157,20 @@
       </c>
     </row>
     <row r="183" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B183" s="64"/>
-      <c r="C183" s="64"/>
-      <c r="D183" s="64"/>
-      <c r="E183" s="64"/>
-      <c r="F183" s="64"/>
-      <c r="G183" s="64"/>
-      <c r="H183" s="64"/>
-      <c r="I183" s="64"/>
-      <c r="J183" s="64"/>
-      <c r="K183" s="64"/>
-      <c r="L183" s="64"/>
-      <c r="M183" s="64"/>
-      <c r="N183" s="64"/>
-      <c r="O183" s="64"/>
+      <c r="B183" s="60"/>
+      <c r="C183" s="60"/>
+      <c r="D183" s="60"/>
+      <c r="E183" s="60"/>
+      <c r="F183" s="60"/>
+      <c r="G183" s="60"/>
+      <c r="H183" s="60"/>
+      <c r="I183" s="60"/>
+      <c r="J183" s="60"/>
+      <c r="K183" s="60"/>
+      <c r="L183" s="60"/>
+      <c r="M183" s="60"/>
+      <c r="N183" s="60"/>
+      <c r="O183" s="60"/>
       <c r="S183" s="51">
         <v>43714</v>
       </c>
@@ -52358,20 +52308,20 @@
       </c>
     </row>
     <row r="184" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B184" s="64"/>
-      <c r="C184" s="64"/>
-      <c r="D184" s="64"/>
-      <c r="E184" s="64"/>
-      <c r="F184" s="64"/>
-      <c r="G184" s="64"/>
-      <c r="H184" s="64"/>
-      <c r="I184" s="64"/>
-      <c r="J184" s="64"/>
-      <c r="K184" s="64"/>
-      <c r="L184" s="64"/>
-      <c r="M184" s="64"/>
-      <c r="N184" s="64"/>
-      <c r="O184" s="64"/>
+      <c r="B184" s="60"/>
+      <c r="C184" s="60"/>
+      <c r="D184" s="60"/>
+      <c r="E184" s="60"/>
+      <c r="F184" s="60"/>
+      <c r="G184" s="60"/>
+      <c r="H184" s="60"/>
+      <c r="I184" s="60"/>
+      <c r="J184" s="60"/>
+      <c r="K184" s="60"/>
+      <c r="L184" s="60"/>
+      <c r="M184" s="60"/>
+      <c r="N184" s="60"/>
+      <c r="O184" s="60"/>
       <c r="S184" s="51">
         <v>43714</v>
       </c>
@@ -52509,20 +52459,20 @@
       </c>
     </row>
     <row r="185" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B185" s="64"/>
-      <c r="C185" s="64"/>
-      <c r="D185" s="64"/>
-      <c r="E185" s="64"/>
-      <c r="F185" s="64"/>
-      <c r="G185" s="64"/>
-      <c r="H185" s="64"/>
-      <c r="I185" s="64"/>
-      <c r="J185" s="64"/>
-      <c r="K185" s="64"/>
-      <c r="L185" s="64"/>
-      <c r="M185" s="64"/>
-      <c r="N185" s="64"/>
-      <c r="O185" s="64"/>
+      <c r="B185" s="60"/>
+      <c r="C185" s="60"/>
+      <c r="D185" s="60"/>
+      <c r="E185" s="60"/>
+      <c r="F185" s="60"/>
+      <c r="G185" s="60"/>
+      <c r="H185" s="60"/>
+      <c r="I185" s="60"/>
+      <c r="J185" s="60"/>
+      <c r="K185" s="60"/>
+      <c r="L185" s="60"/>
+      <c r="M185" s="60"/>
+      <c r="N185" s="60"/>
+      <c r="O185" s="60"/>
       <c r="S185" s="51">
         <v>43714</v>
       </c>
@@ -52660,20 +52610,20 @@
       </c>
     </row>
     <row r="186" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B186" s="64"/>
-      <c r="C186" s="64"/>
-      <c r="D186" s="64"/>
-      <c r="E186" s="64"/>
-      <c r="F186" s="64"/>
-      <c r="G186" s="64"/>
-      <c r="H186" s="64"/>
-      <c r="I186" s="64"/>
-      <c r="J186" s="64"/>
-      <c r="K186" s="64"/>
-      <c r="L186" s="64"/>
-      <c r="M186" s="64"/>
-      <c r="N186" s="64"/>
-      <c r="O186" s="64"/>
+      <c r="B186" s="60"/>
+      <c r="C186" s="60"/>
+      <c r="D186" s="60"/>
+      <c r="E186" s="60"/>
+      <c r="F186" s="60"/>
+      <c r="G186" s="60"/>
+      <c r="H186" s="60"/>
+      <c r="I186" s="60"/>
+      <c r="J186" s="60"/>
+      <c r="K186" s="60"/>
+      <c r="L186" s="60"/>
+      <c r="M186" s="60"/>
+      <c r="N186" s="60"/>
+      <c r="O186" s="60"/>
       <c r="S186" s="51">
         <v>43714</v>
       </c>
@@ -52811,20 +52761,20 @@
       </c>
     </row>
     <row r="187" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B187" s="64"/>
-      <c r="C187" s="64"/>
-      <c r="D187" s="64"/>
-      <c r="E187" s="64"/>
-      <c r="F187" s="64"/>
-      <c r="G187" s="64"/>
-      <c r="H187" s="64"/>
-      <c r="I187" s="64"/>
-      <c r="J187" s="64"/>
-      <c r="K187" s="64"/>
-      <c r="L187" s="64"/>
-      <c r="M187" s="64"/>
-      <c r="N187" s="64"/>
-      <c r="O187" s="64"/>
+      <c r="B187" s="60"/>
+      <c r="C187" s="60"/>
+      <c r="D187" s="60"/>
+      <c r="E187" s="60"/>
+      <c r="F187" s="60"/>
+      <c r="G187" s="60"/>
+      <c r="H187" s="60"/>
+      <c r="I187" s="60"/>
+      <c r="J187" s="60"/>
+      <c r="K187" s="60"/>
+      <c r="L187" s="60"/>
+      <c r="M187" s="60"/>
+      <c r="N187" s="60"/>
+      <c r="O187" s="60"/>
       <c r="S187" s="51">
         <v>43714</v>
       </c>
@@ -52962,20 +52912,20 @@
       </c>
     </row>
     <row r="188" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B188" s="64"/>
-      <c r="C188" s="64"/>
-      <c r="D188" s="64"/>
-      <c r="E188" s="64"/>
-      <c r="F188" s="64"/>
-      <c r="G188" s="64"/>
-      <c r="H188" s="64"/>
-      <c r="I188" s="64"/>
-      <c r="J188" s="64"/>
-      <c r="K188" s="64"/>
-      <c r="L188" s="64"/>
-      <c r="M188" s="64"/>
-      <c r="N188" s="64"/>
-      <c r="O188" s="64"/>
+      <c r="B188" s="60"/>
+      <c r="C188" s="60"/>
+      <c r="D188" s="60"/>
+      <c r="E188" s="60"/>
+      <c r="F188" s="60"/>
+      <c r="G188" s="60"/>
+      <c r="H188" s="60"/>
+      <c r="I188" s="60"/>
+      <c r="J188" s="60"/>
+      <c r="K188" s="60"/>
+      <c r="L188" s="60"/>
+      <c r="M188" s="60"/>
+      <c r="N188" s="60"/>
+      <c r="O188" s="60"/>
       <c r="S188" s="51">
         <v>43714</v>
       </c>
@@ -53113,20 +53063,20 @@
       </c>
     </row>
     <row r="189" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B189" s="64"/>
-      <c r="C189" s="64"/>
-      <c r="D189" s="64"/>
-      <c r="E189" s="64"/>
-      <c r="F189" s="64"/>
-      <c r="G189" s="64"/>
-      <c r="H189" s="64"/>
-      <c r="I189" s="64"/>
-      <c r="J189" s="64"/>
-      <c r="K189" s="64"/>
-      <c r="L189" s="64"/>
-      <c r="M189" s="64"/>
-      <c r="N189" s="64"/>
-      <c r="O189" s="64"/>
+      <c r="B189" s="60"/>
+      <c r="C189" s="60"/>
+      <c r="D189" s="60"/>
+      <c r="E189" s="60"/>
+      <c r="F189" s="60"/>
+      <c r="G189" s="60"/>
+      <c r="H189" s="60"/>
+      <c r="I189" s="60"/>
+      <c r="J189" s="60"/>
+      <c r="K189" s="60"/>
+      <c r="L189" s="60"/>
+      <c r="M189" s="60"/>
+      <c r="N189" s="60"/>
+      <c r="O189" s="60"/>
       <c r="S189" s="51">
         <v>43714</v>
       </c>
@@ -53264,20 +53214,20 @@
       </c>
     </row>
     <row r="190" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B190" s="64"/>
-      <c r="C190" s="64"/>
-      <c r="D190" s="64"/>
-      <c r="E190" s="64"/>
-      <c r="F190" s="64"/>
-      <c r="G190" s="64"/>
-      <c r="H190" s="64"/>
-      <c r="I190" s="64"/>
-      <c r="J190" s="64"/>
-      <c r="K190" s="64"/>
-      <c r="L190" s="64"/>
-      <c r="M190" s="64"/>
-      <c r="N190" s="64"/>
-      <c r="O190" s="64"/>
+      <c r="B190" s="60"/>
+      <c r="C190" s="60"/>
+      <c r="D190" s="60"/>
+      <c r="E190" s="60"/>
+      <c r="F190" s="60"/>
+      <c r="G190" s="60"/>
+      <c r="H190" s="60"/>
+      <c r="I190" s="60"/>
+      <c r="J190" s="60"/>
+      <c r="K190" s="60"/>
+      <c r="L190" s="60"/>
+      <c r="M190" s="60"/>
+      <c r="N190" s="60"/>
+      <c r="O190" s="60"/>
       <c r="S190" s="51">
         <v>43714</v>
       </c>
@@ -53415,20 +53365,20 @@
       </c>
     </row>
     <row r="191" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B191" s="64"/>
-      <c r="C191" s="64"/>
-      <c r="D191" s="64"/>
-      <c r="E191" s="64"/>
-      <c r="F191" s="64"/>
-      <c r="G191" s="64"/>
-      <c r="H191" s="64"/>
-      <c r="I191" s="64"/>
-      <c r="J191" s="64"/>
-      <c r="K191" s="64"/>
-      <c r="L191" s="64"/>
-      <c r="M191" s="64"/>
-      <c r="N191" s="64"/>
-      <c r="O191" s="64"/>
+      <c r="B191" s="60"/>
+      <c r="C191" s="60"/>
+      <c r="D191" s="60"/>
+      <c r="E191" s="60"/>
+      <c r="F191" s="60"/>
+      <c r="G191" s="60"/>
+      <c r="H191" s="60"/>
+      <c r="I191" s="60"/>
+      <c r="J191" s="60"/>
+      <c r="K191" s="60"/>
+      <c r="L191" s="60"/>
+      <c r="M191" s="60"/>
+      <c r="N191" s="60"/>
+      <c r="O191" s="60"/>
       <c r="S191" s="51">
         <v>43714</v>
       </c>
@@ -53566,20 +53516,20 @@
       </c>
     </row>
     <row r="192" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B192" s="64"/>
-      <c r="C192" s="64"/>
-      <c r="D192" s="64"/>
-      <c r="E192" s="64"/>
-      <c r="F192" s="64"/>
-      <c r="G192" s="64"/>
-      <c r="H192" s="64"/>
-      <c r="I192" s="64"/>
-      <c r="J192" s="64"/>
-      <c r="K192" s="64"/>
-      <c r="L192" s="64"/>
-      <c r="M192" s="64"/>
-      <c r="N192" s="64"/>
-      <c r="O192" s="64"/>
+      <c r="B192" s="60"/>
+      <c r="C192" s="60"/>
+      <c r="D192" s="60"/>
+      <c r="E192" s="60"/>
+      <c r="F192" s="60"/>
+      <c r="G192" s="60"/>
+      <c r="H192" s="60"/>
+      <c r="I192" s="60"/>
+      <c r="J192" s="60"/>
+      <c r="K192" s="60"/>
+      <c r="L192" s="60"/>
+      <c r="M192" s="60"/>
+      <c r="N192" s="60"/>
+      <c r="O192" s="60"/>
       <c r="S192" s="51">
         <v>43714</v>
       </c>
@@ -53717,20 +53667,20 @@
       </c>
     </row>
     <row r="193" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B193" s="64"/>
-      <c r="C193" s="64"/>
-      <c r="D193" s="64"/>
-      <c r="E193" s="64"/>
-      <c r="F193" s="64"/>
-      <c r="G193" s="64"/>
-      <c r="H193" s="64"/>
-      <c r="I193" s="64"/>
-      <c r="J193" s="64"/>
-      <c r="K193" s="64"/>
-      <c r="L193" s="64"/>
-      <c r="M193" s="64"/>
-      <c r="N193" s="64"/>
-      <c r="O193" s="64"/>
+      <c r="B193" s="60"/>
+      <c r="C193" s="60"/>
+      <c r="D193" s="60"/>
+      <c r="E193" s="60"/>
+      <c r="F193" s="60"/>
+      <c r="G193" s="60"/>
+      <c r="H193" s="60"/>
+      <c r="I193" s="60"/>
+      <c r="J193" s="60"/>
+      <c r="K193" s="60"/>
+      <c r="L193" s="60"/>
+      <c r="M193" s="60"/>
+      <c r="N193" s="60"/>
+      <c r="O193" s="60"/>
       <c r="S193" s="51">
         <v>43714</v>
       </c>
@@ -53868,20 +53818,20 @@
       </c>
     </row>
     <row r="194" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B194" s="64"/>
-      <c r="C194" s="64"/>
-      <c r="D194" s="64"/>
-      <c r="E194" s="64"/>
-      <c r="F194" s="64"/>
-      <c r="G194" s="64"/>
-      <c r="H194" s="64"/>
-      <c r="I194" s="64"/>
-      <c r="J194" s="64"/>
-      <c r="K194" s="64"/>
-      <c r="L194" s="64"/>
-      <c r="M194" s="64"/>
-      <c r="N194" s="64"/>
-      <c r="O194" s="64"/>
+      <c r="B194" s="60"/>
+      <c r="C194" s="60"/>
+      <c r="D194" s="60"/>
+      <c r="E194" s="60"/>
+      <c r="F194" s="60"/>
+      <c r="G194" s="60"/>
+      <c r="H194" s="60"/>
+      <c r="I194" s="60"/>
+      <c r="J194" s="60"/>
+      <c r="K194" s="60"/>
+      <c r="L194" s="60"/>
+      <c r="M194" s="60"/>
+      <c r="N194" s="60"/>
+      <c r="O194" s="60"/>
       <c r="S194" s="51">
         <v>43714</v>
       </c>
@@ -54019,20 +53969,20 @@
       </c>
     </row>
     <row r="195" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B195" s="64"/>
-      <c r="C195" s="64"/>
-      <c r="D195" s="64"/>
-      <c r="E195" s="64"/>
-      <c r="F195" s="64"/>
-      <c r="G195" s="64"/>
-      <c r="H195" s="64"/>
-      <c r="I195" s="64"/>
-      <c r="J195" s="64"/>
-      <c r="K195" s="64"/>
-      <c r="L195" s="64"/>
-      <c r="M195" s="64"/>
-      <c r="N195" s="64"/>
-      <c r="O195" s="64"/>
+      <c r="B195" s="60"/>
+      <c r="C195" s="60"/>
+      <c r="D195" s="60"/>
+      <c r="E195" s="60"/>
+      <c r="F195" s="60"/>
+      <c r="G195" s="60"/>
+      <c r="H195" s="60"/>
+      <c r="I195" s="60"/>
+      <c r="J195" s="60"/>
+      <c r="K195" s="60"/>
+      <c r="L195" s="60"/>
+      <c r="M195" s="60"/>
+      <c r="N195" s="60"/>
+      <c r="O195" s="60"/>
       <c r="S195" s="51">
         <v>43714</v>
       </c>
@@ -54170,20 +54120,20 @@
       </c>
     </row>
     <row r="196" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B196" s="64"/>
-      <c r="C196" s="64"/>
-      <c r="D196" s="64"/>
-      <c r="E196" s="64"/>
-      <c r="F196" s="64"/>
-      <c r="G196" s="64"/>
-      <c r="H196" s="64"/>
-      <c r="I196" s="64"/>
-      <c r="J196" s="64"/>
-      <c r="K196" s="64"/>
-      <c r="L196" s="64"/>
-      <c r="M196" s="64"/>
-      <c r="N196" s="64"/>
-      <c r="O196" s="64"/>
+      <c r="B196" s="60"/>
+      <c r="C196" s="60"/>
+      <c r="D196" s="60"/>
+      <c r="E196" s="60"/>
+      <c r="F196" s="60"/>
+      <c r="G196" s="60"/>
+      <c r="H196" s="60"/>
+      <c r="I196" s="60"/>
+      <c r="J196" s="60"/>
+      <c r="K196" s="60"/>
+      <c r="L196" s="60"/>
+      <c r="M196" s="60"/>
+      <c r="N196" s="60"/>
+      <c r="O196" s="60"/>
       <c r="S196" s="51">
         <v>43714</v>
       </c>
@@ -54321,20 +54271,20 @@
       </c>
     </row>
     <row r="197" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B197" s="64"/>
-      <c r="C197" s="64"/>
-      <c r="D197" s="64"/>
-      <c r="E197" s="64"/>
-      <c r="F197" s="64"/>
-      <c r="G197" s="64"/>
-      <c r="H197" s="64"/>
-      <c r="I197" s="64"/>
-      <c r="J197" s="64"/>
-      <c r="K197" s="64"/>
-      <c r="L197" s="64"/>
-      <c r="M197" s="64"/>
-      <c r="N197" s="64"/>
-      <c r="O197" s="64"/>
+      <c r="B197" s="60"/>
+      <c r="C197" s="60"/>
+      <c r="D197" s="60"/>
+      <c r="E197" s="60"/>
+      <c r="F197" s="60"/>
+      <c r="G197" s="60"/>
+      <c r="H197" s="60"/>
+      <c r="I197" s="60"/>
+      <c r="J197" s="60"/>
+      <c r="K197" s="60"/>
+      <c r="L197" s="60"/>
+      <c r="M197" s="60"/>
+      <c r="N197" s="60"/>
+      <c r="O197" s="60"/>
       <c r="S197" s="51">
         <v>43714</v>
       </c>
@@ -54472,20 +54422,20 @@
       </c>
     </row>
     <row r="198" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B198" s="64"/>
-      <c r="C198" s="64"/>
-      <c r="D198" s="64"/>
-      <c r="E198" s="64"/>
-      <c r="F198" s="64"/>
-      <c r="G198" s="64"/>
-      <c r="H198" s="64"/>
-      <c r="I198" s="64"/>
-      <c r="J198" s="64"/>
-      <c r="K198" s="64"/>
-      <c r="L198" s="64"/>
-      <c r="M198" s="64"/>
-      <c r="N198" s="64"/>
-      <c r="O198" s="64"/>
+      <c r="B198" s="60"/>
+      <c r="C198" s="60"/>
+      <c r="D198" s="60"/>
+      <c r="E198" s="60"/>
+      <c r="F198" s="60"/>
+      <c r="G198" s="60"/>
+      <c r="H198" s="60"/>
+      <c r="I198" s="60"/>
+      <c r="J198" s="60"/>
+      <c r="K198" s="60"/>
+      <c r="L198" s="60"/>
+      <c r="M198" s="60"/>
+      <c r="N198" s="60"/>
+      <c r="O198" s="60"/>
       <c r="S198" s="51">
         <v>43714</v>
       </c>
@@ -54623,20 +54573,20 @@
       </c>
     </row>
     <row r="199" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B199" s="64"/>
-      <c r="C199" s="64"/>
-      <c r="D199" s="64"/>
-      <c r="E199" s="64"/>
-      <c r="F199" s="64"/>
-      <c r="G199" s="64"/>
-      <c r="H199" s="64"/>
-      <c r="I199" s="64"/>
-      <c r="J199" s="64"/>
-      <c r="K199" s="64"/>
-      <c r="L199" s="64"/>
-      <c r="M199" s="64"/>
-      <c r="N199" s="64"/>
-      <c r="O199" s="64"/>
+      <c r="B199" s="60"/>
+      <c r="C199" s="60"/>
+      <c r="D199" s="60"/>
+      <c r="E199" s="60"/>
+      <c r="F199" s="60"/>
+      <c r="G199" s="60"/>
+      <c r="H199" s="60"/>
+      <c r="I199" s="60"/>
+      <c r="J199" s="60"/>
+      <c r="K199" s="60"/>
+      <c r="L199" s="60"/>
+      <c r="M199" s="60"/>
+      <c r="N199" s="60"/>
+      <c r="O199" s="60"/>
       <c r="S199" s="51">
         <v>43714</v>
       </c>
@@ -54774,20 +54724,20 @@
       </c>
     </row>
     <row r="200" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B200" s="64"/>
-      <c r="C200" s="64"/>
-      <c r="D200" s="64"/>
-      <c r="E200" s="64"/>
-      <c r="F200" s="64"/>
-      <c r="G200" s="64"/>
-      <c r="H200" s="64"/>
-      <c r="I200" s="64"/>
-      <c r="J200" s="64"/>
-      <c r="K200" s="64"/>
-      <c r="L200" s="64"/>
-      <c r="M200" s="64"/>
-      <c r="N200" s="64"/>
-      <c r="O200" s="64"/>
+      <c r="B200" s="60"/>
+      <c r="C200" s="60"/>
+      <c r="D200" s="60"/>
+      <c r="E200" s="60"/>
+      <c r="F200" s="60"/>
+      <c r="G200" s="60"/>
+      <c r="H200" s="60"/>
+      <c r="I200" s="60"/>
+      <c r="J200" s="60"/>
+      <c r="K200" s="60"/>
+      <c r="L200" s="60"/>
+      <c r="M200" s="60"/>
+      <c r="N200" s="60"/>
+      <c r="O200" s="60"/>
       <c r="S200" s="51">
         <v>43714</v>
       </c>
@@ -54925,20 +54875,20 @@
       </c>
     </row>
     <row r="201" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B201" s="64"/>
-      <c r="C201" s="64"/>
-      <c r="D201" s="64"/>
-      <c r="E201" s="64"/>
-      <c r="F201" s="64"/>
-      <c r="G201" s="64"/>
-      <c r="H201" s="64"/>
-      <c r="I201" s="64"/>
-      <c r="J201" s="64"/>
-      <c r="K201" s="64"/>
-      <c r="L201" s="64"/>
-      <c r="M201" s="64"/>
-      <c r="N201" s="64"/>
-      <c r="O201" s="64"/>
+      <c r="B201" s="60"/>
+      <c r="C201" s="60"/>
+      <c r="D201" s="60"/>
+      <c r="E201" s="60"/>
+      <c r="F201" s="60"/>
+      <c r="G201" s="60"/>
+      <c r="H201" s="60"/>
+      <c r="I201" s="60"/>
+      <c r="J201" s="60"/>
+      <c r="K201" s="60"/>
+      <c r="L201" s="60"/>
+      <c r="M201" s="60"/>
+      <c r="N201" s="60"/>
+      <c r="O201" s="60"/>
       <c r="S201" s="51">
         <v>43714</v>
       </c>
@@ -55076,20 +55026,20 @@
       </c>
     </row>
     <row r="202" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B202" s="64"/>
-      <c r="C202" s="64"/>
-      <c r="D202" s="64"/>
-      <c r="E202" s="64"/>
-      <c r="F202" s="64"/>
-      <c r="G202" s="64"/>
-      <c r="H202" s="64"/>
-      <c r="I202" s="64"/>
-      <c r="J202" s="64"/>
-      <c r="K202" s="64"/>
-      <c r="L202" s="64"/>
-      <c r="M202" s="64"/>
-      <c r="N202" s="64"/>
-      <c r="O202" s="64"/>
+      <c r="B202" s="60"/>
+      <c r="C202" s="60"/>
+      <c r="D202" s="60"/>
+      <c r="E202" s="60"/>
+      <c r="F202" s="60"/>
+      <c r="G202" s="60"/>
+      <c r="H202" s="60"/>
+      <c r="I202" s="60"/>
+      <c r="J202" s="60"/>
+      <c r="K202" s="60"/>
+      <c r="L202" s="60"/>
+      <c r="M202" s="60"/>
+      <c r="N202" s="60"/>
+      <c r="O202" s="60"/>
       <c r="S202" s="51">
         <v>43714</v>
       </c>
@@ -55227,20 +55177,20 @@
       </c>
     </row>
     <row r="203" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B203" s="64"/>
-      <c r="C203" s="64"/>
-      <c r="D203" s="64"/>
-      <c r="E203" s="64"/>
-      <c r="F203" s="64"/>
-      <c r="G203" s="64"/>
-      <c r="H203" s="64"/>
-      <c r="I203" s="64"/>
-      <c r="J203" s="64"/>
-      <c r="K203" s="64"/>
-      <c r="L203" s="64"/>
-      <c r="M203" s="64"/>
-      <c r="N203" s="64"/>
-      <c r="O203" s="64"/>
+      <c r="B203" s="60"/>
+      <c r="C203" s="60"/>
+      <c r="D203" s="60"/>
+      <c r="E203" s="60"/>
+      <c r="F203" s="60"/>
+      <c r="G203" s="60"/>
+      <c r="H203" s="60"/>
+      <c r="I203" s="60"/>
+      <c r="J203" s="60"/>
+      <c r="K203" s="60"/>
+      <c r="L203" s="60"/>
+      <c r="M203" s="60"/>
+      <c r="N203" s="60"/>
+      <c r="O203" s="60"/>
       <c r="S203" s="51">
         <v>43714</v>
       </c>
@@ -55378,20 +55328,20 @@
       </c>
     </row>
     <row r="204" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B204" s="64"/>
-      <c r="C204" s="64"/>
-      <c r="D204" s="64"/>
-      <c r="E204" s="64"/>
-      <c r="F204" s="64"/>
-      <c r="G204" s="64"/>
-      <c r="H204" s="64"/>
-      <c r="I204" s="64"/>
-      <c r="J204" s="64"/>
-      <c r="K204" s="64"/>
-      <c r="L204" s="64"/>
-      <c r="M204" s="64"/>
-      <c r="N204" s="64"/>
-      <c r="O204" s="64"/>
+      <c r="B204" s="60"/>
+      <c r="C204" s="60"/>
+      <c r="D204" s="60"/>
+      <c r="E204" s="60"/>
+      <c r="F204" s="60"/>
+      <c r="G204" s="60"/>
+      <c r="H204" s="60"/>
+      <c r="I204" s="60"/>
+      <c r="J204" s="60"/>
+      <c r="K204" s="60"/>
+      <c r="L204" s="60"/>
+      <c r="M204" s="60"/>
+      <c r="N204" s="60"/>
+      <c r="O204" s="60"/>
       <c r="S204" s="51">
         <v>43714</v>
       </c>
@@ -55529,20 +55479,20 @@
       </c>
     </row>
     <row r="205" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B205" s="64"/>
-      <c r="C205" s="64"/>
-      <c r="D205" s="64"/>
-      <c r="E205" s="64"/>
-      <c r="F205" s="64"/>
-      <c r="G205" s="64"/>
-      <c r="H205" s="64"/>
-      <c r="I205" s="64"/>
-      <c r="J205" s="64"/>
-      <c r="K205" s="64"/>
-      <c r="L205" s="64"/>
-      <c r="M205" s="64"/>
-      <c r="N205" s="64"/>
-      <c r="O205" s="64"/>
+      <c r="B205" s="60"/>
+      <c r="C205" s="60"/>
+      <c r="D205" s="60"/>
+      <c r="E205" s="60"/>
+      <c r="F205" s="60"/>
+      <c r="G205" s="60"/>
+      <c r="H205" s="60"/>
+      <c r="I205" s="60"/>
+      <c r="J205" s="60"/>
+      <c r="K205" s="60"/>
+      <c r="L205" s="60"/>
+      <c r="M205" s="60"/>
+      <c r="N205" s="60"/>
+      <c r="O205" s="60"/>
       <c r="S205" s="51">
         <v>43714</v>
       </c>
@@ -55680,20 +55630,20 @@
       </c>
     </row>
     <row r="206" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B206" s="64"/>
-      <c r="C206" s="64"/>
-      <c r="D206" s="64"/>
-      <c r="E206" s="64"/>
-      <c r="F206" s="64"/>
-      <c r="G206" s="64"/>
-      <c r="H206" s="64"/>
-      <c r="I206" s="64"/>
-      <c r="J206" s="64"/>
-      <c r="K206" s="64"/>
-      <c r="L206" s="64"/>
-      <c r="M206" s="64"/>
-      <c r="N206" s="64"/>
-      <c r="O206" s="64"/>
+      <c r="B206" s="60"/>
+      <c r="C206" s="60"/>
+      <c r="D206" s="60"/>
+      <c r="E206" s="60"/>
+      <c r="F206" s="60"/>
+      <c r="G206" s="60"/>
+      <c r="H206" s="60"/>
+      <c r="I206" s="60"/>
+      <c r="J206" s="60"/>
+      <c r="K206" s="60"/>
+      <c r="L206" s="60"/>
+      <c r="M206" s="60"/>
+      <c r="N206" s="60"/>
+      <c r="O206" s="60"/>
       <c r="S206" s="51">
         <v>43714</v>
       </c>
@@ -55831,20 +55781,20 @@
       </c>
     </row>
     <row r="207" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B207" s="64"/>
-      <c r="C207" s="64"/>
-      <c r="D207" s="64"/>
-      <c r="E207" s="64"/>
-      <c r="F207" s="64"/>
-      <c r="G207" s="64"/>
-      <c r="H207" s="64"/>
-      <c r="I207" s="64"/>
-      <c r="J207" s="64"/>
-      <c r="K207" s="64"/>
-      <c r="L207" s="64"/>
-      <c r="M207" s="64"/>
-      <c r="N207" s="64"/>
-      <c r="O207" s="64"/>
+      <c r="B207" s="60"/>
+      <c r="C207" s="60"/>
+      <c r="D207" s="60"/>
+      <c r="E207" s="60"/>
+      <c r="F207" s="60"/>
+      <c r="G207" s="60"/>
+      <c r="H207" s="60"/>
+      <c r="I207" s="60"/>
+      <c r="J207" s="60"/>
+      <c r="K207" s="60"/>
+      <c r="L207" s="60"/>
+      <c r="M207" s="60"/>
+      <c r="N207" s="60"/>
+      <c r="O207" s="60"/>
       <c r="S207" s="51">
         <v>43714</v>
       </c>
@@ -55982,20 +55932,20 @@
       </c>
     </row>
     <row r="208" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B208" s="64"/>
-      <c r="C208" s="64"/>
-      <c r="D208" s="64"/>
-      <c r="E208" s="64"/>
-      <c r="F208" s="64"/>
-      <c r="G208" s="64"/>
-      <c r="H208" s="64"/>
-      <c r="I208" s="64"/>
-      <c r="J208" s="64"/>
-      <c r="K208" s="64"/>
-      <c r="L208" s="64"/>
-      <c r="M208" s="64"/>
-      <c r="N208" s="64"/>
-      <c r="O208" s="64"/>
+      <c r="B208" s="60"/>
+      <c r="C208" s="60"/>
+      <c r="D208" s="60"/>
+      <c r="E208" s="60"/>
+      <c r="F208" s="60"/>
+      <c r="G208" s="60"/>
+      <c r="H208" s="60"/>
+      <c r="I208" s="60"/>
+      <c r="J208" s="60"/>
+      <c r="K208" s="60"/>
+      <c r="L208" s="60"/>
+      <c r="M208" s="60"/>
+      <c r="N208" s="60"/>
+      <c r="O208" s="60"/>
       <c r="S208" s="51">
         <v>43714</v>
       </c>
@@ -56133,20 +56083,20 @@
       </c>
     </row>
     <row r="209" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B209" s="64"/>
-      <c r="C209" s="64"/>
-      <c r="D209" s="64"/>
-      <c r="E209" s="64"/>
-      <c r="F209" s="64"/>
-      <c r="G209" s="64"/>
-      <c r="H209" s="64"/>
-      <c r="I209" s="64"/>
-      <c r="J209" s="64"/>
-      <c r="K209" s="64"/>
-      <c r="L209" s="64"/>
-      <c r="M209" s="64"/>
-      <c r="N209" s="64"/>
-      <c r="O209" s="64"/>
+      <c r="B209" s="60"/>
+      <c r="C209" s="60"/>
+      <c r="D209" s="60"/>
+      <c r="E209" s="60"/>
+      <c r="F209" s="60"/>
+      <c r="G209" s="60"/>
+      <c r="H209" s="60"/>
+      <c r="I209" s="60"/>
+      <c r="J209" s="60"/>
+      <c r="K209" s="60"/>
+      <c r="L209" s="60"/>
+      <c r="M209" s="60"/>
+      <c r="N209" s="60"/>
+      <c r="O209" s="60"/>
       <c r="S209" s="51">
         <v>43714</v>
       </c>
@@ -56284,20 +56234,20 @@
       </c>
     </row>
     <row r="210" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B210" s="64"/>
-      <c r="C210" s="64"/>
-      <c r="D210" s="64"/>
-      <c r="E210" s="64"/>
-      <c r="F210" s="64"/>
-      <c r="G210" s="64"/>
-      <c r="H210" s="64"/>
-      <c r="I210" s="64"/>
-      <c r="J210" s="64"/>
-      <c r="K210" s="64"/>
-      <c r="L210" s="64"/>
-      <c r="M210" s="64"/>
-      <c r="N210" s="64"/>
-      <c r="O210" s="64"/>
+      <c r="B210" s="60"/>
+      <c r="C210" s="60"/>
+      <c r="D210" s="60"/>
+      <c r="E210" s="60"/>
+      <c r="F210" s="60"/>
+      <c r="G210" s="60"/>
+      <c r="H210" s="60"/>
+      <c r="I210" s="60"/>
+      <c r="J210" s="60"/>
+      <c r="K210" s="60"/>
+      <c r="L210" s="60"/>
+      <c r="M210" s="60"/>
+      <c r="N210" s="60"/>
+      <c r="O210" s="60"/>
       <c r="S210" s="51">
         <v>43714</v>
       </c>
@@ -56435,20 +56385,20 @@
       </c>
     </row>
     <row r="211" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B211" s="64"/>
-      <c r="C211" s="64"/>
-      <c r="D211" s="64"/>
-      <c r="E211" s="64"/>
-      <c r="F211" s="64"/>
-      <c r="G211" s="64"/>
-      <c r="H211" s="64"/>
-      <c r="I211" s="64"/>
-      <c r="J211" s="64"/>
-      <c r="K211" s="64"/>
-      <c r="L211" s="64"/>
-      <c r="M211" s="64"/>
-      <c r="N211" s="64"/>
-      <c r="O211" s="64"/>
+      <c r="B211" s="60"/>
+      <c r="C211" s="60"/>
+      <c r="D211" s="60"/>
+      <c r="E211" s="60"/>
+      <c r="F211" s="60"/>
+      <c r="G211" s="60"/>
+      <c r="H211" s="60"/>
+      <c r="I211" s="60"/>
+      <c r="J211" s="60"/>
+      <c r="K211" s="60"/>
+      <c r="L211" s="60"/>
+      <c r="M211" s="60"/>
+      <c r="N211" s="60"/>
+      <c r="O211" s="60"/>
       <c r="S211" s="51">
         <v>43714</v>
       </c>
@@ -56586,20 +56536,20 @@
       </c>
     </row>
     <row r="212" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B212" s="64"/>
-      <c r="C212" s="64"/>
-      <c r="D212" s="64"/>
-      <c r="E212" s="64"/>
-      <c r="F212" s="64"/>
-      <c r="G212" s="64"/>
-      <c r="H212" s="64"/>
-      <c r="I212" s="64"/>
-      <c r="J212" s="64"/>
-      <c r="K212" s="64"/>
-      <c r="L212" s="64"/>
-      <c r="M212" s="64"/>
-      <c r="N212" s="64"/>
-      <c r="O212" s="64"/>
+      <c r="B212" s="60"/>
+      <c r="C212" s="60"/>
+      <c r="D212" s="60"/>
+      <c r="E212" s="60"/>
+      <c r="F212" s="60"/>
+      <c r="G212" s="60"/>
+      <c r="H212" s="60"/>
+      <c r="I212" s="60"/>
+      <c r="J212" s="60"/>
+      <c r="K212" s="60"/>
+      <c r="L212" s="60"/>
+      <c r="M212" s="60"/>
+      <c r="N212" s="60"/>
+      <c r="O212" s="60"/>
       <c r="S212" s="51">
         <v>43714</v>
       </c>
@@ -56737,20 +56687,20 @@
       </c>
     </row>
     <row r="213" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B213" s="64"/>
-      <c r="C213" s="64"/>
-      <c r="D213" s="64"/>
-      <c r="E213" s="64"/>
-      <c r="F213" s="64"/>
-      <c r="G213" s="64"/>
-      <c r="H213" s="64"/>
-      <c r="I213" s="64"/>
-      <c r="J213" s="64"/>
-      <c r="K213" s="64"/>
-      <c r="L213" s="64"/>
-      <c r="M213" s="64"/>
-      <c r="N213" s="64"/>
-      <c r="O213" s="64"/>
+      <c r="B213" s="60"/>
+      <c r="C213" s="60"/>
+      <c r="D213" s="60"/>
+      <c r="E213" s="60"/>
+      <c r="F213" s="60"/>
+      <c r="G213" s="60"/>
+      <c r="H213" s="60"/>
+      <c r="I213" s="60"/>
+      <c r="J213" s="60"/>
+      <c r="K213" s="60"/>
+      <c r="L213" s="60"/>
+      <c r="M213" s="60"/>
+      <c r="N213" s="60"/>
+      <c r="O213" s="60"/>
       <c r="S213" s="51">
         <v>43714</v>
       </c>
@@ -56888,20 +56838,20 @@
       </c>
     </row>
     <row r="214" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B214" s="64"/>
-      <c r="C214" s="64"/>
-      <c r="D214" s="64"/>
-      <c r="E214" s="64"/>
-      <c r="F214" s="64"/>
-      <c r="G214" s="64"/>
-      <c r="H214" s="64"/>
-      <c r="I214" s="64"/>
-      <c r="J214" s="64"/>
-      <c r="K214" s="64"/>
-      <c r="L214" s="64"/>
-      <c r="M214" s="64"/>
-      <c r="N214" s="64"/>
-      <c r="O214" s="64"/>
+      <c r="B214" s="60"/>
+      <c r="C214" s="60"/>
+      <c r="D214" s="60"/>
+      <c r="E214" s="60"/>
+      <c r="F214" s="60"/>
+      <c r="G214" s="60"/>
+      <c r="H214" s="60"/>
+      <c r="I214" s="60"/>
+      <c r="J214" s="60"/>
+      <c r="K214" s="60"/>
+      <c r="L214" s="60"/>
+      <c r="M214" s="60"/>
+      <c r="N214" s="60"/>
+      <c r="O214" s="60"/>
       <c r="S214" s="51">
         <v>43714</v>
       </c>
@@ -57039,20 +56989,20 @@
       </c>
     </row>
     <row r="215" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B215" s="64"/>
-      <c r="C215" s="64"/>
-      <c r="D215" s="64"/>
-      <c r="E215" s="64"/>
-      <c r="F215" s="64"/>
-      <c r="G215" s="64"/>
-      <c r="H215" s="64"/>
-      <c r="I215" s="64"/>
-      <c r="J215" s="64"/>
-      <c r="K215" s="64"/>
-      <c r="L215" s="64"/>
-      <c r="M215" s="64"/>
-      <c r="N215" s="64"/>
-      <c r="O215" s="64"/>
+      <c r="B215" s="60"/>
+      <c r="C215" s="60"/>
+      <c r="D215" s="60"/>
+      <c r="E215" s="60"/>
+      <c r="F215" s="60"/>
+      <c r="G215" s="60"/>
+      <c r="H215" s="60"/>
+      <c r="I215" s="60"/>
+      <c r="J215" s="60"/>
+      <c r="K215" s="60"/>
+      <c r="L215" s="60"/>
+      <c r="M215" s="60"/>
+      <c r="N215" s="60"/>
+      <c r="O215" s="60"/>
       <c r="S215" s="51">
         <v>43714</v>
       </c>
@@ -57190,20 +57140,20 @@
       </c>
     </row>
     <row r="216" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B216" s="64"/>
-      <c r="C216" s="64"/>
-      <c r="D216" s="64"/>
-      <c r="E216" s="64"/>
-      <c r="F216" s="64"/>
-      <c r="G216" s="64"/>
-      <c r="H216" s="64"/>
-      <c r="I216" s="64"/>
-      <c r="J216" s="64"/>
-      <c r="K216" s="64"/>
-      <c r="L216" s="64"/>
-      <c r="M216" s="64"/>
-      <c r="N216" s="64"/>
-      <c r="O216" s="64"/>
+      <c r="B216" s="60"/>
+      <c r="C216" s="60"/>
+      <c r="D216" s="60"/>
+      <c r="E216" s="60"/>
+      <c r="F216" s="60"/>
+      <c r="G216" s="60"/>
+      <c r="H216" s="60"/>
+      <c r="I216" s="60"/>
+      <c r="J216" s="60"/>
+      <c r="K216" s="60"/>
+      <c r="L216" s="60"/>
+      <c r="M216" s="60"/>
+      <c r="N216" s="60"/>
+      <c r="O216" s="60"/>
       <c r="S216" s="51">
         <v>43714</v>
       </c>
@@ -57341,20 +57291,20 @@
       </c>
     </row>
     <row r="217" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B217" s="64"/>
-      <c r="C217" s="64"/>
-      <c r="D217" s="64"/>
-      <c r="E217" s="64"/>
-      <c r="F217" s="64"/>
-      <c r="G217" s="64"/>
-      <c r="H217" s="64"/>
-      <c r="I217" s="64"/>
-      <c r="J217" s="64"/>
-      <c r="K217" s="64"/>
-      <c r="L217" s="64"/>
-      <c r="M217" s="64"/>
-      <c r="N217" s="64"/>
-      <c r="O217" s="64"/>
+      <c r="B217" s="60"/>
+      <c r="C217" s="60"/>
+      <c r="D217" s="60"/>
+      <c r="E217" s="60"/>
+      <c r="F217" s="60"/>
+      <c r="G217" s="60"/>
+      <c r="H217" s="60"/>
+      <c r="I217" s="60"/>
+      <c r="J217" s="60"/>
+      <c r="K217" s="60"/>
+      <c r="L217" s="60"/>
+      <c r="M217" s="60"/>
+      <c r="N217" s="60"/>
+      <c r="O217" s="60"/>
       <c r="S217" s="51">
         <v>43714</v>
       </c>
@@ -57492,20 +57442,20 @@
       </c>
     </row>
     <row r="218" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B218" s="64"/>
-      <c r="C218" s="64"/>
-      <c r="D218" s="64"/>
-      <c r="E218" s="64"/>
-      <c r="F218" s="64"/>
-      <c r="G218" s="64"/>
-      <c r="H218" s="64"/>
-      <c r="I218" s="64"/>
-      <c r="J218" s="64"/>
-      <c r="K218" s="64"/>
-      <c r="L218" s="64"/>
-      <c r="M218" s="64"/>
-      <c r="N218" s="64"/>
-      <c r="O218" s="64"/>
+      <c r="B218" s="60"/>
+      <c r="C218" s="60"/>
+      <c r="D218" s="60"/>
+      <c r="E218" s="60"/>
+      <c r="F218" s="60"/>
+      <c r="G218" s="60"/>
+      <c r="H218" s="60"/>
+      <c r="I218" s="60"/>
+      <c r="J218" s="60"/>
+      <c r="K218" s="60"/>
+      <c r="L218" s="60"/>
+      <c r="M218" s="60"/>
+      <c r="N218" s="60"/>
+      <c r="O218" s="60"/>
       <c r="S218" s="51">
         <v>43714</v>
       </c>
@@ -57643,20 +57593,20 @@
       </c>
     </row>
     <row r="219" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B219" s="64"/>
-      <c r="C219" s="64"/>
-      <c r="D219" s="64"/>
-      <c r="E219" s="64"/>
-      <c r="F219" s="64"/>
-      <c r="G219" s="64"/>
-      <c r="H219" s="64"/>
-      <c r="I219" s="64"/>
-      <c r="J219" s="64"/>
-      <c r="K219" s="64"/>
-      <c r="L219" s="64"/>
-      <c r="M219" s="64"/>
-      <c r="N219" s="64"/>
-      <c r="O219" s="64"/>
+      <c r="B219" s="60"/>
+      <c r="C219" s="60"/>
+      <c r="D219" s="60"/>
+      <c r="E219" s="60"/>
+      <c r="F219" s="60"/>
+      <c r="G219" s="60"/>
+      <c r="H219" s="60"/>
+      <c r="I219" s="60"/>
+      <c r="J219" s="60"/>
+      <c r="K219" s="60"/>
+      <c r="L219" s="60"/>
+      <c r="M219" s="60"/>
+      <c r="N219" s="60"/>
+      <c r="O219" s="60"/>
       <c r="S219" s="51">
         <v>43714</v>
       </c>
@@ -57794,20 +57744,20 @@
       </c>
     </row>
     <row r="220" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B220" s="64"/>
-      <c r="C220" s="64"/>
-      <c r="D220" s="64"/>
-      <c r="E220" s="64"/>
-      <c r="F220" s="64"/>
-      <c r="G220" s="64"/>
-      <c r="H220" s="64"/>
-      <c r="I220" s="64"/>
-      <c r="J220" s="64"/>
-      <c r="K220" s="64"/>
-      <c r="L220" s="64"/>
-      <c r="M220" s="64"/>
-      <c r="N220" s="64"/>
-      <c r="O220" s="64"/>
+      <c r="B220" s="60"/>
+      <c r="C220" s="60"/>
+      <c r="D220" s="60"/>
+      <c r="E220" s="60"/>
+      <c r="F220" s="60"/>
+      <c r="G220" s="60"/>
+      <c r="H220" s="60"/>
+      <c r="I220" s="60"/>
+      <c r="J220" s="60"/>
+      <c r="K220" s="60"/>
+      <c r="L220" s="60"/>
+      <c r="M220" s="60"/>
+      <c r="N220" s="60"/>
+      <c r="O220" s="60"/>
       <c r="S220" s="51">
         <v>43714</v>
       </c>
@@ -57945,20 +57895,20 @@
       </c>
     </row>
     <row r="221" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B221" s="64"/>
-      <c r="C221" s="64"/>
-      <c r="D221" s="64"/>
-      <c r="E221" s="64"/>
-      <c r="F221" s="64"/>
-      <c r="G221" s="64"/>
-      <c r="H221" s="64"/>
-      <c r="I221" s="64"/>
-      <c r="J221" s="64"/>
-      <c r="K221" s="64"/>
-      <c r="L221" s="64"/>
-      <c r="M221" s="64"/>
-      <c r="N221" s="64"/>
-      <c r="O221" s="64"/>
+      <c r="B221" s="60"/>
+      <c r="C221" s="60"/>
+      <c r="D221" s="60"/>
+      <c r="E221" s="60"/>
+      <c r="F221" s="60"/>
+      <c r="G221" s="60"/>
+      <c r="H221" s="60"/>
+      <c r="I221" s="60"/>
+      <c r="J221" s="60"/>
+      <c r="K221" s="60"/>
+      <c r="L221" s="60"/>
+      <c r="M221" s="60"/>
+      <c r="N221" s="60"/>
+      <c r="O221" s="60"/>
       <c r="S221" s="51">
         <v>43714</v>
       </c>
@@ -58096,20 +58046,20 @@
       </c>
     </row>
     <row r="222" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B222" s="64"/>
-      <c r="C222" s="64"/>
-      <c r="D222" s="64"/>
-      <c r="E222" s="64"/>
-      <c r="F222" s="64"/>
-      <c r="G222" s="64"/>
-      <c r="H222" s="64"/>
-      <c r="I222" s="64"/>
-      <c r="J222" s="64"/>
-      <c r="K222" s="64"/>
-      <c r="L222" s="64"/>
-      <c r="M222" s="64"/>
-      <c r="N222" s="64"/>
-      <c r="O222" s="64"/>
+      <c r="B222" s="60"/>
+      <c r="C222" s="60"/>
+      <c r="D222" s="60"/>
+      <c r="E222" s="60"/>
+      <c r="F222" s="60"/>
+      <c r="G222" s="60"/>
+      <c r="H222" s="60"/>
+      <c r="I222" s="60"/>
+      <c r="J222" s="60"/>
+      <c r="K222" s="60"/>
+      <c r="L222" s="60"/>
+      <c r="M222" s="60"/>
+      <c r="N222" s="60"/>
+      <c r="O222" s="60"/>
       <c r="S222" s="51">
         <v>43714</v>
       </c>
@@ -58247,20 +58197,20 @@
       </c>
     </row>
     <row r="223" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B223" s="64"/>
-      <c r="C223" s="64"/>
-      <c r="D223" s="64"/>
-      <c r="E223" s="64"/>
-      <c r="F223" s="64"/>
-      <c r="G223" s="64"/>
-      <c r="H223" s="64"/>
-      <c r="I223" s="64"/>
-      <c r="J223" s="64"/>
-      <c r="K223" s="64"/>
-      <c r="L223" s="64"/>
-      <c r="M223" s="64"/>
-      <c r="N223" s="64"/>
-      <c r="O223" s="64"/>
+      <c r="B223" s="60"/>
+      <c r="C223" s="60"/>
+      <c r="D223" s="60"/>
+      <c r="E223" s="60"/>
+      <c r="F223" s="60"/>
+      <c r="G223" s="60"/>
+      <c r="H223" s="60"/>
+      <c r="I223" s="60"/>
+      <c r="J223" s="60"/>
+      <c r="K223" s="60"/>
+      <c r="L223" s="60"/>
+      <c r="M223" s="60"/>
+      <c r="N223" s="60"/>
+      <c r="O223" s="60"/>
       <c r="S223" s="51">
         <v>43714</v>
       </c>
@@ -58398,20 +58348,20 @@
       </c>
     </row>
     <row r="224" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B224" s="64"/>
-      <c r="C224" s="64"/>
-      <c r="D224" s="64"/>
-      <c r="E224" s="64"/>
-      <c r="F224" s="64"/>
-      <c r="G224" s="64"/>
-      <c r="H224" s="64"/>
-      <c r="I224" s="64"/>
-      <c r="J224" s="64"/>
-      <c r="K224" s="64"/>
-      <c r="L224" s="64"/>
-      <c r="M224" s="64"/>
-      <c r="N224" s="64"/>
-      <c r="O224" s="64"/>
+      <c r="B224" s="60"/>
+      <c r="C224" s="60"/>
+      <c r="D224" s="60"/>
+      <c r="E224" s="60"/>
+      <c r="F224" s="60"/>
+      <c r="G224" s="60"/>
+      <c r="H224" s="60"/>
+      <c r="I224" s="60"/>
+      <c r="J224" s="60"/>
+      <c r="K224" s="60"/>
+      <c r="L224" s="60"/>
+      <c r="M224" s="60"/>
+      <c r="N224" s="60"/>
+      <c r="O224" s="60"/>
       <c r="S224" s="51">
         <v>43714</v>
       </c>
@@ -58549,20 +58499,20 @@
       </c>
     </row>
     <row r="225" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B225" s="64"/>
-      <c r="C225" s="64"/>
-      <c r="D225" s="64"/>
-      <c r="E225" s="64"/>
-      <c r="F225" s="64"/>
-      <c r="G225" s="64"/>
-      <c r="H225" s="64"/>
-      <c r="I225" s="64"/>
-      <c r="J225" s="64"/>
-      <c r="K225" s="64"/>
-      <c r="L225" s="64"/>
-      <c r="M225" s="64"/>
-      <c r="N225" s="64"/>
-      <c r="O225" s="64"/>
+      <c r="B225" s="60"/>
+      <c r="C225" s="60"/>
+      <c r="D225" s="60"/>
+      <c r="E225" s="60"/>
+      <c r="F225" s="60"/>
+      <c r="G225" s="60"/>
+      <c r="H225" s="60"/>
+      <c r="I225" s="60"/>
+      <c r="J225" s="60"/>
+      <c r="K225" s="60"/>
+      <c r="L225" s="60"/>
+      <c r="M225" s="60"/>
+      <c r="N225" s="60"/>
+      <c r="O225" s="60"/>
       <c r="S225" s="51">
         <v>43714</v>
       </c>
@@ -58700,20 +58650,20 @@
       </c>
     </row>
     <row r="226" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B226" s="64"/>
-      <c r="C226" s="64"/>
-      <c r="D226" s="64"/>
-      <c r="E226" s="64"/>
-      <c r="F226" s="64"/>
-      <c r="G226" s="64"/>
-      <c r="H226" s="64"/>
-      <c r="I226" s="64"/>
-      <c r="J226" s="64"/>
-      <c r="K226" s="64"/>
-      <c r="L226" s="64"/>
-      <c r="M226" s="64"/>
-      <c r="N226" s="64"/>
-      <c r="O226" s="64"/>
+      <c r="B226" s="60"/>
+      <c r="C226" s="60"/>
+      <c r="D226" s="60"/>
+      <c r="E226" s="60"/>
+      <c r="F226" s="60"/>
+      <c r="G226" s="60"/>
+      <c r="H226" s="60"/>
+      <c r="I226" s="60"/>
+      <c r="J226" s="60"/>
+      <c r="K226" s="60"/>
+      <c r="L226" s="60"/>
+      <c r="M226" s="60"/>
+      <c r="N226" s="60"/>
+      <c r="O226" s="60"/>
       <c r="S226" s="51">
         <v>43714</v>
       </c>
@@ -58851,20 +58801,20 @@
       </c>
     </row>
     <row r="227" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B227" s="64"/>
-      <c r="C227" s="64"/>
-      <c r="D227" s="64"/>
-      <c r="E227" s="64"/>
-      <c r="F227" s="64"/>
-      <c r="G227" s="64"/>
-      <c r="H227" s="64"/>
-      <c r="I227" s="64"/>
-      <c r="J227" s="64"/>
-      <c r="K227" s="64"/>
-      <c r="L227" s="64"/>
-      <c r="M227" s="64"/>
-      <c r="N227" s="64"/>
-      <c r="O227" s="64"/>
+      <c r="B227" s="60"/>
+      <c r="C227" s="60"/>
+      <c r="D227" s="60"/>
+      <c r="E227" s="60"/>
+      <c r="F227" s="60"/>
+      <c r="G227" s="60"/>
+      <c r="H227" s="60"/>
+      <c r="I227" s="60"/>
+      <c r="J227" s="60"/>
+      <c r="K227" s="60"/>
+      <c r="L227" s="60"/>
+      <c r="M227" s="60"/>
+      <c r="N227" s="60"/>
+      <c r="O227" s="60"/>
       <c r="S227" s="51">
         <v>43714</v>
       </c>
@@ -59002,20 +58952,20 @@
       </c>
     </row>
     <row r="228" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B228" s="64"/>
-      <c r="C228" s="64"/>
-      <c r="D228" s="64"/>
-      <c r="E228" s="64"/>
-      <c r="F228" s="64"/>
-      <c r="G228" s="64"/>
-      <c r="H228" s="64"/>
-      <c r="I228" s="64"/>
-      <c r="J228" s="64"/>
-      <c r="K228" s="64"/>
-      <c r="L228" s="64"/>
-      <c r="M228" s="64"/>
-      <c r="N228" s="64"/>
-      <c r="O228" s="64"/>
+      <c r="B228" s="60"/>
+      <c r="C228" s="60"/>
+      <c r="D228" s="60"/>
+      <c r="E228" s="60"/>
+      <c r="F228" s="60"/>
+      <c r="G228" s="60"/>
+      <c r="H228" s="60"/>
+      <c r="I228" s="60"/>
+      <c r="J228" s="60"/>
+      <c r="K228" s="60"/>
+      <c r="L228" s="60"/>
+      <c r="M228" s="60"/>
+      <c r="N228" s="60"/>
+      <c r="O228" s="60"/>
       <c r="S228" s="51">
         <v>43714</v>
       </c>
@@ -59153,20 +59103,20 @@
       </c>
     </row>
     <row r="229" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B229" s="64"/>
-      <c r="C229" s="64"/>
-      <c r="D229" s="64"/>
-      <c r="E229" s="64"/>
-      <c r="F229" s="64"/>
-      <c r="G229" s="64"/>
-      <c r="H229" s="64"/>
-      <c r="I229" s="64"/>
-      <c r="J229" s="64"/>
-      <c r="K229" s="64"/>
-      <c r="L229" s="64"/>
-      <c r="M229" s="64"/>
-      <c r="N229" s="64"/>
-      <c r="O229" s="64"/>
+      <c r="B229" s="60"/>
+      <c r="C229" s="60"/>
+      <c r="D229" s="60"/>
+      <c r="E229" s="60"/>
+      <c r="F229" s="60"/>
+      <c r="G229" s="60"/>
+      <c r="H229" s="60"/>
+      <c r="I229" s="60"/>
+      <c r="J229" s="60"/>
+      <c r="K229" s="60"/>
+      <c r="L229" s="60"/>
+      <c r="M229" s="60"/>
+      <c r="N229" s="60"/>
+      <c r="O229" s="60"/>
       <c r="S229" s="51">
         <v>43714</v>
       </c>
@@ -59304,20 +59254,20 @@
       </c>
     </row>
     <row r="230" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B230" s="64"/>
-      <c r="C230" s="64"/>
-      <c r="D230" s="64"/>
-      <c r="E230" s="64"/>
-      <c r="F230" s="64"/>
-      <c r="G230" s="64"/>
-      <c r="H230" s="64"/>
-      <c r="I230" s="64"/>
-      <c r="J230" s="64"/>
-      <c r="K230" s="64"/>
-      <c r="L230" s="64"/>
-      <c r="M230" s="64"/>
-      <c r="N230" s="64"/>
-      <c r="O230" s="64"/>
+      <c r="B230" s="60"/>
+      <c r="C230" s="60"/>
+      <c r="D230" s="60"/>
+      <c r="E230" s="60"/>
+      <c r="F230" s="60"/>
+      <c r="G230" s="60"/>
+      <c r="H230" s="60"/>
+      <c r="I230" s="60"/>
+      <c r="J230" s="60"/>
+      <c r="K230" s="60"/>
+      <c r="L230" s="60"/>
+      <c r="M230" s="60"/>
+      <c r="N230" s="60"/>
+      <c r="O230" s="60"/>
       <c r="S230" s="51">
         <v>43714</v>
       </c>
@@ -59455,20 +59405,20 @@
       </c>
     </row>
     <row r="231" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B231" s="64"/>
-      <c r="C231" s="64"/>
-      <c r="D231" s="64"/>
-      <c r="E231" s="64"/>
-      <c r="F231" s="64"/>
-      <c r="G231" s="64"/>
-      <c r="H231" s="64"/>
-      <c r="I231" s="64"/>
-      <c r="J231" s="64"/>
-      <c r="K231" s="64"/>
-      <c r="L231" s="64"/>
-      <c r="M231" s="64"/>
-      <c r="N231" s="64"/>
-      <c r="O231" s="64"/>
+      <c r="B231" s="60"/>
+      <c r="C231" s="60"/>
+      <c r="D231" s="60"/>
+      <c r="E231" s="60"/>
+      <c r="F231" s="60"/>
+      <c r="G231" s="60"/>
+      <c r="H231" s="60"/>
+      <c r="I231" s="60"/>
+      <c r="J231" s="60"/>
+      <c r="K231" s="60"/>
+      <c r="L231" s="60"/>
+      <c r="M231" s="60"/>
+      <c r="N231" s="60"/>
+      <c r="O231" s="60"/>
       <c r="S231" s="51">
         <v>43714</v>
       </c>
@@ -59606,20 +59556,20 @@
       </c>
     </row>
     <row r="232" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B232" s="64"/>
-      <c r="C232" s="64"/>
-      <c r="D232" s="64"/>
-      <c r="E232" s="64"/>
-      <c r="F232" s="64"/>
-      <c r="G232" s="64"/>
-      <c r="H232" s="64"/>
-      <c r="I232" s="64"/>
-      <c r="J232" s="64"/>
-      <c r="K232" s="64"/>
-      <c r="L232" s="64"/>
-      <c r="M232" s="64"/>
-      <c r="N232" s="64"/>
-      <c r="O232" s="64"/>
+      <c r="B232" s="60"/>
+      <c r="C232" s="60"/>
+      <c r="D232" s="60"/>
+      <c r="E232" s="60"/>
+      <c r="F232" s="60"/>
+      <c r="G232" s="60"/>
+      <c r="H232" s="60"/>
+      <c r="I232" s="60"/>
+      <c r="J232" s="60"/>
+      <c r="K232" s="60"/>
+      <c r="L232" s="60"/>
+      <c r="M232" s="60"/>
+      <c r="N232" s="60"/>
+      <c r="O232" s="60"/>
       <c r="S232" s="51">
         <v>43714</v>
       </c>
@@ -59757,20 +59707,20 @@
       </c>
     </row>
     <row r="233" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B233" s="64"/>
-      <c r="C233" s="64"/>
-      <c r="D233" s="64"/>
-      <c r="E233" s="64"/>
-      <c r="F233" s="64"/>
-      <c r="G233" s="64"/>
-      <c r="H233" s="64"/>
-      <c r="I233" s="64"/>
-      <c r="J233" s="64"/>
-      <c r="K233" s="64"/>
-      <c r="L233" s="64"/>
-      <c r="M233" s="64"/>
-      <c r="N233" s="64"/>
-      <c r="O233" s="64"/>
+      <c r="B233" s="60"/>
+      <c r="C233" s="60"/>
+      <c r="D233" s="60"/>
+      <c r="E233" s="60"/>
+      <c r="F233" s="60"/>
+      <c r="G233" s="60"/>
+      <c r="H233" s="60"/>
+      <c r="I233" s="60"/>
+      <c r="J233" s="60"/>
+      <c r="K233" s="60"/>
+      <c r="L233" s="60"/>
+      <c r="M233" s="60"/>
+      <c r="N233" s="60"/>
+      <c r="O233" s="60"/>
       <c r="S233" s="51">
         <v>43714</v>
       </c>
@@ -59908,20 +59858,20 @@
       </c>
     </row>
     <row r="234" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B234" s="64"/>
-      <c r="C234" s="64"/>
-      <c r="D234" s="64"/>
-      <c r="E234" s="64"/>
-      <c r="F234" s="64"/>
-      <c r="G234" s="64"/>
-      <c r="H234" s="64"/>
-      <c r="I234" s="64"/>
-      <c r="J234" s="64"/>
-      <c r="K234" s="64"/>
-      <c r="L234" s="64"/>
-      <c r="M234" s="64"/>
-      <c r="N234" s="64"/>
-      <c r="O234" s="64"/>
+      <c r="B234" s="60"/>
+      <c r="C234" s="60"/>
+      <c r="D234" s="60"/>
+      <c r="E234" s="60"/>
+      <c r="F234" s="60"/>
+      <c r="G234" s="60"/>
+      <c r="H234" s="60"/>
+      <c r="I234" s="60"/>
+      <c r="J234" s="60"/>
+      <c r="K234" s="60"/>
+      <c r="L234" s="60"/>
+      <c r="M234" s="60"/>
+      <c r="N234" s="60"/>
+      <c r="O234" s="60"/>
       <c r="S234" s="51">
         <v>43714</v>
       </c>
@@ -60059,20 +60009,20 @@
       </c>
     </row>
     <row r="235" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B235" s="64"/>
-      <c r="C235" s="64"/>
-      <c r="D235" s="64"/>
-      <c r="E235" s="64"/>
-      <c r="F235" s="64"/>
-      <c r="G235" s="64"/>
-      <c r="H235" s="64"/>
-      <c r="I235" s="64"/>
-      <c r="J235" s="64"/>
-      <c r="K235" s="64"/>
-      <c r="L235" s="64"/>
-      <c r="M235" s="64"/>
-      <c r="N235" s="64"/>
-      <c r="O235" s="64"/>
+      <c r="B235" s="60"/>
+      <c r="C235" s="60"/>
+      <c r="D235" s="60"/>
+      <c r="E235" s="60"/>
+      <c r="F235" s="60"/>
+      <c r="G235" s="60"/>
+      <c r="H235" s="60"/>
+      <c r="I235" s="60"/>
+      <c r="J235" s="60"/>
+      <c r="K235" s="60"/>
+      <c r="L235" s="60"/>
+      <c r="M235" s="60"/>
+      <c r="N235" s="60"/>
+      <c r="O235" s="60"/>
       <c r="S235" s="51">
         <v>43714</v>
       </c>
@@ -60210,20 +60160,20 @@
       </c>
     </row>
     <row r="236" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B236" s="64"/>
-      <c r="C236" s="64"/>
-      <c r="D236" s="64"/>
-      <c r="E236" s="64"/>
-      <c r="F236" s="64"/>
-      <c r="G236" s="64"/>
-      <c r="H236" s="64"/>
-      <c r="I236" s="64"/>
-      <c r="J236" s="64"/>
-      <c r="K236" s="64"/>
-      <c r="L236" s="64"/>
-      <c r="M236" s="64"/>
-      <c r="N236" s="64"/>
-      <c r="O236" s="64"/>
+      <c r="B236" s="60"/>
+      <c r="C236" s="60"/>
+      <c r="D236" s="60"/>
+      <c r="E236" s="60"/>
+      <c r="F236" s="60"/>
+      <c r="G236" s="60"/>
+      <c r="H236" s="60"/>
+      <c r="I236" s="60"/>
+      <c r="J236" s="60"/>
+      <c r="K236" s="60"/>
+      <c r="L236" s="60"/>
+      <c r="M236" s="60"/>
+      <c r="N236" s="60"/>
+      <c r="O236" s="60"/>
       <c r="S236" s="51">
         <v>43714</v>
       </c>
@@ -60361,20 +60311,20 @@
       </c>
     </row>
     <row r="237" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B237" s="64"/>
-      <c r="C237" s="64"/>
-      <c r="D237" s="64"/>
-      <c r="E237" s="64"/>
-      <c r="F237" s="64"/>
-      <c r="G237" s="64"/>
-      <c r="H237" s="64"/>
-      <c r="I237" s="64"/>
-      <c r="J237" s="64"/>
-      <c r="K237" s="64"/>
-      <c r="L237" s="64"/>
-      <c r="M237" s="64"/>
-      <c r="N237" s="64"/>
-      <c r="O237" s="64"/>
+      <c r="B237" s="60"/>
+      <c r="C237" s="60"/>
+      <c r="D237" s="60"/>
+      <c r="E237" s="60"/>
+      <c r="F237" s="60"/>
+      <c r="G237" s="60"/>
+      <c r="H237" s="60"/>
+      <c r="I237" s="60"/>
+      <c r="J237" s="60"/>
+      <c r="K237" s="60"/>
+      <c r="L237" s="60"/>
+      <c r="M237" s="60"/>
+      <c r="N237" s="60"/>
+      <c r="O237" s="60"/>
       <c r="S237" s="51">
         <v>43714</v>
       </c>
@@ -60512,20 +60462,20 @@
       </c>
     </row>
     <row r="238" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B238" s="64"/>
-      <c r="C238" s="64"/>
-      <c r="D238" s="64"/>
-      <c r="E238" s="64"/>
-      <c r="F238" s="64"/>
-      <c r="G238" s="64"/>
-      <c r="H238" s="64"/>
-      <c r="I238" s="64"/>
-      <c r="J238" s="64"/>
-      <c r="K238" s="64"/>
-      <c r="L238" s="64"/>
-      <c r="M238" s="64"/>
-      <c r="N238" s="64"/>
-      <c r="O238" s="64"/>
+      <c r="B238" s="60"/>
+      <c r="C238" s="60"/>
+      <c r="D238" s="60"/>
+      <c r="E238" s="60"/>
+      <c r="F238" s="60"/>
+      <c r="G238" s="60"/>
+      <c r="H238" s="60"/>
+      <c r="I238" s="60"/>
+      <c r="J238" s="60"/>
+      <c r="K238" s="60"/>
+      <c r="L238" s="60"/>
+      <c r="M238" s="60"/>
+      <c r="N238" s="60"/>
+      <c r="O238" s="60"/>
       <c r="S238" s="51">
         <v>43714</v>
       </c>
@@ -60663,20 +60613,20 @@
       </c>
     </row>
     <row r="239" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B239" s="64"/>
-      <c r="C239" s="64"/>
-      <c r="D239" s="64"/>
-      <c r="E239" s="64"/>
-      <c r="F239" s="64"/>
-      <c r="G239" s="64"/>
-      <c r="H239" s="64"/>
-      <c r="I239" s="64"/>
-      <c r="J239" s="64"/>
-      <c r="K239" s="64"/>
-      <c r="L239" s="64"/>
-      <c r="M239" s="64"/>
-      <c r="N239" s="64"/>
-      <c r="O239" s="64"/>
+      <c r="B239" s="60"/>
+      <c r="C239" s="60"/>
+      <c r="D239" s="60"/>
+      <c r="E239" s="60"/>
+      <c r="F239" s="60"/>
+      <c r="G239" s="60"/>
+      <c r="H239" s="60"/>
+      <c r="I239" s="60"/>
+      <c r="J239" s="60"/>
+      <c r="K239" s="60"/>
+      <c r="L239" s="60"/>
+      <c r="M239" s="60"/>
+      <c r="N239" s="60"/>
+      <c r="O239" s="60"/>
       <c r="S239" s="51">
         <v>43714</v>
       </c>
@@ -60814,20 +60764,20 @@
       </c>
     </row>
     <row r="240" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B240" s="64"/>
-      <c r="C240" s="64"/>
-      <c r="D240" s="64"/>
-      <c r="E240" s="64"/>
-      <c r="F240" s="64"/>
-      <c r="G240" s="64"/>
-      <c r="H240" s="64"/>
-      <c r="I240" s="64"/>
-      <c r="J240" s="64"/>
-      <c r="K240" s="64"/>
-      <c r="L240" s="64"/>
-      <c r="M240" s="64"/>
-      <c r="N240" s="64"/>
-      <c r="O240" s="64"/>
+      <c r="B240" s="60"/>
+      <c r="C240" s="60"/>
+      <c r="D240" s="60"/>
+      <c r="E240" s="60"/>
+      <c r="F240" s="60"/>
+      <c r="G240" s="60"/>
+      <c r="H240" s="60"/>
+      <c r="I240" s="60"/>
+      <c r="J240" s="60"/>
+      <c r="K240" s="60"/>
+      <c r="L240" s="60"/>
+      <c r="M240" s="60"/>
+      <c r="N240" s="60"/>
+      <c r="O240" s="60"/>
       <c r="S240" s="51">
         <v>43714</v>
       </c>
@@ -60965,20 +60915,20 @@
       </c>
     </row>
     <row r="241" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B241" s="64"/>
-      <c r="C241" s="64"/>
-      <c r="D241" s="64"/>
-      <c r="E241" s="64"/>
-      <c r="F241" s="64"/>
-      <c r="G241" s="64"/>
-      <c r="H241" s="64"/>
-      <c r="I241" s="64"/>
-      <c r="J241" s="64"/>
-      <c r="K241" s="64"/>
-      <c r="L241" s="64"/>
-      <c r="M241" s="64"/>
-      <c r="N241" s="64"/>
-      <c r="O241" s="64"/>
+      <c r="B241" s="60"/>
+      <c r="C241" s="60"/>
+      <c r="D241" s="60"/>
+      <c r="E241" s="60"/>
+      <c r="F241" s="60"/>
+      <c r="G241" s="60"/>
+      <c r="H241" s="60"/>
+      <c r="I241" s="60"/>
+      <c r="J241" s="60"/>
+      <c r="K241" s="60"/>
+      <c r="L241" s="60"/>
+      <c r="M241" s="60"/>
+      <c r="N241" s="60"/>
+      <c r="O241" s="60"/>
       <c r="S241" s="51">
         <v>43714</v>
       </c>
@@ -61116,20 +61066,20 @@
       </c>
     </row>
     <row r="242" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B242" s="64"/>
-      <c r="C242" s="64"/>
-      <c r="D242" s="64"/>
-      <c r="E242" s="64"/>
-      <c r="F242" s="64"/>
-      <c r="G242" s="64"/>
-      <c r="H242" s="64"/>
-      <c r="I242" s="64"/>
-      <c r="J242" s="64"/>
-      <c r="K242" s="64"/>
-      <c r="L242" s="64"/>
-      <c r="M242" s="64"/>
-      <c r="N242" s="64"/>
-      <c r="O242" s="64"/>
+      <c r="B242" s="60"/>
+      <c r="C242" s="60"/>
+      <c r="D242" s="60"/>
+      <c r="E242" s="60"/>
+      <c r="F242" s="60"/>
+      <c r="G242" s="60"/>
+      <c r="H242" s="60"/>
+      <c r="I242" s="60"/>
+      <c r="J242" s="60"/>
+      <c r="K242" s="60"/>
+      <c r="L242" s="60"/>
+      <c r="M242" s="60"/>
+      <c r="N242" s="60"/>
+      <c r="O242" s="60"/>
       <c r="S242" s="51">
         <v>43714</v>
       </c>
@@ -61267,20 +61217,20 @@
       </c>
     </row>
     <row r="243" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B243" s="64"/>
-      <c r="C243" s="64"/>
-      <c r="D243" s="64"/>
-      <c r="E243" s="64"/>
-      <c r="F243" s="64"/>
-      <c r="G243" s="64"/>
-      <c r="H243" s="64"/>
-      <c r="I243" s="64"/>
-      <c r="J243" s="64"/>
-      <c r="K243" s="64"/>
-      <c r="L243" s="64"/>
-      <c r="M243" s="64"/>
-      <c r="N243" s="64"/>
-      <c r="O243" s="64"/>
+      <c r="B243" s="60"/>
+      <c r="C243" s="60"/>
+      <c r="D243" s="60"/>
+      <c r="E243" s="60"/>
+      <c r="F243" s="60"/>
+      <c r="G243" s="60"/>
+      <c r="H243" s="60"/>
+      <c r="I243" s="60"/>
+      <c r="J243" s="60"/>
+      <c r="K243" s="60"/>
+      <c r="L243" s="60"/>
+      <c r="M243" s="60"/>
+      <c r="N243" s="60"/>
+      <c r="O243" s="60"/>
       <c r="S243" s="51">
         <v>43714</v>
       </c>
@@ -61418,20 +61368,20 @@
       </c>
     </row>
     <row r="244" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B244" s="64"/>
-      <c r="C244" s="64"/>
-      <c r="D244" s="64"/>
-      <c r="E244" s="64"/>
-      <c r="F244" s="64"/>
-      <c r="G244" s="64"/>
-      <c r="H244" s="64"/>
-      <c r="I244" s="64"/>
-      <c r="J244" s="64"/>
-      <c r="K244" s="64"/>
-      <c r="L244" s="64"/>
-      <c r="M244" s="64"/>
-      <c r="N244" s="64"/>
-      <c r="O244" s="64"/>
+      <c r="B244" s="60"/>
+      <c r="C244" s="60"/>
+      <c r="D244" s="60"/>
+      <c r="E244" s="60"/>
+      <c r="F244" s="60"/>
+      <c r="G244" s="60"/>
+      <c r="H244" s="60"/>
+      <c r="I244" s="60"/>
+      <c r="J244" s="60"/>
+      <c r="K244" s="60"/>
+      <c r="L244" s="60"/>
+      <c r="M244" s="60"/>
+      <c r="N244" s="60"/>
+      <c r="O244" s="60"/>
       <c r="S244" s="51">
         <v>43714</v>
       </c>
@@ -61569,20 +61519,20 @@
       </c>
     </row>
     <row r="245" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B245" s="64"/>
-      <c r="C245" s="64"/>
-      <c r="D245" s="64"/>
-      <c r="E245" s="64"/>
-      <c r="F245" s="64"/>
-      <c r="G245" s="64"/>
-      <c r="H245" s="64"/>
-      <c r="I245" s="64"/>
-      <c r="J245" s="64"/>
-      <c r="K245" s="64"/>
-      <c r="L245" s="64"/>
-      <c r="M245" s="64"/>
-      <c r="N245" s="64"/>
-      <c r="O245" s="64"/>
+      <c r="B245" s="60"/>
+      <c r="C245" s="60"/>
+      <c r="D245" s="60"/>
+      <c r="E245" s="60"/>
+      <c r="F245" s="60"/>
+      <c r="G245" s="60"/>
+      <c r="H245" s="60"/>
+      <c r="I245" s="60"/>
+      <c r="J245" s="60"/>
+      <c r="K245" s="60"/>
+      <c r="L245" s="60"/>
+      <c r="M245" s="60"/>
+      <c r="N245" s="60"/>
+      <c r="O245" s="60"/>
       <c r="S245" s="51">
         <v>43714</v>
       </c>
@@ -61720,20 +61670,20 @@
       </c>
     </row>
     <row r="246" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B246" s="64"/>
-      <c r="C246" s="64"/>
-      <c r="D246" s="64"/>
-      <c r="E246" s="64"/>
-      <c r="F246" s="64"/>
-      <c r="G246" s="64"/>
-      <c r="H246" s="64"/>
-      <c r="I246" s="64"/>
-      <c r="J246" s="64"/>
-      <c r="K246" s="64"/>
-      <c r="L246" s="64"/>
-      <c r="M246" s="64"/>
-      <c r="N246" s="64"/>
-      <c r="O246" s="64"/>
+      <c r="B246" s="60"/>
+      <c r="C246" s="60"/>
+      <c r="D246" s="60"/>
+      <c r="E246" s="60"/>
+      <c r="F246" s="60"/>
+      <c r="G246" s="60"/>
+      <c r="H246" s="60"/>
+      <c r="I246" s="60"/>
+      <c r="J246" s="60"/>
+      <c r="K246" s="60"/>
+      <c r="L246" s="60"/>
+      <c r="M246" s="60"/>
+      <c r="N246" s="60"/>
+      <c r="O246" s="60"/>
       <c r="S246" s="51">
         <v>43714</v>
       </c>
@@ -61871,20 +61821,20 @@
       </c>
     </row>
     <row r="247" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B247" s="64"/>
-      <c r="C247" s="64"/>
-      <c r="D247" s="64"/>
-      <c r="E247" s="64"/>
-      <c r="F247" s="64"/>
-      <c r="G247" s="64"/>
-      <c r="H247" s="64"/>
-      <c r="I247" s="64"/>
-      <c r="J247" s="64"/>
-      <c r="K247" s="64"/>
-      <c r="L247" s="64"/>
-      <c r="M247" s="64"/>
-      <c r="N247" s="64"/>
-      <c r="O247" s="64"/>
+      <c r="B247" s="60"/>
+      <c r="C247" s="60"/>
+      <c r="D247" s="60"/>
+      <c r="E247" s="60"/>
+      <c r="F247" s="60"/>
+      <c r="G247" s="60"/>
+      <c r="H247" s="60"/>
+      <c r="I247" s="60"/>
+      <c r="J247" s="60"/>
+      <c r="K247" s="60"/>
+      <c r="L247" s="60"/>
+      <c r="M247" s="60"/>
+      <c r="N247" s="60"/>
+      <c r="O247" s="60"/>
       <c r="S247" s="51">
         <v>43714</v>
       </c>
@@ -62022,20 +61972,20 @@
       </c>
     </row>
     <row r="248" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B248" s="64"/>
-      <c r="C248" s="64"/>
-      <c r="D248" s="64"/>
-      <c r="E248" s="64"/>
-      <c r="F248" s="64"/>
-      <c r="G248" s="64"/>
-      <c r="H248" s="64"/>
-      <c r="I248" s="64"/>
-      <c r="J248" s="64"/>
-      <c r="K248" s="64"/>
-      <c r="L248" s="64"/>
-      <c r="M248" s="64"/>
-      <c r="N248" s="64"/>
-      <c r="O248" s="64"/>
+      <c r="B248" s="60"/>
+      <c r="C248" s="60"/>
+      <c r="D248" s="60"/>
+      <c r="E248" s="60"/>
+      <c r="F248" s="60"/>
+      <c r="G248" s="60"/>
+      <c r="H248" s="60"/>
+      <c r="I248" s="60"/>
+      <c r="J248" s="60"/>
+      <c r="K248" s="60"/>
+      <c r="L248" s="60"/>
+      <c r="M248" s="60"/>
+      <c r="N248" s="60"/>
+      <c r="O248" s="60"/>
       <c r="S248" s="51">
         <v>43714</v>
       </c>
@@ -62173,20 +62123,20 @@
       </c>
     </row>
     <row r="249" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B249" s="64"/>
-      <c r="C249" s="64"/>
-      <c r="D249" s="64"/>
-      <c r="E249" s="64"/>
-      <c r="F249" s="64"/>
-      <c r="G249" s="64"/>
-      <c r="H249" s="64"/>
-      <c r="I249" s="64"/>
-      <c r="J249" s="64"/>
-      <c r="K249" s="64"/>
-      <c r="L249" s="64"/>
-      <c r="M249" s="64"/>
-      <c r="N249" s="64"/>
-      <c r="O249" s="64"/>
+      <c r="B249" s="60"/>
+      <c r="C249" s="60"/>
+      <c r="D249" s="60"/>
+      <c r="E249" s="60"/>
+      <c r="F249" s="60"/>
+      <c r="G249" s="60"/>
+      <c r="H249" s="60"/>
+      <c r="I249" s="60"/>
+      <c r="J249" s="60"/>
+      <c r="K249" s="60"/>
+      <c r="L249" s="60"/>
+      <c r="M249" s="60"/>
+      <c r="N249" s="60"/>
+      <c r="O249" s="60"/>
       <c r="S249" s="51">
         <v>43714</v>
       </c>
@@ -62324,20 +62274,20 @@
       </c>
     </row>
     <row r="250" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B250" s="64"/>
-      <c r="C250" s="64"/>
-      <c r="D250" s="64"/>
-      <c r="E250" s="64"/>
-      <c r="F250" s="64"/>
-      <c r="G250" s="64"/>
-      <c r="H250" s="64"/>
-      <c r="I250" s="64"/>
-      <c r="J250" s="64"/>
-      <c r="K250" s="64"/>
-      <c r="L250" s="64"/>
-      <c r="M250" s="64"/>
-      <c r="N250" s="64"/>
-      <c r="O250" s="64"/>
+      <c r="B250" s="60"/>
+      <c r="C250" s="60"/>
+      <c r="D250" s="60"/>
+      <c r="E250" s="60"/>
+      <c r="F250" s="60"/>
+      <c r="G250" s="60"/>
+      <c r="H250" s="60"/>
+      <c r="I250" s="60"/>
+      <c r="J250" s="60"/>
+      <c r="K250" s="60"/>
+      <c r="L250" s="60"/>
+      <c r="M250" s="60"/>
+      <c r="N250" s="60"/>
+      <c r="O250" s="60"/>
       <c r="S250" s="51">
         <v>43714</v>
       </c>
@@ -62475,20 +62425,20 @@
       </c>
     </row>
     <row r="251" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B251" s="64"/>
-      <c r="C251" s="64"/>
-      <c r="D251" s="64"/>
-      <c r="E251" s="64"/>
-      <c r="F251" s="64"/>
-      <c r="G251" s="64"/>
-      <c r="H251" s="64"/>
-      <c r="I251" s="64"/>
-      <c r="J251" s="64"/>
-      <c r="K251" s="64"/>
-      <c r="L251" s="64"/>
-      <c r="M251" s="64"/>
-      <c r="N251" s="64"/>
-      <c r="O251" s="64"/>
+      <c r="B251" s="60"/>
+      <c r="C251" s="60"/>
+      <c r="D251" s="60"/>
+      <c r="E251" s="60"/>
+      <c r="F251" s="60"/>
+      <c r="G251" s="60"/>
+      <c r="H251" s="60"/>
+      <c r="I251" s="60"/>
+      <c r="J251" s="60"/>
+      <c r="K251" s="60"/>
+      <c r="L251" s="60"/>
+      <c r="M251" s="60"/>
+      <c r="N251" s="60"/>
+      <c r="O251" s="60"/>
       <c r="S251" s="51">
         <v>43714</v>
       </c>
@@ -62626,20 +62576,20 @@
       </c>
     </row>
     <row r="252" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B252" s="64"/>
-      <c r="C252" s="64"/>
-      <c r="D252" s="64"/>
-      <c r="E252" s="64"/>
-      <c r="F252" s="64"/>
-      <c r="G252" s="64"/>
-      <c r="H252" s="64"/>
-      <c r="I252" s="64"/>
-      <c r="J252" s="64"/>
-      <c r="K252" s="64"/>
-      <c r="L252" s="64"/>
-      <c r="M252" s="64"/>
-      <c r="N252" s="64"/>
-      <c r="O252" s="64"/>
+      <c r="B252" s="60"/>
+      <c r="C252" s="60"/>
+      <c r="D252" s="60"/>
+      <c r="E252" s="60"/>
+      <c r="F252" s="60"/>
+      <c r="G252" s="60"/>
+      <c r="H252" s="60"/>
+      <c r="I252" s="60"/>
+      <c r="J252" s="60"/>
+      <c r="K252" s="60"/>
+      <c r="L252" s="60"/>
+      <c r="M252" s="60"/>
+      <c r="N252" s="60"/>
+      <c r="O252" s="60"/>
       <c r="S252" s="51">
         <v>43714</v>
       </c>
@@ -62777,20 +62727,20 @@
       </c>
     </row>
     <row r="253" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B253" s="64"/>
-      <c r="C253" s="64"/>
-      <c r="D253" s="64"/>
-      <c r="E253" s="64"/>
-      <c r="F253" s="64"/>
-      <c r="G253" s="64"/>
-      <c r="H253" s="64"/>
-      <c r="I253" s="64"/>
-      <c r="J253" s="64"/>
-      <c r="K253" s="64"/>
-      <c r="L253" s="64"/>
-      <c r="M253" s="64"/>
-      <c r="N253" s="64"/>
-      <c r="O253" s="64"/>
+      <c r="B253" s="60"/>
+      <c r="C253" s="60"/>
+      <c r="D253" s="60"/>
+      <c r="E253" s="60"/>
+      <c r="F253" s="60"/>
+      <c r="G253" s="60"/>
+      <c r="H253" s="60"/>
+      <c r="I253" s="60"/>
+      <c r="J253" s="60"/>
+      <c r="K253" s="60"/>
+      <c r="L253" s="60"/>
+      <c r="M253" s="60"/>
+      <c r="N253" s="60"/>
+      <c r="O253" s="60"/>
       <c r="S253" s="51">
         <v>43714</v>
       </c>
@@ -62928,20 +62878,20 @@
       </c>
     </row>
     <row r="254" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B254" s="64"/>
-      <c r="C254" s="64"/>
-      <c r="D254" s="64"/>
-      <c r="E254" s="64"/>
-      <c r="F254" s="64"/>
-      <c r="G254" s="64"/>
-      <c r="H254" s="64"/>
-      <c r="I254" s="64"/>
-      <c r="J254" s="64"/>
-      <c r="K254" s="64"/>
-      <c r="L254" s="64"/>
-      <c r="M254" s="64"/>
-      <c r="N254" s="64"/>
-      <c r="O254" s="64"/>
+      <c r="B254" s="60"/>
+      <c r="C254" s="60"/>
+      <c r="D254" s="60"/>
+      <c r="E254" s="60"/>
+      <c r="F254" s="60"/>
+      <c r="G254" s="60"/>
+      <c r="H254" s="60"/>
+      <c r="I254" s="60"/>
+      <c r="J254" s="60"/>
+      <c r="K254" s="60"/>
+      <c r="L254" s="60"/>
+      <c r="M254" s="60"/>
+      <c r="N254" s="60"/>
+      <c r="O254" s="60"/>
       <c r="S254" s="51">
         <v>43714</v>
       </c>
@@ -63079,20 +63029,20 @@
       </c>
     </row>
     <row r="255" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B255" s="64"/>
-      <c r="C255" s="64"/>
-      <c r="D255" s="64"/>
-      <c r="E255" s="64"/>
-      <c r="F255" s="64"/>
-      <c r="G255" s="64"/>
-      <c r="H255" s="64"/>
-      <c r="I255" s="64"/>
-      <c r="J255" s="64"/>
-      <c r="K255" s="64"/>
-      <c r="L255" s="64"/>
-      <c r="M255" s="64"/>
-      <c r="N255" s="64"/>
-      <c r="O255" s="64"/>
+      <c r="B255" s="60"/>
+      <c r="C255" s="60"/>
+      <c r="D255" s="60"/>
+      <c r="E255" s="60"/>
+      <c r="F255" s="60"/>
+      <c r="G255" s="60"/>
+      <c r="H255" s="60"/>
+      <c r="I255" s="60"/>
+      <c r="J255" s="60"/>
+      <c r="K255" s="60"/>
+      <c r="L255" s="60"/>
+      <c r="M255" s="60"/>
+      <c r="N255" s="60"/>
+      <c r="O255" s="60"/>
       <c r="S255" s="51">
         <v>43714</v>
       </c>
@@ -63230,20 +63180,20 @@
       </c>
     </row>
     <row r="256" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B256" s="64"/>
-      <c r="C256" s="64"/>
-      <c r="D256" s="64"/>
-      <c r="E256" s="64"/>
-      <c r="F256" s="64"/>
-      <c r="G256" s="64"/>
-      <c r="H256" s="64"/>
-      <c r="I256" s="64"/>
-      <c r="J256" s="64"/>
-      <c r="K256" s="64"/>
-      <c r="L256" s="64"/>
-      <c r="M256" s="64"/>
-      <c r="N256" s="64"/>
-      <c r="O256" s="64"/>
+      <c r="B256" s="60"/>
+      <c r="C256" s="60"/>
+      <c r="D256" s="60"/>
+      <c r="E256" s="60"/>
+      <c r="F256" s="60"/>
+      <c r="G256" s="60"/>
+      <c r="H256" s="60"/>
+      <c r="I256" s="60"/>
+      <c r="J256" s="60"/>
+      <c r="K256" s="60"/>
+      <c r="L256" s="60"/>
+      <c r="M256" s="60"/>
+      <c r="N256" s="60"/>
+      <c r="O256" s="60"/>
       <c r="S256" s="51">
         <v>43714</v>
       </c>
@@ -63381,20 +63331,20 @@
       </c>
     </row>
     <row r="257" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B257" s="64"/>
-      <c r="C257" s="64"/>
-      <c r="D257" s="64"/>
-      <c r="E257" s="64"/>
-      <c r="F257" s="64"/>
-      <c r="G257" s="64"/>
-      <c r="H257" s="64"/>
-      <c r="I257" s="64"/>
-      <c r="J257" s="64"/>
-      <c r="K257" s="64"/>
-      <c r="L257" s="64"/>
-      <c r="M257" s="64"/>
-      <c r="N257" s="64"/>
-      <c r="O257" s="64"/>
+      <c r="B257" s="60"/>
+      <c r="C257" s="60"/>
+      <c r="D257" s="60"/>
+      <c r="E257" s="60"/>
+      <c r="F257" s="60"/>
+      <c r="G257" s="60"/>
+      <c r="H257" s="60"/>
+      <c r="I257" s="60"/>
+      <c r="J257" s="60"/>
+      <c r="K257" s="60"/>
+      <c r="L257" s="60"/>
+      <c r="M257" s="60"/>
+      <c r="N257" s="60"/>
+      <c r="O257" s="60"/>
       <c r="S257" s="51">
         <v>43714</v>
       </c>
@@ -63532,20 +63482,20 @@
       </c>
     </row>
     <row r="258" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B258" s="64"/>
-      <c r="C258" s="64"/>
-      <c r="D258" s="64"/>
-      <c r="E258" s="64"/>
-      <c r="F258" s="64"/>
-      <c r="G258" s="64"/>
-      <c r="H258" s="64"/>
-      <c r="I258" s="64"/>
-      <c r="J258" s="64"/>
-      <c r="K258" s="64"/>
-      <c r="L258" s="64"/>
-      <c r="M258" s="64"/>
-      <c r="N258" s="64"/>
-      <c r="O258" s="64"/>
+      <c r="B258" s="60"/>
+      <c r="C258" s="60"/>
+      <c r="D258" s="60"/>
+      <c r="E258" s="60"/>
+      <c r="F258" s="60"/>
+      <c r="G258" s="60"/>
+      <c r="H258" s="60"/>
+      <c r="I258" s="60"/>
+      <c r="J258" s="60"/>
+      <c r="K258" s="60"/>
+      <c r="L258" s="60"/>
+      <c r="M258" s="60"/>
+      <c r="N258" s="60"/>
+      <c r="O258" s="60"/>
       <c r="S258" s="51">
         <v>43714</v>
       </c>
@@ -63683,20 +63633,20 @@
       </c>
     </row>
     <row r="259" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B259" s="64"/>
-      <c r="C259" s="64"/>
-      <c r="D259" s="64"/>
-      <c r="E259" s="64"/>
-      <c r="F259" s="64"/>
-      <c r="G259" s="64"/>
-      <c r="H259" s="64"/>
-      <c r="I259" s="64"/>
-      <c r="J259" s="64"/>
-      <c r="K259" s="64"/>
-      <c r="L259" s="64"/>
-      <c r="M259" s="64"/>
-      <c r="N259" s="64"/>
-      <c r="O259" s="64"/>
+      <c r="B259" s="60"/>
+      <c r="C259" s="60"/>
+      <c r="D259" s="60"/>
+      <c r="E259" s="60"/>
+      <c r="F259" s="60"/>
+      <c r="G259" s="60"/>
+      <c r="H259" s="60"/>
+      <c r="I259" s="60"/>
+      <c r="J259" s="60"/>
+      <c r="K259" s="60"/>
+      <c r="L259" s="60"/>
+      <c r="M259" s="60"/>
+      <c r="N259" s="60"/>
+      <c r="O259" s="60"/>
       <c r="S259" s="51">
         <v>43714</v>
       </c>
@@ -63834,20 +63784,20 @@
       </c>
     </row>
     <row r="260" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B260" s="64"/>
-      <c r="C260" s="64"/>
-      <c r="D260" s="64"/>
-      <c r="E260" s="64"/>
-      <c r="F260" s="64"/>
-      <c r="G260" s="64"/>
-      <c r="H260" s="64"/>
-      <c r="I260" s="64"/>
-      <c r="J260" s="64"/>
-      <c r="K260" s="64"/>
-      <c r="L260" s="64"/>
-      <c r="M260" s="64"/>
-      <c r="N260" s="64"/>
-      <c r="O260" s="64"/>
+      <c r="B260" s="60"/>
+      <c r="C260" s="60"/>
+      <c r="D260" s="60"/>
+      <c r="E260" s="60"/>
+      <c r="F260" s="60"/>
+      <c r="G260" s="60"/>
+      <c r="H260" s="60"/>
+      <c r="I260" s="60"/>
+      <c r="J260" s="60"/>
+      <c r="K260" s="60"/>
+      <c r="L260" s="60"/>
+      <c r="M260" s="60"/>
+      <c r="N260" s="60"/>
+      <c r="O260" s="60"/>
       <c r="S260" s="51">
         <v>43714</v>
       </c>
@@ -63985,20 +63935,20 @@
       </c>
     </row>
     <row r="261" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B261" s="64"/>
-      <c r="C261" s="64"/>
-      <c r="D261" s="64"/>
-      <c r="E261" s="64"/>
-      <c r="F261" s="64"/>
-      <c r="G261" s="64"/>
-      <c r="H261" s="64"/>
-      <c r="I261" s="64"/>
-      <c r="J261" s="64"/>
-      <c r="K261" s="64"/>
-      <c r="L261" s="64"/>
-      <c r="M261" s="64"/>
-      <c r="N261" s="64"/>
-      <c r="O261" s="64"/>
+      <c r="B261" s="60"/>
+      <c r="C261" s="60"/>
+      <c r="D261" s="60"/>
+      <c r="E261" s="60"/>
+      <c r="F261" s="60"/>
+      <c r="G261" s="60"/>
+      <c r="H261" s="60"/>
+      <c r="I261" s="60"/>
+      <c r="J261" s="60"/>
+      <c r="K261" s="60"/>
+      <c r="L261" s="60"/>
+      <c r="M261" s="60"/>
+      <c r="N261" s="60"/>
+      <c r="O261" s="60"/>
       <c r="S261" s="51">
         <v>43714</v>
       </c>
@@ -64136,20 +64086,20 @@
       </c>
     </row>
     <row r="262" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B262" s="64"/>
-      <c r="C262" s="64"/>
-      <c r="D262" s="64"/>
-      <c r="E262" s="64"/>
-      <c r="F262" s="64"/>
-      <c r="G262" s="64"/>
-      <c r="H262" s="64"/>
-      <c r="I262" s="64"/>
-      <c r="J262" s="64"/>
-      <c r="K262" s="64"/>
-      <c r="L262" s="64"/>
-      <c r="M262" s="64"/>
-      <c r="N262" s="64"/>
-      <c r="O262" s="64"/>
+      <c r="B262" s="60"/>
+      <c r="C262" s="60"/>
+      <c r="D262" s="60"/>
+      <c r="E262" s="60"/>
+      <c r="F262" s="60"/>
+      <c r="G262" s="60"/>
+      <c r="H262" s="60"/>
+      <c r="I262" s="60"/>
+      <c r="J262" s="60"/>
+      <c r="K262" s="60"/>
+      <c r="L262" s="60"/>
+      <c r="M262" s="60"/>
+      <c r="N262" s="60"/>
+      <c r="O262" s="60"/>
       <c r="S262" s="51">
         <v>43714</v>
       </c>
@@ -64287,20 +64237,20 @@
       </c>
     </row>
     <row r="263" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B263" s="64"/>
-      <c r="C263" s="64"/>
-      <c r="D263" s="64"/>
-      <c r="E263" s="64"/>
-      <c r="F263" s="64"/>
-      <c r="G263" s="64"/>
-      <c r="H263" s="64"/>
-      <c r="I263" s="64"/>
-      <c r="J263" s="64"/>
-      <c r="K263" s="64"/>
-      <c r="L263" s="64"/>
-      <c r="M263" s="64"/>
-      <c r="N263" s="64"/>
-      <c r="O263" s="64"/>
+      <c r="B263" s="60"/>
+      <c r="C263" s="60"/>
+      <c r="D263" s="60"/>
+      <c r="E263" s="60"/>
+      <c r="F263" s="60"/>
+      <c r="G263" s="60"/>
+      <c r="H263" s="60"/>
+      <c r="I263" s="60"/>
+      <c r="J263" s="60"/>
+      <c r="K263" s="60"/>
+      <c r="L263" s="60"/>
+      <c r="M263" s="60"/>
+      <c r="N263" s="60"/>
+      <c r="O263" s="60"/>
       <c r="S263" s="51">
         <v>43714</v>
       </c>
@@ -64438,20 +64388,20 @@
       </c>
     </row>
     <row r="264" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B264" s="64"/>
-      <c r="C264" s="64"/>
-      <c r="D264" s="64"/>
-      <c r="E264" s="64"/>
-      <c r="F264" s="64"/>
-      <c r="G264" s="64"/>
-      <c r="H264" s="64"/>
-      <c r="I264" s="64"/>
-      <c r="J264" s="64"/>
-      <c r="K264" s="64"/>
-      <c r="L264" s="64"/>
-      <c r="M264" s="64"/>
-      <c r="N264" s="64"/>
-      <c r="O264" s="64"/>
+      <c r="B264" s="60"/>
+      <c r="C264" s="60"/>
+      <c r="D264" s="60"/>
+      <c r="E264" s="60"/>
+      <c r="F264" s="60"/>
+      <c r="G264" s="60"/>
+      <c r="H264" s="60"/>
+      <c r="I264" s="60"/>
+      <c r="J264" s="60"/>
+      <c r="K264" s="60"/>
+      <c r="L264" s="60"/>
+      <c r="M264" s="60"/>
+      <c r="N264" s="60"/>
+      <c r="O264" s="60"/>
       <c r="S264" s="51">
         <v>43714</v>
       </c>
@@ -64589,20 +64539,20 @@
       </c>
     </row>
     <row r="265" spans="2:63" x14ac:dyDescent="0.45">
-      <c r="B265" s="64"/>
-      <c r="C265" s="64"/>
-      <c r="D265" s="64"/>
-      <c r="E265" s="64"/>
-      <c r="F265" s="64"/>
-      <c r="G265" s="64"/>
-      <c r="H265" s="64"/>
-      <c r="I265" s="64"/>
-      <c r="J265" s="64"/>
-      <c r="K265" s="64"/>
-      <c r="L265" s="64"/>
-      <c r="M265" s="64"/>
-      <c r="N265" s="64"/>
-      <c r="O265" s="64"/>
+      <c r="B265" s="60"/>
+      <c r="C265" s="60"/>
+      <c r="D265" s="60"/>
+      <c r="E265" s="60"/>
+      <c r="F265" s="60"/>
+      <c r="G265" s="60"/>
+      <c r="H265" s="60"/>
+      <c r="I265" s="60"/>
+      <c r="J265" s="60"/>
+      <c r="K265" s="60"/>
+      <c r="L265" s="60"/>
+      <c r="M265" s="60"/>
+      <c r="N265" s="60"/>
+      <c r="O265" s="60"/>
       <c r="S265" s="51">
         <v>43714</v>
       </c>
@@ -64740,6 +64690,20 @@
       </c>
     </row>
     <row r="266" spans="2:63" x14ac:dyDescent="0.45">
+      <c r="B266" s="60"/>
+      <c r="C266" s="60"/>
+      <c r="D266" s="60"/>
+      <c r="E266" s="60"/>
+      <c r="F266" s="60"/>
+      <c r="G266" s="60"/>
+      <c r="H266" s="60"/>
+      <c r="I266" s="60"/>
+      <c r="J266" s="60"/>
+      <c r="K266" s="60"/>
+      <c r="L266" s="60"/>
+      <c r="M266" s="60"/>
+      <c r="N266" s="60"/>
+      <c r="O266" s="60"/>
       <c r="S266" s="51">
         <v>43714</v>
       </c>
@@ -69668,6 +69632,143 @@
         <v>43773</v>
       </c>
       <c r="BK301" s="52">
+        <v>43774</v>
+      </c>
+    </row>
+    <row r="302" spans="19:63" x14ac:dyDescent="0.45">
+      <c r="S302" s="51">
+        <v>43714</v>
+      </c>
+      <c r="T302" s="51">
+        <v>43715</v>
+      </c>
+      <c r="U302" s="52">
+        <v>43716</v>
+      </c>
+      <c r="V302" s="51">
+        <v>43717</v>
+      </c>
+      <c r="W302" s="51">
+        <v>43718</v>
+      </c>
+      <c r="X302" s="52">
+        <v>43719</v>
+      </c>
+      <c r="Y302" s="51">
+        <v>43720</v>
+      </c>
+      <c r="Z302" s="51">
+        <v>43721</v>
+      </c>
+      <c r="AA302" s="52">
+        <v>43724</v>
+      </c>
+      <c r="AB302" s="51">
+        <v>43725</v>
+      </c>
+      <c r="AC302" s="51">
+        <v>43726</v>
+      </c>
+      <c r="AD302" s="52">
+        <v>43727</v>
+      </c>
+      <c r="AE302" s="51">
+        <v>43728</v>
+      </c>
+      <c r="AF302" s="51">
+        <v>43731</v>
+      </c>
+      <c r="AG302" s="52">
+        <v>43732</v>
+      </c>
+      <c r="AH302" s="51">
+        <v>43733</v>
+      </c>
+      <c r="AI302" s="51">
+        <v>43734</v>
+      </c>
+      <c r="AJ302" s="52">
+        <v>43735</v>
+      </c>
+      <c r="AK302" s="51">
+        <v>43738</v>
+      </c>
+      <c r="AL302" s="51">
+        <v>43739</v>
+      </c>
+      <c r="AM302" s="52">
+        <v>43740</v>
+      </c>
+      <c r="AN302" s="51">
+        <v>43741</v>
+      </c>
+      <c r="AO302" s="51">
+        <v>43742</v>
+      </c>
+      <c r="AP302" s="52">
+        <v>43745</v>
+      </c>
+      <c r="AQ302" s="51">
+        <v>43746</v>
+      </c>
+      <c r="AR302" s="51">
+        <v>43747</v>
+      </c>
+      <c r="AS302" s="52">
+        <v>43748</v>
+      </c>
+      <c r="AT302" s="51">
+        <v>43749</v>
+      </c>
+      <c r="AU302" s="51">
+        <v>43752</v>
+      </c>
+      <c r="AV302" s="52">
+        <v>43753</v>
+      </c>
+      <c r="AW302" s="51">
+        <v>43754</v>
+      </c>
+      <c r="AX302" s="51">
+        <v>43755</v>
+      </c>
+      <c r="AY302" s="52">
+        <v>43756</v>
+      </c>
+      <c r="AZ302" s="51">
+        <v>43759</v>
+      </c>
+      <c r="BA302" s="51">
+        <v>43760</v>
+      </c>
+      <c r="BB302" s="52">
+        <v>43761</v>
+      </c>
+      <c r="BC302" s="51">
+        <v>43762</v>
+      </c>
+      <c r="BD302" s="51">
+        <v>43763</v>
+      </c>
+      <c r="BE302" s="52">
+        <v>43766</v>
+      </c>
+      <c r="BF302" s="51">
+        <v>43767</v>
+      </c>
+      <c r="BG302" s="51">
+        <v>43768</v>
+      </c>
+      <c r="BH302" s="52">
+        <v>43769</v>
+      </c>
+      <c r="BI302" s="51">
+        <v>43770</v>
+      </c>
+      <c r="BJ302" s="51">
+        <v>43773</v>
+      </c>
+      <c r="BK302" s="52">
         <v>43774</v>
       </c>
     </row>
@@ -69678,109 +69779,121 @@
     <mergeCell ref="O2:O3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K4:K81">
-    <cfRule type="cellIs" dxfId="25" priority="34" operator="equal">
+  <conditionalFormatting sqref="K66:K82 K4:K64">
+    <cfRule type="cellIs" dxfId="27" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="35">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>AND(NOT(ISBLANK($K4)), NOT(ISBLANK($O4)), $K4 &lt;= 0.5, AND(TODAY() &gt;= $N4, TODAY() &lt;= $O4, TODAY()+4 &gt; $O4))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="36">
+    <cfRule type="expression" dxfId="25" priority="36">
       <formula>AND(NOT(ISBLANK($K4)), NOT(ISBLANK($O4)), $K4 &lt; 1, TODAY() &gt; $O4)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:O10 N16:O16 N17:N18 N19:O81">
-    <cfRule type="containsBlanks" dxfId="22" priority="31">
+  <conditionalFormatting sqref="N4:O10 N16:O16 N17:N18 N19:O63 N66:O82">
+    <cfRule type="containsBlanks" dxfId="24" priority="31">
       <formula>LEN(TRIM(N4))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="32" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S4:BK301">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="between">
+  <conditionalFormatting sqref="S4:BK63 S72:BK302">
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="between">
       <formula>$N4</formula>
       <formula>$O4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N12">
-    <cfRule type="containsBlanks" dxfId="19" priority="29">
+    <cfRule type="containsBlanks" dxfId="21" priority="29">
       <formula>LEN(TRIM(N11))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="30" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="20" priority="30" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="containsBlanks" dxfId="17" priority="27">
+    <cfRule type="containsBlanks" dxfId="19" priority="27">
       <formula>LEN(TRIM(N13))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N15">
-    <cfRule type="containsBlanks" dxfId="15" priority="25">
+    <cfRule type="containsBlanks" dxfId="17" priority="25">
       <formula>LEN(TRIM(N14))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="containsBlanks" dxfId="13" priority="21">
+    <cfRule type="containsBlanks" dxfId="15" priority="21">
       <formula>LEN(TRIM(O11))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="22" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="containsBlanks" dxfId="11" priority="7">
+    <cfRule type="containsBlanks" dxfId="13" priority="7">
       <formula>LEN(TRIM(O14))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="containsBlanks" dxfId="9" priority="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="11">
       <formula>LEN(TRIM(O12))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="9">
       <formula>LEN(TRIM(O13))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
+    <cfRule type="containsBlanks" dxfId="7" priority="5">
       <formula>LEN(TRIM(O15))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
+    <cfRule type="containsBlanks" dxfId="5" priority="3">
       <formula>LEN(TRIM(O17))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThanOrEqual">
       <formula>$O$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(O18))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThanOrEqual">
       <formula>$O$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S64:BK69">
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="between">
+      <formula>$N66</formula>
+      <formula>$O66</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S70:BK71">
+    <cfRule type="cellIs" dxfId="0" priority="54" operator="between">
+      <formula>#REF!</formula>
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
